--- a/global_attribute_table.xlsx
+++ b/global_attribute_table.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/cloudstor/SAZ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F6D9E53-F540-5C43-86A4-63C6DE77DD86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0BF801-DA45-D54E-8A23-54741DFEA52A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14140" yWindow="4100" windowWidth="34180" windowHeight="17740" xr2:uid="{AB62E28C-C197-1443-8F5C-081BEC806BA6}"/>
+    <workbookView xWindow="9840" yWindow="3500" windowWidth="29180" windowHeight="19860" xr2:uid="{AB62E28C-C197-1443-8F5C-081BEC806BA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="cdl" localSheetId="0">Sheet1!$B$2:$F$54</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,32 +23,15 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{05A3D1CE-C6DB-A040-A323-75D2A596189D}" name="cdl" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/pete/cloudstor/SAZ/cdl.txt" tab="0" comma="1">
-      <textFields count="4">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="148">
   <si>
     <t>Oceanographic and meteorological data from the Southern Ocean Time Series observatory in the Southern Ocean southwest of Tasmania.</t>
   </si>
@@ -122,12 +102,6 @@
     <t>McLane-PARFLUX Mark78H-21</t>
   </si>
   <si>
-    <t>McLane sn 11741-01, G500x21 ; IRS controller #1 ; Mclane sn 11649-01, T250x21 ; McLane sn 11640-01, A500x21</t>
-  </si>
-  <si>
-    <t>Oceans-&gt;Ocean Chemistry-&gt;Biogeochemical Cycles; moles_of_nitrate_and_nitrite_per_unit_mass_in_sea_water; moles_of_phosphate_per_unit_mass_in_sea_water; sea water parctical salinity; sample_number; moles_of_silicate_per_unit_mass_in_sea_water; moles_of_inorganic_carbon_per_unit_mass_in_sea_water; sea water temperature; recovered_bag_contents_mass</t>
-  </si>
-  <si>
     <t>http://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
@@ -149,9 +123,6 @@
     <t>Integrated Marine Observing System (IMOS)</t>
   </si>
   <si>
-    <t>http://www.imos.org.au</t>
-  </si>
-  <si>
     <t>SOTS</t>
   </si>
   <si>
@@ -161,21 +132,6 @@
     <t>NetCDF Climate and Forecast (CF) Metadata Convention Standard Name Table 67</t>
   </si>
   <si>
-    <t>2012-08-01T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2013-09-05T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2012-07-18T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2014-02-28T00:00:00Z</t>
-  </si>
-  <si>
-    <t>+/- 95% ci</t>
-  </si>
-  <si>
     <t xml:space="preserve">abstract </t>
   </si>
   <si>
@@ -215,12 +171,6 @@
     <t xml:space="preserve">data_mode </t>
   </si>
   <si>
-    <t xml:space="preserve">deployment_code </t>
-  </si>
-  <si>
-    <t xml:space="preserve">deployment_number </t>
-  </si>
-  <si>
     <t xml:space="preserve">disclaimer </t>
   </si>
   <si>
@@ -233,30 +183,12 @@
     <t xml:space="preserve">featureType </t>
   </si>
   <si>
-    <t xml:space="preserve">geospatial_lat_max </t>
-  </si>
-  <si>
-    <t xml:space="preserve">geospatial_lat_min </t>
-  </si>
-  <si>
     <t xml:space="preserve">geospatial_lat_units </t>
   </si>
   <si>
-    <t xml:space="preserve">geospatial_lon_max </t>
-  </si>
-  <si>
-    <t xml:space="preserve">geospatial_lon_min </t>
-  </si>
-  <si>
     <t xml:space="preserve">geospatial_lon_units </t>
   </si>
   <si>
-    <t xml:space="preserve">geospatial_vertical_max </t>
-  </si>
-  <si>
-    <t xml:space="preserve">geospatial_vertical_min </t>
-  </si>
-  <si>
     <t xml:space="preserve">geospatial_vertical_positive </t>
   </si>
   <si>
@@ -272,9 +204,6 @@
     <t xml:space="preserve">instrument </t>
   </si>
   <si>
-    <t xml:space="preserve">instrument_serial_number </t>
-  </si>
-  <si>
     <t xml:space="preserve">keywords </t>
   </si>
   <si>
@@ -317,24 +246,9 @@
     <t xml:space="preserve">standard_name_vocabulary </t>
   </si>
   <si>
-    <t xml:space="preserve">time_coverage_start </t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_coverage_end </t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_deployment_start </t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_deployment_end </t>
-  </si>
-  <si>
     <t xml:space="preserve">title </t>
   </si>
   <si>
-    <t xml:space="preserve">uncertainty </t>
-  </si>
-  <si>
     <t>deployment</t>
   </si>
   <si>
@@ -350,12 +264,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>GENERATED</t>
-  </si>
-  <si>
-    <t>Any users of IMOS data are required to clearly acknowledge the source of the material derived from IMOS in the format: Data was sourced from the Integrated Marine Observing System (IMOS) - IMOS is a national collaborative research infrastructure  supported by the Australian Government."If relevant  also credit other organisations involved in collection of this particular datastream (as listed in credit in the metadata record)."</t>
-  </si>
-  <si>
     <t>Data, products and services from IMOS are provided "as is" without any warranty as to fitness for a particular purpose.</t>
   </si>
   <si>
@@ -392,17 +300,230 @@
     <t>http://www.cmar.csiro.au/data/trawler/survey_details.cfm?survey=IN2017_V02</t>
   </si>
   <si>
-    <t>SAZ47-19-2017</t>
-  </si>
-  <si>
     <t>http://www.cmar.csiro.au/data/trawler/survey_details.cfm?survey=IN2018_V02</t>
+  </si>
+  <si>
+    <t>contributor_role</t>
+  </si>
+  <si>
+    <t>Cathryn Wynn-Edwards</t>
+  </si>
+  <si>
+    <t>data analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contributor_name </t>
+  </si>
+  <si>
+    <t>Oceans-&gt;Ocean Chemistry-&gt;Biogeochemical Cycles; mass_flux; SAL_BRINE; pH_BRINE; PC_mass_flux; PN_mass_flux; POC_mass_flux; PIC_mass_flux; BSi_mass_flux</t>
+  </si>
+  <si>
+    <t>comment_uncertainty</t>
+  </si>
+  <si>
+    <t>Mass flux uncertainty estimates are based on weighing errors only (uniformly 0.06%), and do not include sample splitting errors (~3%) or trap collection efficiency variations. Chemical component flux uncertainty estimates combine the mass flux uncertainty and the analytical uncertainty for the component, based on variations in working standards and duplicate samples over long periods. These are uniformly 1.9% for PIC, 2.8% for POC, 2.1% for PC, 3.8% for PN, and 4.9% for BSi.  All uncertainty estimates are 95% confidence intervals (1.96 standard deviations). Further details are available in Wynn-Edwards et al., 2020</t>
+  </si>
+  <si>
+    <t>https://www.cmar.csiro.au/data/trawler/survey_details.cfm?survey=IN2018_V02</t>
+  </si>
+  <si>
+    <t>https://www.cmar.csiro.au/data/trawler/survey_details.cfm?survey=IN2019_V02</t>
+  </si>
+  <si>
+    <t>Any users of IMOS data are required to clearly acknowledge the source of the material derived from IMOS in the format: "Data was sourced from the Integrated Marine Observing System (IMOS) - IMOS is a national collaborative research infrastructure, supported by the Australian Government."</t>
+  </si>
+  <si>
+    <t>SAZ47-20-2018</t>
+  </si>
+  <si>
+    <t>SAZ47-21-2019</t>
+  </si>
+  <si>
+    <t>SAZ46-19-2017</t>
+  </si>
+  <si>
+    <t>https://www.cmar.csiro.au/data/trawler/survey_details.cfm?survey=SS2013_V03</t>
+  </si>
+  <si>
+    <t>https://www.cmar.csiro.au/data/trawler/survey_details.cfm?survey=SS2012_V03</t>
+  </si>
+  <si>
+    <t>SAZ47-14-2011</t>
+  </si>
+  <si>
+    <t>https://www.cmar.csiro.au/data/trawler/survey_details.cfm?survey=SS2011_V03</t>
+  </si>
+  <si>
+    <t>SAZ47-13-2010</t>
+  </si>
+  <si>
+    <t>https://www.cmar.csiro.au/data/trawler/survey_details.cfm?survey=SS2010_V07</t>
+  </si>
+  <si>
+    <t>SAZ47-12-2009</t>
+  </si>
+  <si>
+    <t>https://www.cmar.csiro.au/data/trawler/survey_details.cfm?survey=SS2009_V04</t>
+  </si>
+  <si>
+    <t>SAZ45-11-2008</t>
+  </si>
+  <si>
+    <t>AA08/09vtrials</t>
+  </si>
+  <si>
+    <t>SAZ54-10-2006</t>
+  </si>
+  <si>
+    <t>SAZ47-9b-2006</t>
+  </si>
+  <si>
+    <t>not recovered</t>
+  </si>
+  <si>
+    <t>AA06_V1.1</t>
+  </si>
+  <si>
+    <t>AA07_V03</t>
+  </si>
+  <si>
+    <t>https://www.cmar.csiro.au/data/trawler/survey_details.cfm?survey=SS200603</t>
+  </si>
+  <si>
+    <t>SAZ47-9a-2005</t>
+  </si>
+  <si>
+    <t>AA05_V02</t>
+  </si>
+  <si>
+    <t>SAZ54-9-2005</t>
+  </si>
+  <si>
+    <t>SAZ47-8-2004</t>
+  </si>
+  <si>
+    <t>SAZ54-8-2004</t>
+  </si>
+  <si>
+    <t>AA04_V01</t>
+  </si>
+  <si>
+    <t>SAZ47-7-2003</t>
+  </si>
+  <si>
+    <t>SAZ54-7-2003</t>
+  </si>
+  <si>
+    <t>AA03_V01</t>
+  </si>
+  <si>
+    <t>SAZ54-6-2002</t>
+  </si>
+  <si>
+    <t>SAZ61-6-2002</t>
+  </si>
+  <si>
+    <t>AA02_V01</t>
+  </si>
+  <si>
+    <t>SAZ61-5-2001</t>
+  </si>
+  <si>
+    <t>AA01_V03</t>
+  </si>
+  <si>
+    <t>SAZ54-5-2001</t>
+  </si>
+  <si>
+    <t>SAZ47-5-2001</t>
+  </si>
+  <si>
+    <t>SAZ54-4-2000</t>
+  </si>
+  <si>
+    <t>AA00_V01</t>
+  </si>
+  <si>
+    <t>SAZ47-4-2000</t>
+  </si>
+  <si>
+    <t>SAZ47-3-1999</t>
+  </si>
+  <si>
+    <t>AA99_V01</t>
+  </si>
+  <si>
+    <t>SAZ54-3-1999</t>
+  </si>
+  <si>
+    <t>SAZ47-2-1998</t>
+  </si>
+  <si>
+    <t>AA97_V06</t>
+  </si>
+  <si>
+    <t>SAZ54-2-1998</t>
+  </si>
+  <si>
+    <t>https://www.cmar.csiro.au/data/trawler/survey_details.cfm?survey=SS199902</t>
+  </si>
+  <si>
+    <t>http://www.imos.org.au http://dx.doi.org/10.26198/5dfad21358a8d</t>
+  </si>
+  <si>
+    <t>comment_data_qc_report</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wynn-Edwards, CA, Davies, DM, Shadwick, EH, Trull, TW (2020) Southern Ocean Time Series. SOTS Quality assessment and control report. Sediment trap particle fluxes Version 1.0. CSIRO, Australia. DOI: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10.26198/5dfad21358a8d </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(http://dx.doi.org/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10.26198/5dfad21358a8d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -418,13 +539,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF007E9A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -436,10 +609,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -449,8 +623,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,10 +654,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cdl" connectionId="1" xr16:uid="{D4E3762E-86A4-9D4C-873D-50264464016B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -767,13 +953,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53348BFB-8ECF-4745-825D-D0BA3C53E339}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
@@ -785,27 +971,27 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -813,27 +999,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>2</v>
@@ -841,13 +1027,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>3</v>
@@ -855,13 +1041,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>4</v>
@@ -869,13 +1055,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
@@ -883,13 +1069,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>6</v>
@@ -897,13 +1083,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>7</v>
@@ -911,13 +1097,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>8</v>
@@ -925,719 +1111,1312 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>9</v>
+        <v>80</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>13</v>
+      <c r="A16" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="4">
-        <v>15</v>
+        <v>80</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="4">
-        <v>-46.8371</v>
+        <v>80</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="4">
-        <v>-46.8371</v>
+        <v>80</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="4">
-        <v>141.67850000000001</v>
+        <v>80</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="4">
-        <v>141.67850000000001</v>
+        <v>80</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="4">
-        <v>3900</v>
+        <v>80</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1000</v>
+        <v>80</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>27</v>
+        <v>80</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" t="s">
+        <v>80</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" t="s">
+        <v>80</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>114</v>
+      </c>
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>80</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" t="s">
+        <v>80</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" t="s">
+        <v>80</v>
+      </c>
+      <c r="D83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>109</v>
+      </c>
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>109</v>
+      </c>
+      <c r="B86" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" t="s">
+        <v>80</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
+        <v>80</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" t="s">
+        <v>80</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" t="s">
+        <v>80</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" t="s">
+        <v>80</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" t="s">
+        <v>80</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" t="s">
+        <v>80</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93" t="s">
+        <v>85</v>
+      </c>
+      <c r="C93" t="s">
+        <v>80</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>82</v>
+      </c>
+      <c r="B94" t="s">
+        <v>79</v>
+      </c>
+      <c r="C94" t="s">
+        <v>80</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>84</v>
+      </c>
+      <c r="B95" t="s">
+        <v>85</v>
+      </c>
+      <c r="C95" t="s">
+        <v>80</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>84</v>
+      </c>
+      <c r="B96" t="s">
+        <v>79</v>
+      </c>
+      <c r="C96" t="s">
+        <v>80</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>86</v>
+      </c>
+      <c r="B97" t="s">
+        <v>85</v>
+      </c>
+      <c r="C97" t="s">
+        <v>80</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>86</v>
+      </c>
+      <c r="B98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C98" t="s">
+        <v>80</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>85</v>
+      </c>
+      <c r="C99" t="s">
+        <v>80</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>79</v>
+      </c>
+      <c r="C100" t="s">
+        <v>80</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" t="s">
+        <v>80</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>79</v>
+      </c>
+      <c r="C102" t="s">
+        <v>80</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B43" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" t="s">
+        <v>80</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B46" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" t="s">
-        <v>99</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B54" t="s">
-        <v>93</v>
-      </c>
-      <c r="C54" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" t="s">
-        <v>104</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>106</v>
-      </c>
-      <c r="B56" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" t="s">
-        <v>104</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>108</v>
-      </c>
-      <c r="B57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C57" t="s">
-        <v>104</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>110</v>
-      </c>
-      <c r="B58" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" t="s">
-        <v>104</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>110</v>
-      </c>
-      <c r="B59" t="s">
-        <v>103</v>
-      </c>
-      <c r="C59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>113</v>
-      </c>
-      <c r="B60" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" t="s">
-        <v>104</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>113</v>
-      </c>
-      <c r="B61" t="s">
-        <v>103</v>
-      </c>
-      <c r="C61" t="s">
-        <v>104</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>114</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D103" r:id="rId1" xr:uid="{A219C8BE-C520-41E0-ADE3-8E898CB44D2A}"/>
+    <hyperlink ref="D93" r:id="rId2" xr:uid="{1FE2022A-31F1-4A60-AF77-8990993E519E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/global_attribute_table.xlsx
+++ b/global_attribute_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/cloudstor/SAZ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan079\cloudstor\SAZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0BF801-DA45-D54E-8A23-54741DFEA52A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9620C52-4DE0-4531-919F-E83F54E77B60}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="3500" windowWidth="29180" windowHeight="19860" xr2:uid="{AB62E28C-C197-1443-8F5C-081BEC806BA6}"/>
+    <workbookView xWindow="9750" yWindow="630" windowWidth="26910" windowHeight="19395" xr2:uid="{AB62E28C-C197-1443-8F5C-081BEC806BA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="147">
   <si>
     <t>Oceanographic and meteorological data from the Southern Ocean Time Series observatory in the Southern Ocean southwest of Tasmania.</t>
   </si>
@@ -231,9 +231,6 @@
     <t xml:space="preserve">project </t>
   </si>
   <si>
-    <t xml:space="preserve">quality_control_set </t>
-  </si>
-  <si>
     <t xml:space="preserve">references </t>
   </si>
   <si>
@@ -337,9 +334,6 @@
   </si>
   <si>
     <t>SAZ47-21-2019</t>
-  </si>
-  <si>
-    <t>SAZ46-19-2017</t>
   </si>
   <si>
     <t>https://www.cmar.csiro.au/data/trawler/survey_details.cfm?survey=SS2013_V03</t>
@@ -518,6 +512,9 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>SAZ47-19-2017</t>
+  </si>
 </sst>
 </file>
 
@@ -526,6 +523,13 @@
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -572,13 +576,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -611,33 +608,33 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -953,1468 +950,1454 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53348BFB-8ECF-4745-825D-D0BA3C53E339}">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
     <col min="4" max="4" width="82" style="4" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="38.625" customWidth="1"/>
+    <col min="6" max="6" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
         <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
         <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
         <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
         <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
         <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
         <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
         <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
         <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
         <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
         <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
         <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
         <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
         <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
         <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="6" t="s">
+    <row r="43" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>141</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>138</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D54" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B55" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" t="s">
-        <v>80</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D56" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
-        <v>134</v>
-      </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B63" t="s">
-        <v>85</v>
-      </c>
-      <c r="C63" t="s">
-        <v>80</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B64" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" s="13" t="s">
+    </row>
+    <row r="65" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="11" t="s">
-        <v>129</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>123</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B67" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" t="s">
-        <v>80</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>125</v>
-      </c>
-      <c r="B68" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68" t="s">
-        <v>80</v>
-      </c>
-      <c r="D68" s="13" t="s">
+    </row>
+    <row r="69" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>126</v>
-      </c>
       <c r="B69" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B71" t="s">
-        <v>85</v>
-      </c>
-      <c r="C71" t="s">
-        <v>80</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>122</v>
-      </c>
-      <c r="B72" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" t="s">
-        <v>80</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>119</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D78" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>79</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" t="s">
+        <v>79</v>
+      </c>
+      <c r="D80" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B79" t="s">
-        <v>85</v>
-      </c>
-      <c r="C79" t="s">
-        <v>80</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>114</v>
-      </c>
-      <c r="B80" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80" t="s">
-        <v>80</v>
-      </c>
-      <c r="D80" s="13" t="s">
+    </row>
+    <row r="81" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>113</v>
-      </c>
-      <c r="B81" t="s">
-        <v>85</v>
-      </c>
-      <c r="C81" t="s">
-        <v>80</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>80</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="D82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C83" t="s">
-        <v>80</v>
-      </c>
-      <c r="D83" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B86" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C87" t="s">
-        <v>80</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C88" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B89" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C89" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C90" t="s">
-        <v>80</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>13</v>
       </c>
       <c r="B91" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" t="s">
+        <v>79</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92" t="s">
+        <v>79</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>81</v>
+      </c>
+      <c r="B93" t="s">
+        <v>78</v>
+      </c>
+      <c r="C93" t="s">
+        <v>79</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C94" t="s">
+        <v>79</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>83</v>
+      </c>
+      <c r="B95" t="s">
+        <v>78</v>
+      </c>
+      <c r="C95" t="s">
+        <v>79</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>85</v>
       </c>
-      <c r="C91" t="s">
-        <v>80</v>
-      </c>
-      <c r="D91" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92" t="s">
-        <v>79</v>
-      </c>
-      <c r="C92" t="s">
-        <v>80</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>82</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="B96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C96" t="s">
+        <v>79</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>85</v>
       </c>
-      <c r="C93" t="s">
-        <v>80</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>82</v>
-      </c>
-      <c r="B94" t="s">
-        <v>79</v>
-      </c>
-      <c r="C94" t="s">
-        <v>80</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>84</v>
-      </c>
-      <c r="B95" t="s">
-        <v>85</v>
-      </c>
-      <c r="C95" t="s">
-        <v>80</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>84</v>
-      </c>
-      <c r="B96" t="s">
-        <v>79</v>
-      </c>
-      <c r="C96" t="s">
-        <v>80</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>86</v>
-      </c>
       <c r="B97" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C97" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>86</v>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="B98" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C98" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="B99" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C99" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="10" t="s">
-        <v>102</v>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C100" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C102" t="s">
-        <v>80</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>85</v>
-      </c>
-      <c r="C103" t="s">
-        <v>80</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>98</v>
+        <v>79</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D103" r:id="rId1" xr:uid="{A219C8BE-C520-41E0-ADE3-8E898CB44D2A}"/>
-    <hyperlink ref="D93" r:id="rId2" xr:uid="{1FE2022A-31F1-4A60-AF77-8990993E519E}"/>
+    <hyperlink ref="D102" r:id="rId1" xr:uid="{A219C8BE-C520-41E0-ADE3-8E898CB44D2A}"/>
+    <hyperlink ref="D92" r:id="rId2" xr:uid="{1FE2022A-31F1-4A60-AF77-8990993E519E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/global_attribute_table.xlsx
+++ b/global_attribute_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan079\cloudstor\SAZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cawynn\cloudstor\Shared\SAZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9620C52-4DE0-4531-919F-E83F54E77B60}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F1C9AC-E2A6-4BB2-B17F-7142736324D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="630" windowWidth="26910" windowHeight="19395" xr2:uid="{AB62E28C-C197-1443-8F5C-081BEC806BA6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AB62E28C-C197-1443-8F5C-081BEC806BA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="200">
   <si>
     <t>Oceanographic and meteorological data from the Southern Ocean Time Series observatory in the Southern Ocean southwest of Tasmania.</t>
   </si>
@@ -360,9 +362,6 @@
     <t>https://www.cmar.csiro.au/data/trawler/survey_details.cfm?survey=SS2009_V04</t>
   </si>
   <si>
-    <t>SAZ45-11-2008</t>
-  </si>
-  <si>
     <t>AA08/09vtrials</t>
   </si>
   <si>
@@ -384,27 +383,18 @@
     <t>https://www.cmar.csiro.au/data/trawler/survey_details.cfm?survey=SS200603</t>
   </si>
   <si>
-    <t>SAZ47-9a-2005</t>
-  </si>
-  <si>
     <t>AA05_V02</t>
   </si>
   <si>
     <t>SAZ54-9-2005</t>
   </si>
   <si>
-    <t>SAZ47-8-2004</t>
-  </si>
-  <si>
     <t>SAZ54-8-2004</t>
   </si>
   <si>
     <t>AA04_V01</t>
   </si>
   <si>
-    <t>SAZ47-7-2003</t>
-  </si>
-  <si>
     <t>SAZ54-7-2003</t>
   </si>
   <si>
@@ -429,28 +419,16 @@
     <t>SAZ54-5-2001</t>
   </si>
   <si>
-    <t>SAZ47-5-2001</t>
-  </si>
-  <si>
     <t>SAZ54-4-2000</t>
   </si>
   <si>
     <t>AA00_V01</t>
   </si>
   <si>
-    <t>SAZ47-4-2000</t>
-  </si>
-  <si>
-    <t>SAZ47-3-1999</t>
-  </si>
-  <si>
     <t>AA99_V01</t>
   </si>
   <si>
     <t>SAZ54-3-1999</t>
-  </si>
-  <si>
-    <t>SAZ47-2-1998</t>
   </si>
   <si>
     <t>AA97_V06</t>
@@ -515,12 +493,198 @@
   <si>
     <t>SAZ47-19-2017</t>
   </si>
+  <si>
+    <t>SAZ47-08-2004</t>
+  </si>
+  <si>
+    <t>SAZ47-09-2005</t>
+  </si>
+  <si>
+    <t>SAZ47-07-2003</t>
+  </si>
+  <si>
+    <t>SAZ47-05-2001</t>
+  </si>
+  <si>
+    <t>SAZ47-04-2000</t>
+  </si>
+  <si>
+    <t>SAZ47-03-1999</t>
+  </si>
+  <si>
+    <t>SAZ47-02-1998</t>
+  </si>
+  <si>
+    <t>SAZ47-11-2008</t>
+  </si>
+  <si>
+    <t>SAZ47-01-1997</t>
+  </si>
+  <si>
+    <t>AA97_V01</t>
+  </si>
+  <si>
+    <t>voyage_deployment_start_date</t>
+  </si>
+  <si>
+    <t>voyage_recovery_start_date</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>platform_recovery_ship_name</t>
+  </si>
+  <si>
+    <t>platform_recovery_cruise_name</t>
+  </si>
+  <si>
+    <t>platform_recovery_ship_ICES</t>
+  </si>
+  <si>
+    <t>platform_recovery_cruise_ExpoCode</t>
+  </si>
+  <si>
+    <t>platform_deployment_ship_name</t>
+  </si>
+  <si>
+    <t>platform_deployment_cruise_name</t>
+  </si>
+  <si>
+    <t>platform_deployment_ship_ICES</t>
+  </si>
+  <si>
+    <t>platform_deployment_cruise_ExpoCode</t>
+  </si>
+  <si>
+    <t>RV Investigator</t>
+  </si>
+  <si>
+    <t>IN2019_V02</t>
+  </si>
+  <si>
+    <t>096U</t>
+  </si>
+  <si>
+    <t>096U20190314</t>
+  </si>
+  <si>
+    <t>IN2018_V02</t>
+  </si>
+  <si>
+    <t>096U20180303</t>
+  </si>
+  <si>
+    <t>IN2017_V02</t>
+  </si>
+  <si>
+    <t>096U20170317</t>
+  </si>
+  <si>
+    <t>IN2016_V02</t>
+  </si>
+  <si>
+    <t>096U20160314</t>
+  </si>
+  <si>
+    <t>IN2015_V01</t>
+  </si>
+  <si>
+    <t>096U20150321</t>
+  </si>
+  <si>
+    <t>RV Southern Surveyor</t>
+  </si>
+  <si>
+    <t>SS2013_V03</t>
+  </si>
+  <si>
+    <t>09SS</t>
+  </si>
+  <si>
+    <t>09SS20130428</t>
+  </si>
+  <si>
+    <t>SS2012_V03</t>
+  </si>
+  <si>
+    <t>09SS20120712</t>
+  </si>
+  <si>
+    <t>SS2013_V06</t>
+  </si>
+  <si>
+    <t>09SS20131006</t>
+  </si>
+  <si>
+    <t>SS2011_V03</t>
+  </si>
+  <si>
+    <t>09SS20110801</t>
+  </si>
+  <si>
+    <t>SS2010_V07</t>
+  </si>
+  <si>
+    <t>09SS20100907</t>
+  </si>
+  <si>
+    <t>SS2009_V04</t>
+  </si>
+  <si>
+    <t>09SS20090922</t>
+  </si>
+  <si>
+    <t>RV Aurora Australis</t>
+  </si>
+  <si>
+    <t>09AR</t>
+  </si>
+  <si>
+    <t>09AR20081003</t>
+  </si>
+  <si>
+    <t>09AR20060930</t>
+  </si>
+  <si>
+    <t>09AR20071216</t>
+  </si>
+  <si>
+    <t>SS2006_V03</t>
+  </si>
+  <si>
+    <t>09SS20060930</t>
+  </si>
+  <si>
+    <t>09AR20041001</t>
+  </si>
+  <si>
+    <t>09AR20030908</t>
+  </si>
+  <si>
+    <t>09AR20021013</t>
+  </si>
+  <si>
+    <t>09AR20011029</t>
+  </si>
+  <si>
+    <t>09AR19990713</t>
+  </si>
+  <si>
+    <t>SS1999_V02</t>
+  </si>
+  <si>
+    <t>09SS19990206</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -576,8 +740,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -596,12 +765,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -610,7 +803,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -631,10 +824,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -950,23 +1188,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53348BFB-8ECF-4745-825D-D0BA3C53E339}">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.58203125" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="4" width="82" style="4" customWidth="1"/>
-    <col min="5" max="5" width="38.625" customWidth="1"/>
-    <col min="6" max="6" width="29.625" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="29.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -980,7 +1218,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>75</v>
       </c>
@@ -994,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>75</v>
       </c>
@@ -1008,7 +1246,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>75</v>
       </c>
@@ -1022,7 +1260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>75</v>
       </c>
@@ -1036,7 +1274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -1050,7 +1288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>75</v>
       </c>
@@ -1064,7 +1302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>75</v>
       </c>
@@ -1078,7 +1316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>75</v>
       </c>
@@ -1092,7 +1330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>75</v>
       </c>
@@ -1106,21 +1344,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>75</v>
       </c>
@@ -1134,7 +1372,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>75</v>
       </c>
@@ -1148,7 +1386,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>75</v>
       </c>
@@ -1162,7 +1400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>75</v>
       </c>
@@ -1176,7 +1414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>75</v>
       </c>
@@ -1190,7 +1428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>75</v>
       </c>
@@ -1204,7 +1442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>75</v>
       </c>
@@ -1218,7 +1456,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>75</v>
       </c>
@@ -1232,7 +1470,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>75</v>
       </c>
@@ -1246,7 +1484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>75</v>
       </c>
@@ -1260,7 +1498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>75</v>
       </c>
@@ -1274,7 +1512,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>75</v>
       </c>
@@ -1288,7 +1526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>75</v>
       </c>
@@ -1302,7 +1540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
@@ -1316,7 +1554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>75</v>
       </c>
@@ -1330,7 +1568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
@@ -1344,7 +1582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>75</v>
       </c>
@@ -1358,7 +1596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>75</v>
       </c>
@@ -1372,7 +1610,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>75</v>
       </c>
@@ -1386,7 +1624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>75</v>
       </c>
@@ -1400,7 +1638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>75</v>
       </c>
@@ -1414,7 +1652,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>75</v>
       </c>
@@ -1428,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>75</v>
       </c>
@@ -1442,7 +1680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
@@ -1456,7 +1694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
@@ -1470,7 +1708,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>75</v>
       </c>
@@ -1484,7 +1722,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>75</v>
       </c>
@@ -1495,10 +1733,10 @@
         <v>79</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>75</v>
       </c>
@@ -1512,7 +1750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>75</v>
       </c>
@@ -1526,7 +1764,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>75</v>
       </c>
@@ -1540,7 +1778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>75</v>
       </c>
@@ -1554,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>75</v>
       </c>
@@ -1568,9 +1806,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B44" t="s">
         <v>84</v>
@@ -1579,827 +1817,5146 @@
         <v>79</v>
       </c>
       <c r="D44" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="22"/>
+    </row>
+    <row r="46" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="13"/>
+    </row>
+    <row r="50" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="13"/>
+    </row>
+    <row r="62" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" s="23">
+        <v>36197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" s="22"/>
+    </row>
+    <row r="70" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" s="37"/>
+    </row>
+    <row r="74" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" s="23">
+        <v>36197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81" t="s">
+        <v>149</v>
+      </c>
+      <c r="C81" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81" s="18">
+        <v>36354</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" t="s">
+        <v>79</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D87" s="22"/>
+    </row>
+    <row r="88" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D89" s="36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B91" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C91" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D91" s="13"/>
+    </row>
+    <row r="92" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B92" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D92" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B93" t="s">
+        <v>149</v>
+      </c>
+      <c r="C93" t="s">
+        <v>79</v>
+      </c>
+      <c r="D93" s="18">
+        <v>36354</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D94" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D96" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D97" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B98" t="s">
+        <v>78</v>
+      </c>
+      <c r="C98" t="s">
+        <v>79</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D99" s="22"/>
+    </row>
+    <row r="100" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D101" s="36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B103" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C103" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D103" s="22"/>
+    </row>
+    <row r="104" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="B104" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C104" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D104" s="35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C105" t="s">
+        <v>79</v>
+      </c>
+      <c r="D105" s="22"/>
+    </row>
+    <row r="106" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D107" s="36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D108" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D109" s="13"/>
+    </row>
+    <row r="110" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110" t="s">
+        <v>78</v>
+      </c>
+      <c r="C110" t="s">
+        <v>79</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B111" t="s">
+        <v>150</v>
+      </c>
+      <c r="C111" t="s">
+        <v>79</v>
+      </c>
+      <c r="D111" s="18">
+        <v>37193</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D112" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D113" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D114" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B115" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C115" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D115" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B116" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C116" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D116" s="35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C117" t="s">
+        <v>79</v>
+      </c>
+      <c r="D117" s="22"/>
+    </row>
+    <row r="118" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D118" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D119" s="36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D120" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D121" s="22"/>
+    </row>
+    <row r="122" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="s">
+        <v>78</v>
+      </c>
+      <c r="C122" t="s">
+        <v>79</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123" t="s">
+        <v>150</v>
+      </c>
+      <c r="C123" t="s">
+        <v>79</v>
+      </c>
+      <c r="D123" s="18">
+        <v>37193</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D124" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D125" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D126" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C127" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D127" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B128" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C128" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D128" s="35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B129" t="s">
+        <v>149</v>
+      </c>
+      <c r="C129" t="s">
+        <v>79</v>
+      </c>
+      <c r="D129" s="18">
+        <v>37193</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130" t="s">
+        <v>156</v>
+      </c>
+      <c r="C130" t="s">
+        <v>79</v>
+      </c>
+      <c r="D130" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B131" t="s">
+        <v>157</v>
+      </c>
+      <c r="C131" t="s">
+        <v>79</v>
+      </c>
+      <c r="D131" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B132" t="s">
+        <v>158</v>
+      </c>
+      <c r="C132" t="s">
+        <v>79</v>
+      </c>
+      <c r="D132" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D133" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B134" t="s">
+        <v>78</v>
+      </c>
+      <c r="C134" t="s">
+        <v>79</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B135" t="s">
+        <v>150</v>
+      </c>
+      <c r="C135" t="s">
+        <v>79</v>
+      </c>
+      <c r="D135" s="18">
+        <v>37542</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D136" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D137" s="36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D138" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C139" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D139" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B140" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C140" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D140" s="35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B141" t="s">
+        <v>149</v>
+      </c>
+      <c r="C141" t="s">
+        <v>79</v>
+      </c>
+      <c r="D141" s="18">
+        <v>37193</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B142" t="s">
+        <v>156</v>
+      </c>
+      <c r="C142" t="s">
+        <v>79</v>
+      </c>
+      <c r="D142" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B143" t="s">
+        <v>157</v>
+      </c>
+      <c r="C143" t="s">
+        <v>79</v>
+      </c>
+      <c r="D143" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B144" t="s">
+        <v>158</v>
+      </c>
+      <c r="C144" t="s">
+        <v>79</v>
+      </c>
+      <c r="D144" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D145" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B146" t="s">
+        <v>78</v>
+      </c>
+      <c r="C146" t="s">
+        <v>79</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B147" t="s">
+        <v>150</v>
+      </c>
+      <c r="C147" t="s">
+        <v>79</v>
+      </c>
+      <c r="D147" s="18">
+        <v>37542</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D148" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D149" s="36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D150" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B151" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C151" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D151" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B152" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C152" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D152" s="35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B153" t="s">
+        <v>149</v>
+      </c>
+      <c r="C153" t="s">
+        <v>79</v>
+      </c>
+      <c r="D153" s="18">
+        <v>37193</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B154" t="s">
+        <v>156</v>
+      </c>
+      <c r="C154" t="s">
+        <v>79</v>
+      </c>
+      <c r="D154" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B155" t="s">
+        <v>157</v>
+      </c>
+      <c r="C155" t="s">
+        <v>79</v>
+      </c>
+      <c r="D155" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B156" t="s">
+        <v>158</v>
+      </c>
+      <c r="C156" t="s">
+        <v>79</v>
+      </c>
+      <c r="D156" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D157" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B158" t="s">
+        <v>78</v>
+      </c>
+      <c r="C158" t="s">
+        <v>79</v>
+      </c>
+      <c r="D158" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B159" t="s">
+        <v>150</v>
+      </c>
+      <c r="C159" t="s">
+        <v>79</v>
+      </c>
+      <c r="D159" s="18">
+        <v>37542</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D160" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D161" s="36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D162" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B163" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C163" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D163" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B164" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C164" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D164" s="35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B165" t="s">
+        <v>149</v>
+      </c>
+      <c r="C165" t="s">
+        <v>79</v>
+      </c>
+      <c r="D165" s="18">
+        <v>37542</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B166" t="s">
+        <v>156</v>
+      </c>
+      <c r="C166" t="s">
+        <v>79</v>
+      </c>
+      <c r="D166" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B167" t="s">
+        <v>157</v>
+      </c>
+      <c r="C167" t="s">
+        <v>79</v>
+      </c>
+      <c r="D167" s="36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B168" t="s">
+        <v>158</v>
+      </c>
+      <c r="C168" t="s">
+        <v>79</v>
+      </c>
+      <c r="D168" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D169" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B170" t="s">
+        <v>78</v>
+      </c>
+      <c r="C170" t="s">
+        <v>79</v>
+      </c>
+      <c r="D170" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B171" t="s">
+        <v>150</v>
+      </c>
+      <c r="C171" t="s">
+        <v>79</v>
+      </c>
+      <c r="D171" s="23">
+        <v>37872</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D172" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D173" s="36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D174" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B175" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C175" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D175" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="B176" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C176" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D176" s="35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B177" t="s">
+        <v>149</v>
+      </c>
+      <c r="C177" t="s">
+        <v>79</v>
+      </c>
+      <c r="D177" s="18">
+        <v>37542</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B178" t="s">
+        <v>156</v>
+      </c>
+      <c r="C178" t="s">
+        <v>79</v>
+      </c>
+      <c r="D178" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B179" t="s">
+        <v>157</v>
+      </c>
+      <c r="C179" t="s">
+        <v>79</v>
+      </c>
+      <c r="D179" s="36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B180" t="s">
+        <v>158</v>
+      </c>
+      <c r="C180" t="s">
+        <v>79</v>
+      </c>
+      <c r="D180" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D181" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B182" t="s">
+        <v>78</v>
+      </c>
+      <c r="C182" t="s">
+        <v>79</v>
+      </c>
+      <c r="D182" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B183" t="s">
+        <v>150</v>
+      </c>
+      <c r="C183" t="s">
+        <v>79</v>
+      </c>
+      <c r="D183" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D184" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B185" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D185" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D186" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B187" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C187" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D187" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B188" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C188" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D188" s="35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>141</v>
+      </c>
+      <c r="B189" t="s">
+        <v>149</v>
+      </c>
+      <c r="C189" t="s">
+        <v>79</v>
+      </c>
+      <c r="D189" s="23">
+        <v>37872</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>141</v>
+      </c>
+      <c r="B190" t="s">
+        <v>156</v>
+      </c>
+      <c r="C190" t="s">
+        <v>79</v>
+      </c>
+      <c r="D190" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>141</v>
+      </c>
+      <c r="B191" t="s">
+        <v>157</v>
+      </c>
+      <c r="C191" t="s">
+        <v>79</v>
+      </c>
+      <c r="D191" s="36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>141</v>
+      </c>
+      <c r="B192" t="s">
+        <v>158</v>
+      </c>
+      <c r="C192" t="s">
+        <v>79</v>
+      </c>
+      <c r="D192" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>141</v>
+      </c>
+      <c r="B193" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D193" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>141</v>
+      </c>
+      <c r="B194" t="s">
+        <v>78</v>
+      </c>
+      <c r="C194" t="s">
+        <v>79</v>
+      </c>
+      <c r="D194" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>141</v>
+      </c>
+      <c r="B195" t="s">
+        <v>150</v>
+      </c>
+      <c r="C195" t="s">
+        <v>79</v>
+      </c>
+      <c r="D195" s="23">
+        <v>38261</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>141</v>
+      </c>
+      <c r="B196" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D196" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>141</v>
+      </c>
+      <c r="B197" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C197" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D197" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>141</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D198" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>141</v>
+      </c>
+      <c r="B199" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C199" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D199" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B200" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C200" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D200" s="35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>120</v>
+      </c>
+      <c r="B201" t="s">
+        <v>149</v>
+      </c>
+      <c r="C201" t="s">
+        <v>79</v>
+      </c>
+      <c r="D201" s="23">
+        <v>37872</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>120</v>
+      </c>
+      <c r="B202" t="s">
+        <v>156</v>
+      </c>
+      <c r="C202" t="s">
+        <v>79</v>
+      </c>
+      <c r="D202" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>120</v>
+      </c>
+      <c r="B203" t="s">
+        <v>157</v>
+      </c>
+      <c r="C203" t="s">
+        <v>79</v>
+      </c>
+      <c r="D203" s="36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>120</v>
+      </c>
+      <c r="B204" t="s">
+        <v>158</v>
+      </c>
+      <c r="C204" t="s">
+        <v>79</v>
+      </c>
+      <c r="D204" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>120</v>
+      </c>
+      <c r="B205" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C205" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D205" s="23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>120</v>
+      </c>
+      <c r="B206" t="s">
+        <v>78</v>
+      </c>
+      <c r="C206" t="s">
+        <v>79</v>
+      </c>
+      <c r="D206" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>120</v>
+      </c>
+      <c r="B207" t="s">
+        <v>150</v>
+      </c>
+      <c r="C207" t="s">
+        <v>79</v>
+      </c>
+      <c r="D207" s="23">
+        <v>38261</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>120</v>
+      </c>
+      <c r="B208" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C208" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D208" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>120</v>
+      </c>
+      <c r="B209" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C209" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D209" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>120</v>
+      </c>
+      <c r="B210" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D210" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>120</v>
+      </c>
+      <c r="B211" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C211" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D211" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B212" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C212" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D212" s="35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>139</v>
+      </c>
+      <c r="B213" t="s">
+        <v>149</v>
+      </c>
+      <c r="C213" t="s">
+        <v>79</v>
+      </c>
+      <c r="D213" s="23">
+        <v>38261</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>139</v>
+      </c>
+      <c r="B214" t="s">
+        <v>156</v>
+      </c>
+      <c r="C214" t="s">
+        <v>79</v>
+      </c>
+      <c r="D214" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>139</v>
+      </c>
+      <c r="B215" t="s">
+        <v>157</v>
+      </c>
+      <c r="C215" t="s">
+        <v>79</v>
+      </c>
+      <c r="D215" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>139</v>
+      </c>
+      <c r="B216" t="s">
+        <v>158</v>
+      </c>
+      <c r="C216" t="s">
+        <v>79</v>
+      </c>
+      <c r="D216" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>139</v>
+      </c>
+      <c r="B217" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C217" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D217" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>139</v>
+      </c>
+      <c r="B218" t="s">
+        <v>78</v>
+      </c>
+      <c r="C218" t="s">
+        <v>79</v>
+      </c>
+      <c r="D218" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>139</v>
+      </c>
+      <c r="B219" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C219" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D219" s="22"/>
+    </row>
+    <row r="220" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>139</v>
+      </c>
+      <c r="B220" t="s">
+        <v>152</v>
+      </c>
+      <c r="C220" t="s">
+        <v>79</v>
+      </c>
+      <c r="D220" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>139</v>
+      </c>
+      <c r="B221" t="s">
+        <v>153</v>
+      </c>
+      <c r="C221" t="s">
+        <v>79</v>
+      </c>
+      <c r="D221" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>139</v>
+      </c>
+      <c r="B222" t="s">
+        <v>154</v>
+      </c>
+      <c r="C222" t="s">
+        <v>79</v>
+      </c>
+      <c r="D222" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>139</v>
+      </c>
+      <c r="B223" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C223" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D223" s="13"/>
+    </row>
+    <row r="224" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B224" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C224" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D224" s="35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>118</v>
+      </c>
+      <c r="B225" t="s">
+        <v>149</v>
+      </c>
+      <c r="C225" t="s">
+        <v>79</v>
+      </c>
+      <c r="D225" s="23">
+        <v>38261</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>118</v>
+      </c>
+      <c r="B226" t="s">
+        <v>156</v>
+      </c>
+      <c r="C226" t="s">
+        <v>79</v>
+      </c>
+      <c r="D226" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>118</v>
+      </c>
+      <c r="B227" t="s">
+        <v>157</v>
+      </c>
+      <c r="C227" t="s">
+        <v>79</v>
+      </c>
+      <c r="D227" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>118</v>
+      </c>
+      <c r="B228" t="s">
+        <v>158</v>
+      </c>
+      <c r="C228" t="s">
+        <v>79</v>
+      </c>
+      <c r="D228" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B229" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C229" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D229" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>118</v>
+      </c>
+      <c r="B230" t="s">
+        <v>78</v>
+      </c>
+      <c r="C230" t="s">
+        <v>79</v>
+      </c>
+      <c r="D230" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>118</v>
+      </c>
+      <c r="B231" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C231" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D231" s="22"/>
+    </row>
+    <row r="232" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>118</v>
+      </c>
+      <c r="B232" t="s">
+        <v>152</v>
+      </c>
+      <c r="C232" t="s">
+        <v>79</v>
+      </c>
+      <c r="D232" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>118</v>
+      </c>
+      <c r="B233" t="s">
+        <v>153</v>
+      </c>
+      <c r="C233" t="s">
+        <v>79</v>
+      </c>
+      <c r="D233" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>118</v>
+      </c>
+      <c r="B234" t="s">
+        <v>154</v>
+      </c>
+      <c r="C234" t="s">
+        <v>79</v>
+      </c>
+      <c r="D234" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B235" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C235" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D235" s="22"/>
+    </row>
+    <row r="236" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="29" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="B236" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C236" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D236" s="35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B237" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C237" t="s">
+        <v>79</v>
+      </c>
+      <c r="D237" s="22"/>
+    </row>
+    <row r="238" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>140</v>
+      </c>
+      <c r="B238" t="s">
+        <v>156</v>
+      </c>
+      <c r="C238" t="s">
+        <v>79</v>
+      </c>
+      <c r="D238" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>140</v>
+      </c>
+      <c r="B239" t="s">
+        <v>157</v>
+      </c>
+      <c r="C239" t="s">
+        <v>79</v>
+      </c>
+      <c r="D239" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>140</v>
+      </c>
+      <c r="B240" t="s">
+        <v>158</v>
+      </c>
+      <c r="C240" t="s">
+        <v>79</v>
+      </c>
+      <c r="D240" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>140</v>
+      </c>
+      <c r="B241" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C241" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D241" s="22"/>
+    </row>
+    <row r="242" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>140</v>
+      </c>
+      <c r="B242" t="s">
         <v>78</v>
       </c>
-      <c r="C45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="C242" t="s">
+        <v>79</v>
+      </c>
+      <c r="D242" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>140</v>
+      </c>
+      <c r="B243" t="s">
+        <v>150</v>
+      </c>
+      <c r="C243" t="s">
+        <v>79</v>
+      </c>
+      <c r="D243" s="18">
+        <v>38990</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>140</v>
+      </c>
+      <c r="B244" t="s">
+        <v>152</v>
+      </c>
+      <c r="C244" t="s">
+        <v>79</v>
+      </c>
+      <c r="D244" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>140</v>
+      </c>
+      <c r="B245" t="s">
+        <v>153</v>
+      </c>
+      <c r="C245" t="s">
+        <v>79</v>
+      </c>
+      <c r="D245" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>140</v>
+      </c>
+      <c r="B246" t="s">
+        <v>154</v>
+      </c>
+      <c r="C246" t="s">
+        <v>79</v>
+      </c>
+      <c r="D246" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>140</v>
+      </c>
+      <c r="B247" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C247" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D247" s="16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B248" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C46" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="C248" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D248" s="35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B249" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C249" t="s">
+        <v>79</v>
+      </c>
+      <c r="D249" s="22"/>
+    </row>
+    <row r="250" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>117</v>
+      </c>
+      <c r="B250" t="s">
+        <v>156</v>
+      </c>
+      <c r="C250" t="s">
+        <v>79</v>
+      </c>
+      <c r="D250" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>117</v>
+      </c>
+      <c r="B251" t="s">
+        <v>157</v>
+      </c>
+      <c r="C251" t="s">
+        <v>79</v>
+      </c>
+      <c r="D251" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>117</v>
+      </c>
+      <c r="B252" t="s">
+        <v>158</v>
+      </c>
+      <c r="C252" t="s">
+        <v>79</v>
+      </c>
+      <c r="D252" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B253" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C253" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D253" s="37"/>
+    </row>
+    <row r="254" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>117</v>
+      </c>
+      <c r="B254" t="s">
         <v>78</v>
       </c>
-      <c r="C47" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="C254" t="s">
+        <v>79</v>
+      </c>
+      <c r="D254" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>117</v>
+      </c>
+      <c r="B255" t="s">
+        <v>150</v>
+      </c>
+      <c r="C255" t="s">
+        <v>79</v>
+      </c>
+      <c r="D255" s="18">
+        <v>38990</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>117</v>
+      </c>
+      <c r="B256" t="s">
+        <v>152</v>
+      </c>
+      <c r="C256" t="s">
+        <v>79</v>
+      </c>
+      <c r="D256" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>117</v>
+      </c>
+      <c r="B257" t="s">
+        <v>153</v>
+      </c>
+      <c r="C257" t="s">
+        <v>79</v>
+      </c>
+      <c r="D257" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>117</v>
+      </c>
+      <c r="B258" t="s">
+        <v>154</v>
+      </c>
+      <c r="C258" t="s">
+        <v>79</v>
+      </c>
+      <c r="D258" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>117</v>
+      </c>
+      <c r="B259" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C259" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D259" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B260" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C48" t="s">
-        <v>79</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="C260" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D260" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>111</v>
+      </c>
+      <c r="B261" t="s">
+        <v>149</v>
+      </c>
+      <c r="C261" t="s">
+        <v>79</v>
+      </c>
+      <c r="D261" s="18">
+        <v>38990</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>111</v>
+      </c>
+      <c r="B262" t="s">
+        <v>156</v>
+      </c>
+      <c r="C262" t="s">
+        <v>79</v>
+      </c>
+      <c r="D262" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>111</v>
+      </c>
+      <c r="B263" t="s">
+        <v>157</v>
+      </c>
+      <c r="C263" t="s">
+        <v>79</v>
+      </c>
+      <c r="D263" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>111</v>
+      </c>
+      <c r="B264" t="s">
+        <v>158</v>
+      </c>
+      <c r="C264" t="s">
+        <v>79</v>
+      </c>
+      <c r="D264" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>111</v>
+      </c>
+      <c r="B265" t="s">
+        <v>159</v>
+      </c>
+      <c r="C265" t="s">
+        <v>79</v>
+      </c>
+      <c r="D265" s="16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>111</v>
+      </c>
+      <c r="B266" t="s">
         <v>78</v>
       </c>
-      <c r="C49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="C266" t="s">
+        <v>79</v>
+      </c>
+      <c r="D266" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>111</v>
+      </c>
+      <c r="B267" t="s">
+        <v>150</v>
+      </c>
+      <c r="C267" t="s">
+        <v>79</v>
+      </c>
+      <c r="D267" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>111</v>
+      </c>
+      <c r="B268" t="s">
+        <v>152</v>
+      </c>
+      <c r="C268" t="s">
+        <v>79</v>
+      </c>
+      <c r="D268" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>111</v>
+      </c>
+      <c r="B269" t="s">
+        <v>153</v>
+      </c>
+      <c r="C269" t="s">
+        <v>79</v>
+      </c>
+      <c r="D269" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>111</v>
+      </c>
+      <c r="B270" t="s">
+        <v>154</v>
+      </c>
+      <c r="C270" t="s">
+        <v>79</v>
+      </c>
+      <c r="D270" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>111</v>
+      </c>
+      <c r="B271" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C271" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D271" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B272" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C272" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D272" s="35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>110</v>
+      </c>
+      <c r="B273" t="s">
+        <v>149</v>
+      </c>
+      <c r="C273" t="s">
+        <v>79</v>
+      </c>
+      <c r="D273" s="18">
+        <v>38990</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>110</v>
+      </c>
+      <c r="B274" t="s">
+        <v>156</v>
+      </c>
+      <c r="C274" t="s">
+        <v>79</v>
+      </c>
+      <c r="D274" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>110</v>
+      </c>
+      <c r="B275" t="s">
+        <v>157</v>
+      </c>
+      <c r="C275" t="s">
+        <v>79</v>
+      </c>
+      <c r="D275" s="36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>110</v>
+      </c>
+      <c r="B276" t="s">
+        <v>158</v>
+      </c>
+      <c r="C276" t="s">
+        <v>79</v>
+      </c>
+      <c r="D276" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>110</v>
+      </c>
+      <c r="B277" t="s">
+        <v>159</v>
+      </c>
+      <c r="C277" t="s">
+        <v>79</v>
+      </c>
+      <c r="D277" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>110</v>
+      </c>
+      <c r="B278" t="s">
+        <v>78</v>
+      </c>
+      <c r="C278" t="s">
+        <v>79</v>
+      </c>
+      <c r="D278" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>110</v>
+      </c>
+      <c r="B279" t="s">
+        <v>150</v>
+      </c>
+      <c r="C279" t="s">
+        <v>79</v>
+      </c>
+      <c r="D279" s="18">
+        <v>39432</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>110</v>
+      </c>
+      <c r="B280" t="s">
+        <v>152</v>
+      </c>
+      <c r="C280" t="s">
+        <v>79</v>
+      </c>
+      <c r="D280" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>110</v>
+      </c>
+      <c r="B281" t="s">
+        <v>153</v>
+      </c>
+      <c r="C281" t="s">
+        <v>79</v>
+      </c>
+      <c r="D281" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>110</v>
+      </c>
+      <c r="B282" t="s">
+        <v>154</v>
+      </c>
+      <c r="C282" t="s">
+        <v>79</v>
+      </c>
+      <c r="D282" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>110</v>
+      </c>
+      <c r="B283" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C283" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D283" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B284" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C284" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D284" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>146</v>
+      </c>
+      <c r="B285" t="s">
+        <v>149</v>
+      </c>
+      <c r="C285" t="s">
+        <v>79</v>
+      </c>
+      <c r="D285" s="23">
+        <v>39724</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>146</v>
+      </c>
+      <c r="B286" t="s">
+        <v>156</v>
+      </c>
+      <c r="C286" t="s">
+        <v>79</v>
+      </c>
+      <c r="D286" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>146</v>
+      </c>
+      <c r="B287" t="s">
+        <v>157</v>
+      </c>
+      <c r="C287" t="s">
+        <v>79</v>
+      </c>
+      <c r="D287" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>146</v>
+      </c>
+      <c r="B288" t="s">
+        <v>158</v>
+      </c>
+      <c r="C288" t="s">
+        <v>79</v>
+      </c>
+      <c r="D288" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>146</v>
+      </c>
+      <c r="B289" t="s">
+        <v>159</v>
+      </c>
+      <c r="C289" t="s">
+        <v>79</v>
+      </c>
+      <c r="D289" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>146</v>
+      </c>
+      <c r="B290" t="s">
+        <v>78</v>
+      </c>
+      <c r="C290" t="s">
+        <v>79</v>
+      </c>
+      <c r="D290" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>146</v>
+      </c>
+      <c r="B291" t="s">
+        <v>150</v>
+      </c>
+      <c r="C291" t="s">
+        <v>79</v>
+      </c>
+      <c r="D291" s="19">
+        <v>40078</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>146</v>
+      </c>
+      <c r="B292" t="s">
+        <v>152</v>
+      </c>
+      <c r="C292" t="s">
+        <v>79</v>
+      </c>
+      <c r="D292" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>146</v>
+      </c>
+      <c r="B293" t="s">
+        <v>153</v>
+      </c>
+      <c r="C293" t="s">
+        <v>79</v>
+      </c>
+      <c r="D293" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>146</v>
+      </c>
+      <c r="B294" t="s">
+        <v>154</v>
+      </c>
+      <c r="C294" t="s">
+        <v>79</v>
+      </c>
+      <c r="D294" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>146</v>
+      </c>
+      <c r="B295" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C295" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D295" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B296" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C296" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D296" s="34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>107</v>
+      </c>
+      <c r="B297" t="s">
+        <v>149</v>
+      </c>
+      <c r="C297" t="s">
+        <v>79</v>
+      </c>
+      <c r="D297" s="19">
+        <v>40078</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>107</v>
+      </c>
+      <c r="B298" t="s">
+        <v>156</v>
+      </c>
+      <c r="C298" t="s">
+        <v>79</v>
+      </c>
+      <c r="D298" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>107</v>
+      </c>
+      <c r="B299" t="s">
+        <v>157</v>
+      </c>
+      <c r="C299" t="s">
+        <v>79</v>
+      </c>
+      <c r="D299" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>107</v>
+      </c>
+      <c r="B300" t="s">
+        <v>158</v>
+      </c>
+      <c r="C300" t="s">
+        <v>79</v>
+      </c>
+      <c r="D300" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>107</v>
+      </c>
+      <c r="B301" t="s">
+        <v>159</v>
+      </c>
+      <c r="C301" t="s">
+        <v>79</v>
+      </c>
+      <c r="D301" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>107</v>
+      </c>
+      <c r="B302" t="s">
+        <v>78</v>
+      </c>
+      <c r="C302" t="s">
+        <v>79</v>
+      </c>
+      <c r="D302" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>107</v>
+      </c>
+      <c r="B303" t="s">
+        <v>150</v>
+      </c>
+      <c r="C303" t="s">
+        <v>79</v>
+      </c>
+      <c r="D303" s="23">
+        <v>40428</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>107</v>
+      </c>
+      <c r="B304" t="s">
+        <v>152</v>
+      </c>
+      <c r="C304" t="s">
+        <v>79</v>
+      </c>
+      <c r="D304" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>107</v>
+      </c>
+      <c r="B305" t="s">
+        <v>153</v>
+      </c>
+      <c r="C305" t="s">
+        <v>79</v>
+      </c>
+      <c r="D305" s="23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>107</v>
+      </c>
+      <c r="B306" t="s">
+        <v>154</v>
+      </c>
+      <c r="C306" t="s">
+        <v>79</v>
+      </c>
+      <c r="D306" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>107</v>
+      </c>
+      <c r="B307" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C307" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D307" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B308" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C308" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D308" s="34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>105</v>
+      </c>
+      <c r="B309" t="s">
+        <v>149</v>
+      </c>
+      <c r="C309" t="s">
+        <v>79</v>
+      </c>
+      <c r="D309" s="23">
+        <v>40428</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>105</v>
+      </c>
+      <c r="B310" t="s">
+        <v>156</v>
+      </c>
+      <c r="C310" t="s">
+        <v>79</v>
+      </c>
+      <c r="D310" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>105</v>
+      </c>
+      <c r="B311" t="s">
+        <v>157</v>
+      </c>
+      <c r="C311" t="s">
+        <v>79</v>
+      </c>
+      <c r="D311" s="23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>105</v>
+      </c>
+      <c r="B312" t="s">
+        <v>158</v>
+      </c>
+      <c r="C312" t="s">
+        <v>79</v>
+      </c>
+      <c r="D312" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>105</v>
+      </c>
+      <c r="B313" t="s">
+        <v>159</v>
+      </c>
+      <c r="C313" t="s">
+        <v>79</v>
+      </c>
+      <c r="D313" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>105</v>
+      </c>
+      <c r="B314" t="s">
+        <v>78</v>
+      </c>
+      <c r="C314" t="s">
+        <v>79</v>
+      </c>
+      <c r="D314" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>105</v>
+      </c>
+      <c r="B315" t="s">
+        <v>150</v>
+      </c>
+      <c r="C315" t="s">
+        <v>79</v>
+      </c>
+      <c r="D315" s="23">
+        <v>40756</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>105</v>
+      </c>
+      <c r="B316" t="s">
+        <v>152</v>
+      </c>
+      <c r="C316" t="s">
+        <v>79</v>
+      </c>
+      <c r="D316" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>105</v>
+      </c>
+      <c r="B317" t="s">
+        <v>153</v>
+      </c>
+      <c r="C317" t="s">
+        <v>79</v>
+      </c>
+      <c r="D317" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>105</v>
+      </c>
+      <c r="B318" t="s">
+        <v>154</v>
+      </c>
+      <c r="C318" t="s">
+        <v>79</v>
+      </c>
+      <c r="D318" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>105</v>
+      </c>
+      <c r="B319" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C319" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D319" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B320" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C320" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D320" s="35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>103</v>
+      </c>
+      <c r="B321" t="s">
+        <v>149</v>
+      </c>
+      <c r="C321" t="s">
+        <v>79</v>
+      </c>
+      <c r="D321" s="23">
+        <v>40756</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>103</v>
+      </c>
+      <c r="B322" t="s">
+        <v>156</v>
+      </c>
+      <c r="C322" t="s">
+        <v>79</v>
+      </c>
+      <c r="D322" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>103</v>
+      </c>
+      <c r="B323" t="s">
+        <v>157</v>
+      </c>
+      <c r="C323" t="s">
+        <v>79</v>
+      </c>
+      <c r="D323" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>103</v>
+      </c>
+      <c r="B324" t="s">
+        <v>158</v>
+      </c>
+      <c r="C324" t="s">
+        <v>79</v>
+      </c>
+      <c r="D324" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>103</v>
+      </c>
+      <c r="B325" t="s">
+        <v>159</v>
+      </c>
+      <c r="C325" t="s">
+        <v>79</v>
+      </c>
+      <c r="D325" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>103</v>
+      </c>
+      <c r="B326" t="s">
+        <v>78</v>
+      </c>
+      <c r="C326" t="s">
+        <v>79</v>
+      </c>
+      <c r="D326" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>103</v>
+      </c>
+      <c r="B327" t="s">
+        <v>150</v>
+      </c>
+      <c r="C327" t="s">
+        <v>79</v>
+      </c>
+      <c r="D327" s="17">
+        <v>41102</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>103</v>
+      </c>
+      <c r="B328" t="s">
+        <v>152</v>
+      </c>
+      <c r="C328" t="s">
+        <v>79</v>
+      </c>
+      <c r="D328" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>103</v>
+      </c>
+      <c r="B329" t="s">
+        <v>153</v>
+      </c>
+      <c r="C329" t="s">
+        <v>79</v>
+      </c>
+      <c r="D329" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>103</v>
+      </c>
+      <c r="B330" t="s">
+        <v>154</v>
+      </c>
+      <c r="C330" t="s">
+        <v>79</v>
+      </c>
+      <c r="D330" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>103</v>
+      </c>
+      <c r="B331" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C331" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D331" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B332" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C332" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D332" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>13</v>
+      </c>
+      <c r="B333" t="s">
+        <v>149</v>
+      </c>
+      <c r="C333" t="s">
+        <v>79</v>
+      </c>
+      <c r="D333" s="17">
+        <v>41102</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>13</v>
+      </c>
+      <c r="B334" t="s">
+        <v>156</v>
+      </c>
+      <c r="C334" t="s">
+        <v>79</v>
+      </c>
+      <c r="D334" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>13</v>
+      </c>
+      <c r="B335" t="s">
+        <v>157</v>
+      </c>
+      <c r="C335" t="s">
+        <v>79</v>
+      </c>
+      <c r="D335" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>13</v>
+      </c>
+      <c r="B336" t="s">
+        <v>158</v>
+      </c>
+      <c r="C336" t="s">
+        <v>79</v>
+      </c>
+      <c r="D336" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>13</v>
+      </c>
+      <c r="B337" t="s">
+        <v>159</v>
+      </c>
+      <c r="C337" t="s">
+        <v>79</v>
+      </c>
+      <c r="D337" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>13</v>
+      </c>
+      <c r="B338" t="s">
+        <v>78</v>
+      </c>
+      <c r="C338" t="s">
+        <v>79</v>
+      </c>
+      <c r="D338" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>13</v>
+      </c>
+      <c r="B339" t="s">
+        <v>150</v>
+      </c>
+      <c r="C339" t="s">
+        <v>79</v>
+      </c>
+      <c r="D339" s="23">
+        <v>41553</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>13</v>
+      </c>
+      <c r="B340" t="s">
+        <v>152</v>
+      </c>
+      <c r="C340" t="s">
+        <v>79</v>
+      </c>
+      <c r="D340" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>13</v>
+      </c>
+      <c r="B341" t="s">
+        <v>153</v>
+      </c>
+      <c r="C341" t="s">
+        <v>79</v>
+      </c>
+      <c r="D341" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>13</v>
+      </c>
+      <c r="B342" t="s">
+        <v>154</v>
+      </c>
+      <c r="C342" t="s">
+        <v>79</v>
+      </c>
+      <c r="D342" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>13</v>
+      </c>
+      <c r="B343" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C343" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D343" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B344" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C344" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D344" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>81</v>
+      </c>
+      <c r="B345" t="s">
+        <v>149</v>
+      </c>
+      <c r="C345" t="s">
+        <v>79</v>
+      </c>
+      <c r="D345" s="16">
+        <v>41392</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>81</v>
+      </c>
+      <c r="B346" t="s">
+        <v>156</v>
+      </c>
+      <c r="C346" t="s">
+        <v>79</v>
+      </c>
+      <c r="D346" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>81</v>
+      </c>
+      <c r="B347" t="s">
+        <v>157</v>
+      </c>
+      <c r="C347" t="s">
+        <v>79</v>
+      </c>
+      <c r="D347" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>81</v>
+      </c>
+      <c r="B348" t="s">
+        <v>158</v>
+      </c>
+      <c r="C348" t="s">
+        <v>79</v>
+      </c>
+      <c r="D348" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>81</v>
+      </c>
+      <c r="B349" t="s">
+        <v>159</v>
+      </c>
+      <c r="C349" t="s">
+        <v>79</v>
+      </c>
+      <c r="D349" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>81</v>
+      </c>
+      <c r="B350" t="s">
+        <v>78</v>
+      </c>
+      <c r="C350" t="s">
+        <v>79</v>
+      </c>
+      <c r="D350" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>81</v>
+      </c>
+      <c r="B351" t="s">
+        <v>150</v>
+      </c>
+      <c r="C351" t="s">
+        <v>79</v>
+      </c>
+      <c r="D351" s="15">
+        <v>42084</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>81</v>
+      </c>
+      <c r="B352" t="s">
+        <v>152</v>
+      </c>
+      <c r="C352" t="s">
+        <v>79</v>
+      </c>
+      <c r="D352" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>81</v>
+      </c>
+      <c r="B353" t="s">
+        <v>153</v>
+      </c>
+      <c r="C353" t="s">
+        <v>79</v>
+      </c>
+      <c r="D353" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>81</v>
+      </c>
+      <c r="B354" t="s">
+        <v>154</v>
+      </c>
+      <c r="C354" t="s">
+        <v>79</v>
+      </c>
+      <c r="D354" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>81</v>
+      </c>
+      <c r="B355" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C355" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D355" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A356" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B356" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C356" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D356" s="30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>83</v>
+      </c>
+      <c r="B357" t="s">
+        <v>149</v>
+      </c>
+      <c r="C357" t="s">
+        <v>79</v>
+      </c>
+      <c r="D357" s="15">
+        <v>42084</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>83</v>
+      </c>
+      <c r="B358" t="s">
+        <v>156</v>
+      </c>
+      <c r="C358" t="s">
+        <v>79</v>
+      </c>
+      <c r="D358" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>83</v>
+      </c>
+      <c r="B359" t="s">
+        <v>157</v>
+      </c>
+      <c r="C359" t="s">
+        <v>79</v>
+      </c>
+      <c r="D359" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>83</v>
+      </c>
+      <c r="B360" t="s">
+        <v>158</v>
+      </c>
+      <c r="C360" t="s">
+        <v>79</v>
+      </c>
+      <c r="D360" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>83</v>
+      </c>
+      <c r="B361" t="s">
+        <v>159</v>
+      </c>
+      <c r="C361" t="s">
+        <v>79</v>
+      </c>
+      <c r="D361" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>83</v>
+      </c>
+      <c r="B362" t="s">
+        <v>78</v>
+      </c>
+      <c r="C362" t="s">
+        <v>79</v>
+      </c>
+      <c r="D362" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>83</v>
+      </c>
+      <c r="B363" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C363" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D363" s="27">
+        <v>42443</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>83</v>
+      </c>
+      <c r="B364" t="s">
+        <v>152</v>
+      </c>
+      <c r="C364" t="s">
+        <v>79</v>
+      </c>
+      <c r="D364" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>83</v>
+      </c>
+      <c r="B365" t="s">
+        <v>153</v>
+      </c>
+      <c r="C365" t="s">
+        <v>79</v>
+      </c>
+      <c r="D365" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>83</v>
+      </c>
+      <c r="B366" t="s">
+        <v>154</v>
+      </c>
+      <c r="C366" t="s">
+        <v>79</v>
+      </c>
+      <c r="D366" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>83</v>
+      </c>
+      <c r="B367" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C367" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D367" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A368" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B368" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C368" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D368" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>85</v>
+      </c>
+      <c r="B369" t="s">
+        <v>149</v>
+      </c>
+      <c r="C369" t="s">
+        <v>79</v>
+      </c>
+      <c r="D369" s="15">
+        <v>42443</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>85</v>
+      </c>
+      <c r="B370" t="s">
+        <v>156</v>
+      </c>
+      <c r="C370" t="s">
+        <v>79</v>
+      </c>
+      <c r="D370" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>85</v>
+      </c>
+      <c r="B371" t="s">
+        <v>157</v>
+      </c>
+      <c r="C371" t="s">
+        <v>79</v>
+      </c>
+      <c r="D371" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>85</v>
+      </c>
+      <c r="B372" t="s">
+        <v>158</v>
+      </c>
+      <c r="C372" t="s">
+        <v>79</v>
+      </c>
+      <c r="D372" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>85</v>
+      </c>
+      <c r="B373" t="s">
+        <v>159</v>
+      </c>
+      <c r="C373" t="s">
+        <v>79</v>
+      </c>
+      <c r="D373" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>85</v>
+      </c>
+      <c r="B374" t="s">
+        <v>78</v>
+      </c>
+      <c r="C374" t="s">
+        <v>79</v>
+      </c>
+      <c r="D374" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>85</v>
+      </c>
+      <c r="B375" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C375" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D375" s="27">
+        <v>42811</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>85</v>
+      </c>
+      <c r="B376" t="s">
+        <v>152</v>
+      </c>
+      <c r="C376" t="s">
+        <v>79</v>
+      </c>
+      <c r="D376" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>85</v>
+      </c>
+      <c r="B377" t="s">
+        <v>153</v>
+      </c>
+      <c r="C377" t="s">
+        <v>79</v>
+      </c>
+      <c r="D377" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>85</v>
+      </c>
+      <c r="B378" t="s">
+        <v>154</v>
+      </c>
+      <c r="C378" t="s">
+        <v>79</v>
+      </c>
+      <c r="D378" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
+        <v>85</v>
+      </c>
+      <c r="B379" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C379" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D379" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A380" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B380" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="C380" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D380" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A381" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B381" t="s">
+        <v>149</v>
+      </c>
+      <c r="C381" t="s">
+        <v>79</v>
+      </c>
+      <c r="D381" s="15">
+        <v>42811</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A382" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B382" t="s">
+        <v>156</v>
+      </c>
+      <c r="C382" t="s">
+        <v>79</v>
+      </c>
+      <c r="D382" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A383" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B383" t="s">
+        <v>157</v>
+      </c>
+      <c r="C383" t="s">
+        <v>79</v>
+      </c>
+      <c r="D383" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A384" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B384" t="s">
+        <v>158</v>
+      </c>
+      <c r="C384" t="s">
+        <v>79</v>
+      </c>
+      <c r="D384" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A385" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B385" t="s">
+        <v>159</v>
+      </c>
+      <c r="C385" t="s">
+        <v>79</v>
+      </c>
+      <c r="D385" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A386" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B386" t="s">
         <v>78</v>
       </c>
-      <c r="C51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="C386" t="s">
+        <v>79</v>
+      </c>
+      <c r="D386" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A387" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B387" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C387" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D387" s="28">
+        <v>43162</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A388" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B388" t="s">
+        <v>152</v>
+      </c>
+      <c r="C388" t="s">
+        <v>79</v>
+      </c>
+      <c r="D388" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A389" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B389" t="s">
+        <v>153</v>
+      </c>
+      <c r="C389" t="s">
+        <v>79</v>
+      </c>
+      <c r="D389" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A390" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B390" t="s">
+        <v>154</v>
+      </c>
+      <c r="C390" t="s">
+        <v>79</v>
+      </c>
+      <c r="D390" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A391" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B391" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C391" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D391" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A392" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B392" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="C392" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D392" s="30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>99</v>
+      </c>
+      <c r="B393" t="s">
+        <v>149</v>
+      </c>
+      <c r="C393" t="s">
+        <v>79</v>
+      </c>
+      <c r="D393" s="23">
+        <v>43162</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>99</v>
+      </c>
+      <c r="B394" t="s">
+        <v>156</v>
+      </c>
+      <c r="C394" t="s">
+        <v>79</v>
+      </c>
+      <c r="D394" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
+        <v>99</v>
+      </c>
+      <c r="B395" t="s">
+        <v>157</v>
+      </c>
+      <c r="C395" t="s">
+        <v>79</v>
+      </c>
+      <c r="D395" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
+        <v>99</v>
+      </c>
+      <c r="B396" t="s">
+        <v>158</v>
+      </c>
+      <c r="C396" t="s">
+        <v>79</v>
+      </c>
+      <c r="D396" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>99</v>
+      </c>
+      <c r="B397" t="s">
+        <v>159</v>
+      </c>
+      <c r="C397" t="s">
+        <v>79</v>
+      </c>
+      <c r="D397" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>99</v>
+      </c>
+      <c r="B398" t="s">
         <v>78</v>
       </c>
-      <c r="C53" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="C398" t="s">
+        <v>79</v>
+      </c>
+      <c r="D398" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>99</v>
+      </c>
+      <c r="B399" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C399" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D399" s="27">
+        <v>43538</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
+        <v>99</v>
+      </c>
+      <c r="B400" t="s">
+        <v>152</v>
+      </c>
+      <c r="C400" t="s">
+        <v>79</v>
+      </c>
+      <c r="D400" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
+        <v>99</v>
+      </c>
+      <c r="B401" t="s">
+        <v>153</v>
+      </c>
+      <c r="C401" t="s">
+        <v>79</v>
+      </c>
+      <c r="D401" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A402" t="s">
+        <v>99</v>
+      </c>
+      <c r="B402" t="s">
+        <v>154</v>
+      </c>
+      <c r="C402" t="s">
+        <v>79</v>
+      </c>
+      <c r="D402" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A403" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B403" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C403" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D403" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
+        <v>100</v>
+      </c>
+      <c r="B404" t="s">
         <v>84</v>
       </c>
-      <c r="C54" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="C404" t="s">
+        <v>79</v>
+      </c>
+      <c r="D404" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A405" t="s">
+        <v>100</v>
+      </c>
+      <c r="B405" t="s">
+        <v>149</v>
+      </c>
+      <c r="C405" t="s">
+        <v>79</v>
+      </c>
+      <c r="D405" s="15">
+        <v>43538</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
+        <v>100</v>
+      </c>
+      <c r="B406" t="s">
+        <v>156</v>
+      </c>
+      <c r="C406" t="s">
+        <v>79</v>
+      </c>
+      <c r="D406" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
+        <v>100</v>
+      </c>
+      <c r="B407" t="s">
+        <v>157</v>
+      </c>
+      <c r="C407" t="s">
+        <v>79</v>
+      </c>
+      <c r="D407" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A408" t="s">
+        <v>100</v>
+      </c>
+      <c r="B408" t="s">
+        <v>158</v>
+      </c>
+      <c r="C408" t="s">
+        <v>79</v>
+      </c>
+      <c r="D408" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
+        <v>100</v>
+      </c>
+      <c r="B409" t="s">
+        <v>159</v>
+      </c>
+      <c r="C409" t="s">
+        <v>79</v>
+      </c>
+      <c r="D409" s="15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A410" t="s">
+        <v>100</v>
+      </c>
+      <c r="B410" t="s">
         <v>78</v>
       </c>
-      <c r="C55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B56" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B57" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" t="s">
-        <v>79</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B58" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B59" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B60" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B61" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C62" t="s">
-        <v>79</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B63" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" t="s">
-        <v>79</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" t="s">
-        <v>79</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" t="s">
-        <v>78</v>
-      </c>
-      <c r="C65" t="s">
-        <v>79</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>123</v>
-      </c>
-      <c r="B66" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" t="s">
-        <v>79</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>123</v>
-      </c>
-      <c r="B67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" t="s">
-        <v>79</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>124</v>
-      </c>
-      <c r="B68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" t="s">
-        <v>79</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>124</v>
-      </c>
-      <c r="B69" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" t="s">
-        <v>79</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>120</v>
-      </c>
-      <c r="B70" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" t="s">
-        <v>79</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>121</v>
-      </c>
-      <c r="B72" t="s">
-        <v>84</v>
-      </c>
-      <c r="C72" t="s">
-        <v>79</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>121</v>
-      </c>
-      <c r="B73" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" t="s">
-        <v>79</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>117</v>
-      </c>
-      <c r="B74" t="s">
-        <v>84</v>
-      </c>
-      <c r="C74" t="s">
-        <v>79</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>117</v>
-      </c>
-      <c r="B75" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75" t="s">
-        <v>79</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>119</v>
-      </c>
-      <c r="B76" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" t="s">
-        <v>79</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>119</v>
-      </c>
-      <c r="B77" t="s">
-        <v>78</v>
-      </c>
-      <c r="C77" t="s">
-        <v>79</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>112</v>
-      </c>
-      <c r="B78" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>112</v>
-      </c>
-      <c r="B79" t="s">
-        <v>78</v>
-      </c>
-      <c r="C79" t="s">
-        <v>79</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>111</v>
-      </c>
-      <c r="B80" t="s">
-        <v>84</v>
-      </c>
-      <c r="C80" t="s">
-        <v>79</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>111</v>
-      </c>
-      <c r="B81" t="s">
-        <v>78</v>
-      </c>
-      <c r="C81" t="s">
-        <v>79</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>109</v>
-      </c>
-      <c r="B82" t="s">
-        <v>84</v>
-      </c>
-      <c r="C82" t="s">
-        <v>79</v>
-      </c>
-      <c r="D82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>109</v>
-      </c>
-      <c r="B83" t="s">
-        <v>78</v>
-      </c>
-      <c r="C83" t="s">
-        <v>79</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>107</v>
-      </c>
-      <c r="B84" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" t="s">
-        <v>79</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>107</v>
-      </c>
-      <c r="B85" t="s">
-        <v>78</v>
-      </c>
-      <c r="C85" t="s">
-        <v>79</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>105</v>
-      </c>
-      <c r="B86" t="s">
-        <v>84</v>
-      </c>
-      <c r="C86" t="s">
-        <v>79</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>105</v>
-      </c>
-      <c r="B87" t="s">
-        <v>78</v>
-      </c>
-      <c r="C87" t="s">
-        <v>79</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>103</v>
-      </c>
-      <c r="B88" t="s">
-        <v>84</v>
-      </c>
-      <c r="C88" t="s">
-        <v>79</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>103</v>
-      </c>
-      <c r="B89" t="s">
-        <v>78</v>
-      </c>
-      <c r="C89" t="s">
-        <v>79</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>13</v>
-      </c>
-      <c r="B90" t="s">
-        <v>84</v>
-      </c>
-      <c r="C90" t="s">
-        <v>79</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91" t="s">
-        <v>78</v>
-      </c>
-      <c r="C91" t="s">
-        <v>79</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>81</v>
-      </c>
-      <c r="B92" t="s">
-        <v>84</v>
-      </c>
-      <c r="C92" t="s">
-        <v>79</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>81</v>
-      </c>
-      <c r="B93" t="s">
-        <v>78</v>
-      </c>
-      <c r="C93" t="s">
-        <v>79</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>83</v>
-      </c>
-      <c r="B94" t="s">
-        <v>84</v>
-      </c>
-      <c r="C94" t="s">
-        <v>79</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>83</v>
-      </c>
-      <c r="B95" t="s">
-        <v>78</v>
-      </c>
-      <c r="C95" t="s">
-        <v>79</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>85</v>
-      </c>
-      <c r="B96" t="s">
-        <v>84</v>
-      </c>
-      <c r="C96" t="s">
-        <v>79</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>85</v>
-      </c>
-      <c r="B97" t="s">
-        <v>78</v>
-      </c>
-      <c r="C97" t="s">
-        <v>79</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B98" t="s">
-        <v>84</v>
-      </c>
-      <c r="C98" t="s">
-        <v>79</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B99" t="s">
-        <v>78</v>
-      </c>
-      <c r="C99" t="s">
-        <v>79</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>84</v>
-      </c>
-      <c r="C100" t="s">
-        <v>79</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>78</v>
-      </c>
-      <c r="C101" t="s">
-        <v>79</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="C410" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A411" t="s">
         <v>100</v>
       </c>
-      <c r="B102" t="s">
-        <v>84</v>
-      </c>
-      <c r="C102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>97</v>
+      <c r="B411" t="s">
+        <v>150</v>
+      </c>
+      <c r="C411" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A412" t="s">
+        <v>100</v>
+      </c>
+      <c r="B412" t="s">
+        <v>152</v>
+      </c>
+      <c r="C412" t="s">
+        <v>79</v>
+      </c>
+      <c r="D412" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A413" t="s">
+        <v>100</v>
+      </c>
+      <c r="B413" t="s">
+        <v>153</v>
+      </c>
+      <c r="C413" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A414" t="s">
+        <v>100</v>
+      </c>
+      <c r="B414" t="s">
+        <v>154</v>
+      </c>
+      <c r="C414" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A415" t="s">
+        <v>100</v>
+      </c>
+      <c r="B415" t="s">
+        <v>155</v>
+      </c>
+      <c r="C415" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D102" r:id="rId1" xr:uid="{A219C8BE-C520-41E0-ADE3-8E898CB44D2A}"/>
-    <hyperlink ref="D92" r:id="rId2" xr:uid="{1FE2022A-31F1-4A60-AF77-8990993E519E}"/>
+    <hyperlink ref="D404" r:id="rId1" xr:uid="{A219C8BE-C520-41E0-ADE3-8E898CB44D2A}"/>
+    <hyperlink ref="D344" r:id="rId2" xr:uid="{1FE2022A-31F1-4A60-AF77-8990993E519E}"/>
+    <hyperlink ref="D74" r:id="rId3" xr:uid="{E8B8B051-E37F-43C6-83F5-FC76F1018BC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/global_attribute_table.xlsx
+++ b/global_attribute_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cawynn\cloudstor\Shared\SAZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/cathryn_wynnedwards_utas_edu_au/Documents/Documents/GitHub/saz-data-processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F1C9AC-E2A6-4BB2-B17F-7142736324D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{12F1C9AC-E2A6-4BB2-B17F-7142736324D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E9187800-8B54-47CD-89B3-CED5533B3ABD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AB62E28C-C197-1443-8F5C-081BEC806BA6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="207">
   <si>
     <t>Oceanographic and meteorological data from the Southern Ocean Time Series observatory in the Southern Ocean southwest of Tasmania.</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Integrated Marine Observing System. [year-of-data-download], [Title], [Data access URL], accessed [date- of-access]</t>
-  </si>
-  <si>
-    <t>zooplankton &gt; 1mm archived, photos avaliable on request, 3/10 of sample archived</t>
   </si>
   <si>
     <t>trap area, paraflux = 0.5 m^2, IRS = 0.16 m^2</t>
@@ -675,6 +672,30 @@
   </si>
   <si>
     <t>09SS19990206</t>
+  </si>
+  <si>
+    <t>zooplankton &gt; 1mm archived, photos available on request, 3/10 of sample archived</t>
+  </si>
+  <si>
+    <t>https://www.cmar.csiro.au/data/trawler/survey_details.cfm?survey=IN2020_V09</t>
+  </si>
+  <si>
+    <t>IN2020_V09</t>
+  </si>
+  <si>
+    <t>096U20200825</t>
+  </si>
+  <si>
+    <t>SAZ47-22-2020</t>
+  </si>
+  <si>
+    <t>https://www.cmar.csiro.au/data/trawler/survey_details.cfm?survey=IN2021_V02</t>
+  </si>
+  <si>
+    <t>IN2021_V02</t>
+  </si>
+  <si>
+    <t>096U20210414</t>
   </si>
 </sst>
 </file>
@@ -803,7 +824,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -873,6 +894,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1188,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53348BFB-8ECF-4745-825D-D0BA3C53E339}">
-  <dimension ref="A1:D415"/>
+  <dimension ref="A1:D427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A412" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="A427" sqref="A427:XFD427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1206,27 +1238,27 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -1234,27 +1266,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>2</v>
@@ -1262,13 +1294,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>3</v>
@@ -1276,13 +1308,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>4</v>
@@ -1290,13 +1322,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
@@ -1304,363 +1336,363 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>6</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="C11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>1</v>
@@ -1668,125 +1700,125 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>0</v>
@@ -1794,280 +1826,280 @@
     </row>
     <row r="43" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="B44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D45" s="22"/>
     </row>
     <row r="46" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D61" s="13"/>
     </row>
     <row r="62" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D63" s="23">
         <v>36197</v>
@@ -2075,163 +2107,163 @@
     </row>
     <row r="64" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D69" s="22"/>
     </row>
     <row r="70" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D73" s="37"/>
     </row>
     <row r="74" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="24" t="s">
         <v>133</v>
-      </c>
-      <c r="B74" t="s">
-        <v>78</v>
-      </c>
-      <c r="C74" t="s">
-        <v>79</v>
-      </c>
-      <c r="D74" s="24" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D75" s="23">
         <v>36197</v>
@@ -2239,83 +2271,83 @@
     </row>
     <row r="76" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B79" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C79" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D81" s="18">
         <v>36354</v>
@@ -2323,163 +2355,163 @@
     </row>
     <row r="82" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B86" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D87" s="22"/>
     </row>
     <row r="88" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D89" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D91" s="13"/>
     </row>
     <row r="92" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D93" s="18">
         <v>36354</v>
@@ -2487,243 +2519,243 @@
     </row>
     <row r="94" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="97" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B98" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C98" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D99" s="22"/>
     </row>
     <row r="100" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D101" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D103" s="22"/>
     </row>
     <row r="104" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D104" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C105" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D105" s="22"/>
     </row>
     <row r="106" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="107" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D107" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="109" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D109" s="13"/>
     </row>
     <row r="110" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B110" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C110" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B111" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C111" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D111" s="18">
         <v>37193</v>
@@ -2731,163 +2763,163 @@
     </row>
     <row r="112" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="113" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D113" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="115" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B115" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C115" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="116" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B116" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C116" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D116" s="35" t="s">
         <v>128</v>
-      </c>
-      <c r="B116" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C116" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D116" s="35" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C117" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D117" s="22"/>
     </row>
     <row r="118" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="119" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D119" s="36" t="s">
         <v>128</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D119" s="36" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="120" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="121" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D121" s="22"/>
     </row>
     <row r="122" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B122" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C122" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B123" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C123" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D123" s="18">
         <v>37193</v>
@@ -2895,83 +2927,83 @@
     </row>
     <row r="124" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D125" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="127" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B127" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C127" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="128" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C128" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B129" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C129" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D129" s="18">
         <v>37193</v>
@@ -2979,83 +3011,83 @@
     </row>
     <row r="130" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B130" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C130" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="131" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B131" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C131" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D131" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="132" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B132" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C132" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="133" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D133" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="134" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B134" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C134" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="135" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C135" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D135" s="18">
         <v>37542</v>
@@ -3063,83 +3095,83 @@
     </row>
     <row r="136" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D136" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="137" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D137" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="138" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="139" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B139" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C139" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D139" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="140" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B140" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C140" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="141" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B141" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C141" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D141" s="18">
         <v>37193</v>
@@ -3147,83 +3179,83 @@
     </row>
     <row r="142" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B142" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C142" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D142" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="143" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B143" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C143" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D143" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="144" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B144" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C144" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D144" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="145" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D145" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="146" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B146" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C146" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="147" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B147" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D147" s="18">
         <v>37542</v>
@@ -3231,83 +3263,83 @@
     </row>
     <row r="148" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D148" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="149" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D149" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="150" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D150" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="151" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B151" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C151" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D151" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="152" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="B152" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C152" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D152" s="35" t="s">
         <v>125</v>
-      </c>
-      <c r="B152" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C152" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D152" s="35" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="153" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B153" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C153" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D153" s="18">
         <v>37193</v>
@@ -3315,83 +3347,83 @@
     </row>
     <row r="154" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="155" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B155" t="s">
+        <v>156</v>
+      </c>
+      <c r="C155" t="s">
+        <v>78</v>
+      </c>
+      <c r="D155" s="36" t="s">
         <v>125</v>
-      </c>
-      <c r="B155" t="s">
-        <v>157</v>
-      </c>
-      <c r="C155" t="s">
-        <v>79</v>
-      </c>
-      <c r="D155" s="36" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="156" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B156" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D156" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="157" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D157" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="158" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B158" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C158" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D158" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="159" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B159" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C159" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D159" s="18">
         <v>37542</v>
@@ -3399,83 +3431,83 @@
     </row>
     <row r="160" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D160" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="161" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D161" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="162" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D162" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="163" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B163" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C163" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D163" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="164" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B164" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C164" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="165" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A165" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B165" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C165" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D165" s="18">
         <v>37542</v>
@@ -3483,83 +3515,83 @@
     </row>
     <row r="166" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B166" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C166" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D166" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B167" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C167" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D167" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="168" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B168" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C168" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D168" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="169" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D169" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B170" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C170" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D170" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="171" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B171" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C171" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D171" s="23">
         <v>37872</v>
@@ -3567,83 +3599,83 @@
     </row>
     <row r="172" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D172" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D173" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="174" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A174" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D174" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="175" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B175" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C175" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D175" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="176" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B176" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C176" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D176" s="35" t="s">
         <v>123</v>
-      </c>
-      <c r="B176" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C176" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D176" s="35" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="177" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B177" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C177" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D177" s="18">
         <v>37542</v>
@@ -3651,167 +3683,167 @@
     </row>
     <row r="178" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A178" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B178" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C178" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="179" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A179" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B179" t="s">
+        <v>156</v>
+      </c>
+      <c r="C179" t="s">
+        <v>78</v>
+      </c>
+      <c r="D179" s="36" t="s">
         <v>123</v>
-      </c>
-      <c r="B179" t="s">
-        <v>157</v>
-      </c>
-      <c r="C179" t="s">
-        <v>79</v>
-      </c>
-      <c r="D179" s="36" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="180" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A180" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B180" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C180" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D180" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="181" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D181" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B182" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C182" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D182" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="183" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A183" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B183" t="s">
+        <v>149</v>
+      </c>
+      <c r="C183" t="s">
+        <v>78</v>
+      </c>
+      <c r="D183" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="C183" t="s">
-        <v>79</v>
-      </c>
-      <c r="D183" s="13" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="184" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D184" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="185" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A185" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D185" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="186" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D186" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="187" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B187" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C187" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D187" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="188" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B188" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C188" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D188" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="189" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B189" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C189" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D189" s="23">
         <v>37872</v>
@@ -3819,83 +3851,83 @@
     </row>
     <row r="190" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B190" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C190" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D190" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="191" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B191" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C191" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D191" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="192" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B192" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C192" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D192" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D193" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="194" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B194" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C194" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D194" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="195" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B195" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C195" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D195" s="23">
         <v>38261</v>
@@ -3903,83 +3935,83 @@
     </row>
     <row r="196" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D196" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="197" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D197" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="198" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D198" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="199" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B199" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C199" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D199" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="200" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B200" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C200" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D200" s="35" t="s">
         <v>120</v>
-      </c>
-      <c r="B200" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C200" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D200" s="35" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="201" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B201" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C201" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D201" s="23">
         <v>37872</v>
@@ -3987,83 +4019,83 @@
     </row>
     <row r="202" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B202" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C202" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D202" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="203" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
+        <v>119</v>
+      </c>
+      <c r="B203" t="s">
+        <v>156</v>
+      </c>
+      <c r="C203" t="s">
+        <v>78</v>
+      </c>
+      <c r="D203" s="36" t="s">
         <v>120</v>
-      </c>
-      <c r="B203" t="s">
-        <v>157</v>
-      </c>
-      <c r="C203" t="s">
-        <v>79</v>
-      </c>
-      <c r="D203" s="36" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="204" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B204" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C204" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D204" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="205" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D205" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="206" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B206" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C206" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D206" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="207" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B207" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C207" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D207" s="23">
         <v>38261</v>
@@ -4071,83 +4103,83 @@
     </row>
     <row r="208" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D208" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="209" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D209" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="210" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D210" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="211" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B211" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C211" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D211" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="212" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B212" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C212" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D212" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="213" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B213" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C213" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D213" s="23">
         <v>38261</v>
@@ -4155,163 +4187,163 @@
     </row>
     <row r="214" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B214" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C214" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D214" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="215" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B215" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C215" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D215" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="216" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B216" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C216" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D216" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="217" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D217" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="218" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B218" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C218" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D218" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="219" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C219" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D219" s="22"/>
     </row>
     <row r="220" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B220" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C220" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D220" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="221" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B221" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C221" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D221" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="222" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B222" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C222" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D222" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="223" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B223" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C223" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D223" s="13"/>
     </row>
     <row r="224" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A224" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B224" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C224" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D224" s="35" t="s">
         <v>118</v>
-      </c>
-      <c r="B224" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C224" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D224" s="35" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="225" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B225" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C225" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D225" s="23">
         <v>38261</v>
@@ -4319,243 +4351,243 @@
     </row>
     <row r="226" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B226" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C226" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D226" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="227" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
+        <v>117</v>
+      </c>
+      <c r="B227" t="s">
+        <v>156</v>
+      </c>
+      <c r="C227" t="s">
+        <v>78</v>
+      </c>
+      <c r="D227" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="B227" t="s">
-        <v>157</v>
-      </c>
-      <c r="C227" t="s">
-        <v>79</v>
-      </c>
-      <c r="D227" s="13" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="228" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B228" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C228" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D228" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="229" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A229" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B229" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D229" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="230" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B230" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C230" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D230" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="231" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B231" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C231" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D231" s="22"/>
     </row>
     <row r="232" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B232" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C232" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D232" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="233" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B233" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C233" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D233" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="234" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B234" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C234" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D234" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="235" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A235" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B235" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C235" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D235" s="22"/>
     </row>
     <row r="236" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A236" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B236" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C236" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D236" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="237" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A237" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B237" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C237" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D237" s="22"/>
     </row>
     <row r="238" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B238" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C238" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D238" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="239" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B239" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C239" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D239" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="240" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B240" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C240" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D240" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="241" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B241" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C241" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D241" s="22"/>
     </row>
     <row r="242" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B242" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C242" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D242" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="243" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B243" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C243" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D243" s="18">
         <v>38990</v>
@@ -4563,163 +4595,163 @@
     </row>
     <row r="244" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B244" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C244" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D244" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="245" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B245" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C245" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D245" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="246" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B246" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C246" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D246" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="247" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B247" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C247" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D247" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="248" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A248" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B248" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C248" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D248" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="249" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A249" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B249" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C249" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D249" s="22"/>
     </row>
     <row r="250" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B250" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C250" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D250" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="251" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B251" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C251" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D251" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="252" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B252" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C252" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D252" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="253" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A253" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B253" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C253" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D253" s="37"/>
     </row>
     <row r="254" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B254" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C254" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D254" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="255" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B255" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C255" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D255" s="18">
         <v>38990</v>
@@ -4727,83 +4759,83 @@
     </row>
     <row r="256" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B256" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C256" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D256" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="257" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B257" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C257" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D257" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="258" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B258" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C258" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D258" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="259" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B259" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C259" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D259" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="260" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A260" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B260" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C260" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D260" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="261" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B261" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C261" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D261" s="18">
         <v>38990</v>
@@ -4811,167 +4843,167 @@
     </row>
     <row r="262" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B262" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C262" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D262" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="263" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C263" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D263" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="264" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B264" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C264" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D264" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="265" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B265" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C265" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D265" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="266" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
+        <v>110</v>
+      </c>
+      <c r="B266" t="s">
+        <v>77</v>
+      </c>
+      <c r="C266" t="s">
+        <v>78</v>
+      </c>
+      <c r="D266" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="B266" t="s">
-        <v>78</v>
-      </c>
-      <c r="C266" t="s">
-        <v>79</v>
-      </c>
-      <c r="D266" s="13" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="267" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B267" t="s">
+        <v>149</v>
+      </c>
+      <c r="C267" t="s">
+        <v>78</v>
+      </c>
+      <c r="D267" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="C267" t="s">
-        <v>79</v>
-      </c>
-      <c r="D267" s="13" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="268" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B268" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C268" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D268" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="269" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B269" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C269" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D269" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="270" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B270" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C270" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D270" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="271" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B271" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C271" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D271" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="272" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A272" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B272" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C272" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D272" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="273" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B273" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C273" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D273" s="18">
         <v>38990</v>
@@ -4979,83 +5011,83 @@
     </row>
     <row r="274" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B274" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C274" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D274" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="275" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B275" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C275" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D275" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="276" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B276" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C276" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D276" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="277" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B277" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C277" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D277" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="278" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B278" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C278" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D278" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="279" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B279" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C279" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D279" s="18">
         <v>39432</v>
@@ -5063,83 +5095,83 @@
     </row>
     <row r="280" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B280" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C280" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D280" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="281" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B281" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C281" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D281" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="282" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B282" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C282" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D282" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="283" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B283" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C283" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D283" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="284" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A284" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B284" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C284" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D284" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="285" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B285" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C285" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D285" s="23">
         <v>39724</v>
@@ -5147,83 +5179,83 @@
     </row>
     <row r="286" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B286" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C286" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D286" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="287" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B287" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C287" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D287" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="288" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B288" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C288" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D288" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="289" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B289" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C289" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D289" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="290" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B290" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C290" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D290" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="291" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B291" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C291" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D291" s="19">
         <v>40078</v>
@@ -5231,83 +5263,83 @@
     </row>
     <row r="292" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B292" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C292" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D292" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="293" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B293" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C293" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D293" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="294" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B294" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C294" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D294" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="295" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B295" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C295" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D295" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="296" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A296" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B296" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C296" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D296" s="34" t="s">
         <v>107</v>
-      </c>
-      <c r="B296" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C296" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D296" s="34" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="297" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B297" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C297" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D297" s="19">
         <v>40078</v>
@@ -5315,83 +5347,83 @@
     </row>
     <row r="298" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B298" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C298" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D298" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="299" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B299" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C299" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D299" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="300" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B300" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C300" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D300" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="301" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B301" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C301" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D301" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="302" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B302" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C302" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D302" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="303" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B303" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C303" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D303" s="23">
         <v>40428</v>
@@ -5399,83 +5431,83 @@
     </row>
     <row r="304" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B304" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C304" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D304" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="305" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B305" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C305" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D305" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="306" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B306" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C306" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D306" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="307" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B307" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C307" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D307" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="308" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A308" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B308" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C308" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D308" s="34" t="s">
         <v>105</v>
-      </c>
-      <c r="B308" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C308" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D308" s="34" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="309" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B309" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C309" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D309" s="23">
         <v>40428</v>
@@ -5483,83 +5515,83 @@
     </row>
     <row r="310" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B310" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C310" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D310" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="311" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B311" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C311" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D311" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="312" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B312" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C312" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D312" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="313" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B313" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C313" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D313" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="314" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B314" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C314" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D314" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="315" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B315" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C315" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D315" s="23">
         <v>40756</v>
@@ -5567,83 +5599,83 @@
     </row>
     <row r="316" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B316" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C316" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D316" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="317" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B317" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C317" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D317" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="318" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B318" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C318" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D318" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="319" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B319" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C319" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D319" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="320" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A320" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B320" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C320" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D320" s="35" t="s">
         <v>103</v>
-      </c>
-      <c r="B320" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C320" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D320" s="35" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="321" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B321" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C321" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D321" s="23">
         <v>40756</v>
@@ -5651,83 +5683,83 @@
     </row>
     <row r="322" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B322" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C322" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D322" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="323" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B323" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C323" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D323" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="324" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B324" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C324" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D324" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="325" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B325" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C325" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D325" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="326" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B326" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C326" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D326" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="327" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B327" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C327" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D327" s="17">
         <v>41102</v>
@@ -5735,83 +5767,83 @@
     </row>
     <row r="328" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B328" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C328" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D328" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="329" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B329" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C329" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="330" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B330" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C330" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D330" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="331" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B331" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C331" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D331" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="332" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A332" s="29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B332" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C332" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D332" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="333" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B333" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C333" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D333" s="17">
         <v>41102</v>
@@ -5819,83 +5851,83 @@
     </row>
     <row r="334" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B334" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C334" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="335" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B335" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C335" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="336" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B336" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C336" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D336" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="337" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B337" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C337" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D337" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B338" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C338" t="s">
+        <v>78</v>
+      </c>
+      <c r="D338" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="D338" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B339" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C339" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D339" s="23">
         <v>41553</v>
@@ -5903,83 +5935,83 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B340" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C340" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D340" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B341" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C341" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D341" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B342" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C342" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D342" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B343" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C343" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D343" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="344" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A344" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B344" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C344" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D344" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B345" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C345" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D345" s="16">
         <v>41392</v>
@@ -5987,83 +6019,83 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B346" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C346" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D346" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B347" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C347" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D347" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B348" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C348" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D348" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B349" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C349" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D349" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
+        <v>80</v>
+      </c>
+      <c r="B350" t="s">
+        <v>77</v>
+      </c>
+      <c r="C350" t="s">
+        <v>78</v>
+      </c>
+      <c r="D350" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B350" t="s">
-        <v>78</v>
-      </c>
-      <c r="C350" t="s">
-        <v>79</v>
-      </c>
-      <c r="D350" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B351" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C351" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D351" s="15">
         <v>42084</v>
@@ -6071,83 +6103,83 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B352" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C352" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D352" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B353" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C353" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D353" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B354" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C354" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D354" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B355" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C355" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D355" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="356" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A356" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B356" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B356" s="29" t="s">
-        <v>84</v>
-      </c>
       <c r="C356" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D356" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B357" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C357" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D357" s="15">
         <v>42084</v>
@@ -6155,83 +6187,83 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B358" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C358" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D358" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B359" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C359" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D359" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B360" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C360" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D360" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B361" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C361" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D361" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B362" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C362" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="363" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B363" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C363" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D363" s="27">
         <v>42443</v>
@@ -6239,83 +6271,83 @@
     </row>
     <row r="364" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B364" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C364" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D364" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="365" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B365" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C365" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D365" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="366" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B366" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C366" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D366" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="367" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B367" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C367" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D367" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="368" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A368" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B368" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C368" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D368" s="30" t="s">
         <v>85</v>
-      </c>
-      <c r="B368" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C368" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D368" s="30" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B369" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C369" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D369" s="15">
         <v>42443</v>
@@ -6323,83 +6355,83 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B370" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C370" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D370" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B371" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C371" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D371" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B372" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C372" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D372" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B373" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C373" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D373" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B374" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C374" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D374" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="375" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B375" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C375" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D375" s="27">
         <v>42811</v>
@@ -6407,83 +6439,83 @@
     </row>
     <row r="376" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B376" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C376" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D376" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="377" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B377" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C377" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D377" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="378" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B378" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C378" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D378" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="379" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B379" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C379" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D379" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="380" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A380" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B380" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C380" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D380" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B381" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C381" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D381" s="15">
         <v>42811</v>
@@ -6491,83 +6523,83 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B382" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C382" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D382" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B383" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C383" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D383" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B384" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C384" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D384" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B385" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C385" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D385" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B386" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C386" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D386" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="387" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A387" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B387" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C387" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D387" s="28">
         <v>43162</v>
@@ -6575,83 +6607,83 @@
     </row>
     <row r="388" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A388" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B388" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C388" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D388" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="389" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A389" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B389" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C389" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D389" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="390" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A390" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B390" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C390" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D390" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="391" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A391" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B391" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C391" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D391" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="392" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A392" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B392" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C392" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D392" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B393" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C393" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D393" s="23">
         <v>43162</v>
@@ -6659,83 +6691,83 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B394" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C394" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D394" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B395" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C395" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D395" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B396" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C396" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D396" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B397" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C397" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D397" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B398" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C398" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D398" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="399" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B399" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C399" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D399" s="27">
         <v>43538</v>
@@ -6743,83 +6775,83 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B400" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C400" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D400" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="401" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B401" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C401" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D401" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="402" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B402" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C402" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D402" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="403" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A403" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B403" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C403" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D403" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B404" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C404" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D404" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B405" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C405" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D405" s="15">
         <v>43538</v>
@@ -6827,127 +6859,310 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B406" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C406" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D406" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B407" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C407" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D407" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B408" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C408" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D408" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B409" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C409" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D409" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B410" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C410" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="D410" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B411" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C411" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="D411" s="15">
+        <v>44068</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B412" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C412" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D412" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B413" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C413" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="D413" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B414" t="s">
+        <v>153</v>
+      </c>
+      <c r="C414" t="s">
+        <v>78</v>
+      </c>
+      <c r="D414" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A415" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B415" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C414" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A415" t="s">
-        <v>100</v>
-      </c>
-      <c r="B415" t="s">
+      <c r="C415" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D415" s="41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A416" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B416" t="s">
+        <v>83</v>
+      </c>
+      <c r="C416" t="s">
+        <v>78</v>
+      </c>
+      <c r="D416" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A417" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B417" t="s">
+        <v>148</v>
+      </c>
+      <c r="C417" t="s">
+        <v>78</v>
+      </c>
+      <c r="D417" s="15">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A418" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B418" t="s">
         <v>155</v>
       </c>
-      <c r="C415" t="s">
-        <v>79</v>
+      <c r="C418" t="s">
+        <v>78</v>
+      </c>
+      <c r="D418" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A419" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B419" t="s">
+        <v>156</v>
+      </c>
+      <c r="C419" t="s">
+        <v>78</v>
+      </c>
+      <c r="D419" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A420" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B420" t="s">
+        <v>157</v>
+      </c>
+      <c r="C420" t="s">
+        <v>78</v>
+      </c>
+      <c r="D420" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A421" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B421" t="s">
+        <v>158</v>
+      </c>
+      <c r="C421" t="s">
+        <v>78</v>
+      </c>
+      <c r="D421" s="44" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A422" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B422" t="s">
+        <v>77</v>
+      </c>
+      <c r="C422" t="s">
+        <v>78</v>
+      </c>
+      <c r="D422" s="43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A423" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B423" t="s">
+        <v>149</v>
+      </c>
+      <c r="C423" t="s">
+        <v>78</v>
+      </c>
+      <c r="D423" s="15">
+        <v>44300</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A424" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B424" t="s">
+        <v>151</v>
+      </c>
+      <c r="C424" t="s">
+        <v>78</v>
+      </c>
+      <c r="D424" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A425" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B425" t="s">
+        <v>152</v>
+      </c>
+      <c r="C425" t="s">
+        <v>78</v>
+      </c>
+      <c r="D425" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A426" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B426" t="s">
+        <v>153</v>
+      </c>
+      <c r="C426" t="s">
+        <v>78</v>
+      </c>
+      <c r="D426" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A427" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B427" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C427" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D427" s="45" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/global_attribute_table.xlsx
+++ b/global_attribute_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/cathryn_wynnedwards_utas_edu_au/Documents/Documents/GitHub/saz-data-processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{12F1C9AC-E2A6-4BB2-B17F-7142736324D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E9187800-8B54-47CD-89B3-CED5533B3ABD}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{12F1C9AC-E2A6-4BB2-B17F-7142736324D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBE1B063-DEE3-44FF-BC76-6683B77AB271}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AB62E28C-C197-1443-8F5C-081BEC806BA6}"/>
   </bookViews>
@@ -435,9 +435,6 @@
   </si>
   <si>
     <t>https://www.cmar.csiro.au/data/trawler/survey_details.cfm?survey=SS199902</t>
-  </si>
-  <si>
-    <t>http://www.imos.org.au http://dx.doi.org/10.26198/5dfad21358a8d</t>
   </si>
   <si>
     <t>comment_data_qc_report</t>
@@ -696,6 +693,9 @@
   </si>
   <si>
     <t>096U20210414</t>
+  </si>
+  <si>
+    <t>Particle flux QC report: http://www.imos.org.au http://dx.doi.org/10.26198/5dfad21358a8d; SOTS annual reports: https://catalogue-imos.aodn.org.au/geonetwork/srv/eng/catalog.search#/metadata/afc166ce-6b34-44d9-b64c-8bb10fd43a07</t>
   </si>
 </sst>
 </file>
@@ -1222,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53348BFB-8ECF-4745-825D-D0BA3C53E339}">
   <dimension ref="A1:D427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="A427" sqref="A427:XFD427"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1345,7 +1345,7 @@
         <v>78</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1381,13 +1381,13 @@
         <v>74</v>
       </c>
       <c r="B11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>135</v>
-      </c>
-      <c r="C11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1765,7 +1765,7 @@
         <v>78</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1840,7 +1840,7 @@
     </row>
     <row r="44" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B44" t="s">
         <v>83</v>
@@ -1849,15 +1849,15 @@
         <v>78</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C45" t="s">
         <v>78</v>
@@ -1866,52 +1866,52 @@
     </row>
     <row r="46" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C49" s="21" t="s">
         <v>78</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="50" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B50" t="s">
         <v>77</v>
@@ -1934,10 +1934,10 @@
     </row>
     <row r="51" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C51" s="21" t="s">
         <v>78</v>
@@ -1945,24 +1945,24 @@
     </row>
     <row r="52" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>78</v>
@@ -1973,24 +1973,24 @@
     </row>
     <row r="54" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C55" s="38" t="s">
         <v>78</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="56" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B56" s="29" t="s">
         <v>83</v>
@@ -2013,10 +2013,10 @@
     </row>
     <row r="57" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C57" t="s">
         <v>78</v>
@@ -2025,24 +2025,24 @@
     </row>
     <row r="58" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>78</v>
@@ -2053,24 +2053,24 @@
     </row>
     <row r="60" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C61" s="21" t="s">
         <v>78</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="62" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B62" t="s">
         <v>77</v>
@@ -2093,10 +2093,10 @@
     </row>
     <row r="63" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C63" t="s">
         <v>78</v>
@@ -2107,58 +2107,58 @@
     </row>
     <row r="64" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C67" s="39" t="s">
         <v>78</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
@@ -2180,7 +2180,7 @@
         <v>132</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C69" t="s">
         <v>78</v>
@@ -2192,13 +2192,13 @@
         <v>132</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2206,7 +2206,7 @@
         <v>132</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>78</v>
@@ -2220,13 +2220,13 @@
         <v>132</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -2234,7 +2234,7 @@
         <v>132</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C73" s="21" t="s">
         <v>78</v>
@@ -2260,7 +2260,7 @@
         <v>132</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C75" t="s">
         <v>78</v>
@@ -2274,13 +2274,13 @@
         <v>132</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2288,13 +2288,13 @@
         <v>132</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2302,13 +2302,13 @@
         <v>132</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C78" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2316,18 +2316,18 @@
         <v>132</v>
       </c>
       <c r="B79" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C79" s="39" t="s">
         <v>78</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B80" s="29" t="s">
         <v>83</v>
@@ -2341,10 +2341,10 @@
     </row>
     <row r="81" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C81" t="s">
         <v>78</v>
@@ -2355,24 +2355,24 @@
     </row>
     <row r="82" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C82" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>78</v>
@@ -2383,35 +2383,35 @@
     </row>
     <row r="84" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B86" t="s">
         <v>77</v>
@@ -2425,10 +2425,10 @@
     </row>
     <row r="87" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C87" s="21" t="s">
         <v>78</v>
@@ -2437,24 +2437,24 @@
     </row>
     <row r="88" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>78</v>
@@ -2465,24 +2465,24 @@
     </row>
     <row r="90" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C91" s="38" t="s">
         <v>78</v>
@@ -2508,7 +2508,7 @@
         <v>130</v>
       </c>
       <c r="B93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C93" t="s">
         <v>78</v>
@@ -2522,13 +2522,13 @@
         <v>130</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C94" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2536,7 +2536,7 @@
         <v>130</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>78</v>
@@ -2550,13 +2550,13 @@
         <v>130</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C96" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2564,13 +2564,13 @@
         <v>130</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C97" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2592,7 +2592,7 @@
         <v>130</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C99" s="21" t="s">
         <v>78</v>
@@ -2604,13 +2604,13 @@
         <v>130</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C100" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2618,7 +2618,7 @@
         <v>130</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C101" s="12" t="s">
         <v>78</v>
@@ -2632,13 +2632,13 @@
         <v>130</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C102" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -2646,7 +2646,7 @@
         <v>130</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="38" t="s">
         <v>78</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="104" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B104" s="29" t="s">
         <v>83</v>
@@ -2669,10 +2669,10 @@
     </row>
     <row r="105" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C105" t="s">
         <v>78</v>
@@ -2681,24 +2681,24 @@
     </row>
     <row r="106" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="107" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>78</v>
@@ -2709,24 +2709,24 @@
     </row>
     <row r="108" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C108" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="109" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C109" s="21" t="s">
         <v>78</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="110" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B110" t="s">
         <v>77</v>
@@ -2749,10 +2749,10 @@
     </row>
     <row r="111" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C111" t="s">
         <v>78</v>
@@ -2763,24 +2763,24 @@
     </row>
     <row r="112" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C112" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="113" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>78</v>
@@ -2791,30 +2791,30 @@
     </row>
     <row r="114" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C114" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="115" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B115" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C115" s="39" t="s">
         <v>78</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="116" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
@@ -2836,7 +2836,7 @@
         <v>127</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C117" t="s">
         <v>78</v>
@@ -2848,13 +2848,13 @@
         <v>127</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C118" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="119" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2862,7 +2862,7 @@
         <v>127</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C119" s="12" t="s">
         <v>78</v>
@@ -2876,13 +2876,13 @@
         <v>127</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C120" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="121" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -2890,7 +2890,7 @@
         <v>127</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C121" s="21" t="s">
         <v>78</v>
@@ -2916,7 +2916,7 @@
         <v>127</v>
       </c>
       <c r="B123" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C123" t="s">
         <v>78</v>
@@ -2930,13 +2930,13 @@
         <v>127</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C124" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2944,7 +2944,7 @@
         <v>127</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C125" s="12" t="s">
         <v>78</v>
@@ -2958,13 +2958,13 @@
         <v>127</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C126" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="127" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2972,18 +2972,18 @@
         <v>127</v>
       </c>
       <c r="B127" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C127" s="39" t="s">
         <v>78</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="128" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B128" s="29" t="s">
         <v>83</v>
@@ -2997,10 +2997,10 @@
     </row>
     <row r="129" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B129" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C129" t="s">
         <v>78</v>
@@ -3011,24 +3011,24 @@
     </row>
     <row r="130" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B130" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C130" t="s">
         <v>78</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B131" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C131" t="s">
         <v>78</v>
@@ -3039,35 +3039,35 @@
     </row>
     <row r="132" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B132" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C132" t="s">
         <v>78</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="133" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C133" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D133" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="134" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B134" t="s">
         <v>77</v>
@@ -3081,10 +3081,10 @@
     </row>
     <row r="135" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B135" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C135" t="s">
         <v>78</v>
@@ -3095,24 +3095,24 @@
     </row>
     <row r="136" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C136" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D136" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="137" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C137" s="12" t="s">
         <v>78</v>
@@ -3123,30 +3123,30 @@
     </row>
     <row r="138" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C138" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="139" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B139" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C139" s="39" t="s">
         <v>78</v>
       </c>
       <c r="D139" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="140" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
@@ -3168,7 +3168,7 @@
         <v>126</v>
       </c>
       <c r="B141" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C141" t="s">
         <v>78</v>
@@ -3182,13 +3182,13 @@
         <v>126</v>
       </c>
       <c r="B142" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C142" t="s">
         <v>78</v>
       </c>
       <c r="D142" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="143" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -3196,7 +3196,7 @@
         <v>126</v>
       </c>
       <c r="B143" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C143" t="s">
         <v>78</v>
@@ -3210,13 +3210,13 @@
         <v>126</v>
       </c>
       <c r="B144" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C144" t="s">
         <v>78</v>
       </c>
       <c r="D144" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -3224,13 +3224,13 @@
         <v>126</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C145" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D145" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="146" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -3252,7 +3252,7 @@
         <v>126</v>
       </c>
       <c r="B147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C147" t="s">
         <v>78</v>
@@ -3266,13 +3266,13 @@
         <v>126</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C148" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D148" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="149" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -3280,7 +3280,7 @@
         <v>126</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C149" s="12" t="s">
         <v>78</v>
@@ -3294,13 +3294,13 @@
         <v>126</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C150" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D150" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="151" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -3308,13 +3308,13 @@
         <v>126</v>
       </c>
       <c r="B151" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C151" s="39" t="s">
         <v>78</v>
       </c>
       <c r="D151" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="152" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
@@ -3336,7 +3336,7 @@
         <v>124</v>
       </c>
       <c r="B153" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C153" t="s">
         <v>78</v>
@@ -3350,13 +3350,13 @@
         <v>124</v>
       </c>
       <c r="B154" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C154" t="s">
         <v>78</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="155" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -3364,7 +3364,7 @@
         <v>124</v>
       </c>
       <c r="B155" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C155" t="s">
         <v>78</v>
@@ -3378,13 +3378,13 @@
         <v>124</v>
       </c>
       <c r="B156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C156" t="s">
         <v>78</v>
       </c>
       <c r="D156" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="157" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -3392,13 +3392,13 @@
         <v>124</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C157" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D157" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="158" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -3420,7 +3420,7 @@
         <v>124</v>
       </c>
       <c r="B159" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C159" t="s">
         <v>78</v>
@@ -3434,13 +3434,13 @@
         <v>124</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C160" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D160" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="161" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -3448,7 +3448,7 @@
         <v>124</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C161" s="12" t="s">
         <v>78</v>
@@ -3462,13 +3462,13 @@
         <v>124</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C162" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D162" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="163" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -3476,13 +3476,13 @@
         <v>124</v>
       </c>
       <c r="B163" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C163" s="39" t="s">
         <v>78</v>
       </c>
       <c r="D163" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="164" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
@@ -3504,7 +3504,7 @@
         <v>121</v>
       </c>
       <c r="B165" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C165" t="s">
         <v>78</v>
@@ -3518,13 +3518,13 @@
         <v>121</v>
       </c>
       <c r="B166" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C166" t="s">
         <v>78</v>
       </c>
       <c r="D166" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="167" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -3532,7 +3532,7 @@
         <v>121</v>
       </c>
       <c r="B167" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C167" t="s">
         <v>78</v>
@@ -3546,13 +3546,13 @@
         <v>121</v>
       </c>
       <c r="B168" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C168" t="s">
         <v>78</v>
       </c>
       <c r="D168" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -3560,13 +3560,13 @@
         <v>121</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C169" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D169" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="170" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -3588,7 +3588,7 @@
         <v>121</v>
       </c>
       <c r="B171" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C171" t="s">
         <v>78</v>
@@ -3602,13 +3602,13 @@
         <v>121</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C172" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D172" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -3616,7 +3616,7 @@
         <v>121</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C173" s="12" t="s">
         <v>78</v>
@@ -3630,13 +3630,13 @@
         <v>121</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C174" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D174" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="175" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -3644,13 +3644,13 @@
         <v>121</v>
       </c>
       <c r="B175" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C175" s="39" t="s">
         <v>78</v>
       </c>
       <c r="D175" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
@@ -3672,7 +3672,7 @@
         <v>122</v>
       </c>
       <c r="B177" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C177" t="s">
         <v>78</v>
@@ -3686,13 +3686,13 @@
         <v>122</v>
       </c>
       <c r="B178" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C178" t="s">
         <v>78</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="179" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -3700,7 +3700,7 @@
         <v>122</v>
       </c>
       <c r="B179" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C179" t="s">
         <v>78</v>
@@ -3714,13 +3714,13 @@
         <v>122</v>
       </c>
       <c r="B180" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C180" t="s">
         <v>78</v>
       </c>
       <c r="D180" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="181" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -3728,13 +3728,13 @@
         <v>122</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C181" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D181" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="182" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -3756,13 +3756,13 @@
         <v>122</v>
       </c>
       <c r="B183" t="s">
+        <v>148</v>
+      </c>
+      <c r="C183" t="s">
+        <v>78</v>
+      </c>
+      <c r="D183" s="13" t="s">
         <v>149</v>
-      </c>
-      <c r="C183" t="s">
-        <v>78</v>
-      </c>
-      <c r="D183" s="13" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="184" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -3770,13 +3770,13 @@
         <v>122</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C184" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D184" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="185" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -3784,13 +3784,13 @@
         <v>122</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C185" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D185" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="186" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -3798,13 +3798,13 @@
         <v>122</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C186" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D186" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="187" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -3812,18 +3812,18 @@
         <v>122</v>
       </c>
       <c r="B187" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C187" s="39" t="s">
         <v>78</v>
       </c>
       <c r="D187" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="188" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B188" s="29" t="s">
         <v>83</v>
@@ -3837,10 +3837,10 @@
     </row>
     <row r="189" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B189" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C189" t="s">
         <v>78</v>
@@ -3851,24 +3851,24 @@
     </row>
     <row r="190" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B190" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C190" t="s">
         <v>78</v>
       </c>
       <c r="D190" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="191" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B191" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C191" t="s">
         <v>78</v>
@@ -3879,35 +3879,35 @@
     </row>
     <row r="192" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B192" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C192" t="s">
         <v>78</v>
       </c>
       <c r="D192" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C193" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D193" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B194" t="s">
         <v>77</v>
@@ -3921,10 +3921,10 @@
     </row>
     <row r="195" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B195" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C195" t="s">
         <v>78</v>
@@ -3935,24 +3935,24 @@
     </row>
     <row r="196" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C196" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D196" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="197" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C197" s="12" t="s">
         <v>78</v>
@@ -3963,30 +3963,30 @@
     </row>
     <row r="198" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C198" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D198" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="199" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B199" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C199" s="39" t="s">
         <v>78</v>
       </c>
       <c r="D199" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="200" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
@@ -4008,7 +4008,7 @@
         <v>119</v>
       </c>
       <c r="B201" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C201" t="s">
         <v>78</v>
@@ -4022,13 +4022,13 @@
         <v>119</v>
       </c>
       <c r="B202" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C202" t="s">
         <v>78</v>
       </c>
       <c r="D202" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="203" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -4036,7 +4036,7 @@
         <v>119</v>
       </c>
       <c r="B203" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C203" t="s">
         <v>78</v>
@@ -4050,13 +4050,13 @@
         <v>119</v>
       </c>
       <c r="B204" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C204" t="s">
         <v>78</v>
       </c>
       <c r="D204" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="205" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -4064,13 +4064,13 @@
         <v>119</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C205" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D205" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="206" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -4092,7 +4092,7 @@
         <v>119</v>
       </c>
       <c r="B207" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C207" t="s">
         <v>78</v>
@@ -4106,13 +4106,13 @@
         <v>119</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C208" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D208" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="209" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -4120,7 +4120,7 @@
         <v>119</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C209" s="12" t="s">
         <v>78</v>
@@ -4134,13 +4134,13 @@
         <v>119</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C210" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D210" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="211" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -4148,18 +4148,18 @@
         <v>119</v>
       </c>
       <c r="B211" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C211" s="39" t="s">
         <v>78</v>
       </c>
       <c r="D211" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="212" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B212" s="29" t="s">
         <v>83</v>
@@ -4173,10 +4173,10 @@
     </row>
     <row r="213" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B213" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C213" t="s">
         <v>78</v>
@@ -4187,24 +4187,24 @@
     </row>
     <row r="214" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B214" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C214" t="s">
         <v>78</v>
       </c>
       <c r="D214" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="215" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B215" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C215" t="s">
         <v>78</v>
@@ -4215,35 +4215,35 @@
     </row>
     <row r="216" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B216" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C216" t="s">
         <v>78</v>
       </c>
       <c r="D216" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="217" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C217" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D217" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="218" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B218" t="s">
         <v>77</v>
@@ -4257,10 +4257,10 @@
     </row>
     <row r="219" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C219" s="21" t="s">
         <v>78</v>
@@ -4269,24 +4269,24 @@
     </row>
     <row r="220" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B220" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C220" t="s">
         <v>78</v>
       </c>
       <c r="D220" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="221" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B221" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C221" t="s">
         <v>78</v>
@@ -4297,24 +4297,24 @@
     </row>
     <row r="222" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B222" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C222" t="s">
         <v>78</v>
       </c>
       <c r="D222" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="223" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B223" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C223" s="38" t="s">
         <v>78</v>
@@ -4340,7 +4340,7 @@
         <v>117</v>
       </c>
       <c r="B225" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C225" t="s">
         <v>78</v>
@@ -4354,13 +4354,13 @@
         <v>117</v>
       </c>
       <c r="B226" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C226" t="s">
         <v>78</v>
       </c>
       <c r="D226" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="227" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -4368,7 +4368,7 @@
         <v>117</v>
       </c>
       <c r="B227" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C227" t="s">
         <v>78</v>
@@ -4382,13 +4382,13 @@
         <v>117</v>
       </c>
       <c r="B228" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C228" t="s">
         <v>78</v>
       </c>
       <c r="D228" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="229" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -4396,13 +4396,13 @@
         <v>117</v>
       </c>
       <c r="B229" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C229" s="12" t="s">
         <v>78</v>
       </c>
       <c r="D229" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="230" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -4424,7 +4424,7 @@
         <v>117</v>
       </c>
       <c r="B231" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C231" s="21" t="s">
         <v>78</v>
@@ -4436,13 +4436,13 @@
         <v>117</v>
       </c>
       <c r="B232" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C232" t="s">
         <v>78</v>
       </c>
       <c r="D232" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="233" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -4450,7 +4450,7 @@
         <v>117</v>
       </c>
       <c r="B233" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C233" t="s">
         <v>78</v>
@@ -4464,13 +4464,13 @@
         <v>117</v>
       </c>
       <c r="B234" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C234" t="s">
         <v>78</v>
       </c>
       <c r="D234" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="235" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -4478,7 +4478,7 @@
         <v>117</v>
       </c>
       <c r="B235" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C235" s="38" t="s">
         <v>78</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="236" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A236" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B236" s="29" t="s">
         <v>83</v>
@@ -4501,10 +4501,10 @@
     </row>
     <row r="237" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A237" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B237" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C237" t="s">
         <v>78</v>
@@ -4513,24 +4513,24 @@
     </row>
     <row r="238" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B238" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C238" t="s">
         <v>78</v>
       </c>
       <c r="D238" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="239" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B239" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C239" t="s">
         <v>78</v>
@@ -4541,24 +4541,24 @@
     </row>
     <row r="240" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B240" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C240" t="s">
         <v>78</v>
       </c>
       <c r="D240" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="241" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B241" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C241" s="21" t="s">
         <v>78</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="242" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B242" t="s">
         <v>77</v>
@@ -4581,10 +4581,10 @@
     </row>
     <row r="243" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B243" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C243" t="s">
         <v>78</v>
@@ -4595,58 +4595,58 @@
     </row>
     <row r="244" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B244" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C244" t="s">
         <v>78</v>
       </c>
       <c r="D244" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="245" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B245" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C245" t="s">
         <v>78</v>
       </c>
       <c r="D245" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="246" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B246" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C246" t="s">
         <v>78</v>
       </c>
       <c r="D246" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="247" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B247" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C247" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D247" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="248" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
@@ -4668,7 +4668,7 @@
         <v>116</v>
       </c>
       <c r="B249" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C249" t="s">
         <v>78</v>
@@ -4680,13 +4680,13 @@
         <v>116</v>
       </c>
       <c r="B250" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C250" t="s">
         <v>78</v>
       </c>
       <c r="D250" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="251" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -4694,7 +4694,7 @@
         <v>116</v>
       </c>
       <c r="B251" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C251" t="s">
         <v>78</v>
@@ -4708,13 +4708,13 @@
         <v>116</v>
       </c>
       <c r="B252" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C252" t="s">
         <v>78</v>
       </c>
       <c r="D252" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="253" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -4722,7 +4722,7 @@
         <v>116</v>
       </c>
       <c r="B253" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C253" s="21" t="s">
         <v>78</v>
@@ -4748,7 +4748,7 @@
         <v>116</v>
       </c>
       <c r="B255" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C255" t="s">
         <v>78</v>
@@ -4762,13 +4762,13 @@
         <v>116</v>
       </c>
       <c r="B256" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C256" t="s">
         <v>78</v>
       </c>
       <c r="D256" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="257" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -4776,7 +4776,7 @@
         <v>116</v>
       </c>
       <c r="B257" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C257" t="s">
         <v>78</v>
@@ -4790,13 +4790,13 @@
         <v>116</v>
       </c>
       <c r="B258" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C258" t="s">
         <v>78</v>
       </c>
       <c r="D258" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="259" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -4804,13 +4804,13 @@
         <v>116</v>
       </c>
       <c r="B259" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C259" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D259" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="260" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
@@ -4832,7 +4832,7 @@
         <v>110</v>
       </c>
       <c r="B261" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C261" t="s">
         <v>78</v>
@@ -4846,13 +4846,13 @@
         <v>110</v>
       </c>
       <c r="B262" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C262" t="s">
         <v>78</v>
       </c>
       <c r="D262" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="263" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -4860,13 +4860,13 @@
         <v>110</v>
       </c>
       <c r="B263" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C263" t="s">
         <v>78</v>
       </c>
       <c r="D263" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="264" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -4874,13 +4874,13 @@
         <v>110</v>
       </c>
       <c r="B264" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C264" t="s">
         <v>78</v>
       </c>
       <c r="D264" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="265" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -4888,13 +4888,13 @@
         <v>110</v>
       </c>
       <c r="B265" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C265" t="s">
         <v>78</v>
       </c>
       <c r="D265" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="266" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -4916,13 +4916,13 @@
         <v>110</v>
       </c>
       <c r="B267" t="s">
+        <v>148</v>
+      </c>
+      <c r="C267" t="s">
+        <v>78</v>
+      </c>
+      <c r="D267" s="13" t="s">
         <v>149</v>
-      </c>
-      <c r="C267" t="s">
-        <v>78</v>
-      </c>
-      <c r="D267" s="13" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="268" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -4930,13 +4930,13 @@
         <v>110</v>
       </c>
       <c r="B268" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C268" t="s">
         <v>78</v>
       </c>
       <c r="D268" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="269" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -4944,13 +4944,13 @@
         <v>110</v>
       </c>
       <c r="B269" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C269" t="s">
         <v>78</v>
       </c>
       <c r="D269" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="270" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -4958,13 +4958,13 @@
         <v>110</v>
       </c>
       <c r="B270" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C270" t="s">
         <v>78</v>
       </c>
       <c r="D270" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="271" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -4972,13 +4972,13 @@
         <v>110</v>
       </c>
       <c r="B271" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C271" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D271" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="272" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
@@ -5000,7 +5000,7 @@
         <v>109</v>
       </c>
       <c r="B273" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C273" t="s">
         <v>78</v>
@@ -5014,13 +5014,13 @@
         <v>109</v>
       </c>
       <c r="B274" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C274" t="s">
         <v>78</v>
       </c>
       <c r="D274" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="275" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5028,7 +5028,7 @@
         <v>109</v>
       </c>
       <c r="B275" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C275" t="s">
         <v>78</v>
@@ -5042,13 +5042,13 @@
         <v>109</v>
       </c>
       <c r="B276" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C276" t="s">
         <v>78</v>
       </c>
       <c r="D276" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="277" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5056,13 +5056,13 @@
         <v>109</v>
       </c>
       <c r="B277" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C277" t="s">
         <v>78</v>
       </c>
       <c r="D277" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="278" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5084,7 +5084,7 @@
         <v>109</v>
       </c>
       <c r="B279" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C279" t="s">
         <v>78</v>
@@ -5098,13 +5098,13 @@
         <v>109</v>
       </c>
       <c r="B280" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C280" t="s">
         <v>78</v>
       </c>
       <c r="D280" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="281" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5112,7 +5112,7 @@
         <v>109</v>
       </c>
       <c r="B281" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C281" t="s">
         <v>78</v>
@@ -5126,13 +5126,13 @@
         <v>109</v>
       </c>
       <c r="B282" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C282" t="s">
         <v>78</v>
       </c>
       <c r="D282" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="283" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5140,18 +5140,18 @@
         <v>109</v>
       </c>
       <c r="B283" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C283" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D283" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="284" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A284" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B284" s="29" t="s">
         <v>83</v>
@@ -5165,10 +5165,10 @@
     </row>
     <row r="285" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B285" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C285" t="s">
         <v>78</v>
@@ -5179,24 +5179,24 @@
     </row>
     <row r="286" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B286" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C286" t="s">
         <v>78</v>
       </c>
       <c r="D286" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="287" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B287" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C287" t="s">
         <v>78</v>
@@ -5207,35 +5207,35 @@
     </row>
     <row r="288" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B288" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C288" t="s">
         <v>78</v>
       </c>
       <c r="D288" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="289" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B289" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C289" t="s">
         <v>78</v>
       </c>
       <c r="D289" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="290" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B290" t="s">
         <v>77</v>
@@ -5249,10 +5249,10 @@
     </row>
     <row r="291" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B291" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C291" t="s">
         <v>78</v>
@@ -5263,58 +5263,58 @@
     </row>
     <row r="292" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B292" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C292" t="s">
         <v>78</v>
       </c>
       <c r="D292" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="293" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B293" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C293" t="s">
         <v>78</v>
       </c>
       <c r="D293" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="294" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B294" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C294" t="s">
         <v>78</v>
       </c>
       <c r="D294" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="295" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B295" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C295" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D295" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="296" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
@@ -5336,7 +5336,7 @@
         <v>106</v>
       </c>
       <c r="B297" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C297" t="s">
         <v>78</v>
@@ -5350,13 +5350,13 @@
         <v>106</v>
       </c>
       <c r="B298" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C298" t="s">
         <v>78</v>
       </c>
       <c r="D298" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="299" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5364,13 +5364,13 @@
         <v>106</v>
       </c>
       <c r="B299" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C299" t="s">
         <v>78</v>
       </c>
       <c r="D299" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="300" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5378,13 +5378,13 @@
         <v>106</v>
       </c>
       <c r="B300" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C300" t="s">
         <v>78</v>
       </c>
       <c r="D300" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="301" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5392,13 +5392,13 @@
         <v>106</v>
       </c>
       <c r="B301" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C301" t="s">
         <v>78</v>
       </c>
       <c r="D301" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="302" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5420,7 +5420,7 @@
         <v>106</v>
       </c>
       <c r="B303" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C303" t="s">
         <v>78</v>
@@ -5434,13 +5434,13 @@
         <v>106</v>
       </c>
       <c r="B304" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C304" t="s">
         <v>78</v>
       </c>
       <c r="D304" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="305" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5448,13 +5448,13 @@
         <v>106</v>
       </c>
       <c r="B305" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C305" t="s">
         <v>78</v>
       </c>
       <c r="D305" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="306" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5462,13 +5462,13 @@
         <v>106</v>
       </c>
       <c r="B306" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C306" t="s">
         <v>78</v>
       </c>
       <c r="D306" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="307" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5476,13 +5476,13 @@
         <v>106</v>
       </c>
       <c r="B307" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C307" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D307" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="308" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
@@ -5504,7 +5504,7 @@
         <v>104</v>
       </c>
       <c r="B309" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C309" t="s">
         <v>78</v>
@@ -5518,13 +5518,13 @@
         <v>104</v>
       </c>
       <c r="B310" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C310" t="s">
         <v>78</v>
       </c>
       <c r="D310" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="311" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5532,13 +5532,13 @@
         <v>104</v>
       </c>
       <c r="B311" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C311" t="s">
         <v>78</v>
       </c>
       <c r="D311" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="312" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5546,13 +5546,13 @@
         <v>104</v>
       </c>
       <c r="B312" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C312" t="s">
         <v>78</v>
       </c>
       <c r="D312" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="313" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5560,13 +5560,13 @@
         <v>104</v>
       </c>
       <c r="B313" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C313" t="s">
         <v>78</v>
       </c>
       <c r="D313" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="314" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5588,7 +5588,7 @@
         <v>104</v>
       </c>
       <c r="B315" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C315" t="s">
         <v>78</v>
@@ -5602,13 +5602,13 @@
         <v>104</v>
       </c>
       <c r="B316" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C316" t="s">
         <v>78</v>
       </c>
       <c r="D316" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="317" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5616,13 +5616,13 @@
         <v>104</v>
       </c>
       <c r="B317" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C317" t="s">
         <v>78</v>
       </c>
       <c r="D317" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="318" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5630,13 +5630,13 @@
         <v>104</v>
       </c>
       <c r="B318" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C318" t="s">
         <v>78</v>
       </c>
       <c r="D318" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="319" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5644,13 +5644,13 @@
         <v>104</v>
       </c>
       <c r="B319" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C319" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D319" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="320" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
@@ -5672,7 +5672,7 @@
         <v>102</v>
       </c>
       <c r="B321" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C321" t="s">
         <v>78</v>
@@ -5686,13 +5686,13 @@
         <v>102</v>
       </c>
       <c r="B322" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C322" t="s">
         <v>78</v>
       </c>
       <c r="D322" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="323" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5700,13 +5700,13 @@
         <v>102</v>
       </c>
       <c r="B323" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C323" t="s">
         <v>78</v>
       </c>
       <c r="D323" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="324" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5714,13 +5714,13 @@
         <v>102</v>
       </c>
       <c r="B324" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C324" t="s">
         <v>78</v>
       </c>
       <c r="D324" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="325" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5728,13 +5728,13 @@
         <v>102</v>
       </c>
       <c r="B325" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C325" t="s">
         <v>78</v>
       </c>
       <c r="D325" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="326" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5756,7 +5756,7 @@
         <v>102</v>
       </c>
       <c r="B327" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C327" t="s">
         <v>78</v>
@@ -5770,13 +5770,13 @@
         <v>102</v>
       </c>
       <c r="B328" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C328" t="s">
         <v>78</v>
       </c>
       <c r="D328" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="329" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5784,13 +5784,13 @@
         <v>102</v>
       </c>
       <c r="B329" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C329" t="s">
         <v>78</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="330" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5798,13 +5798,13 @@
         <v>102</v>
       </c>
       <c r="B330" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C330" t="s">
         <v>78</v>
       </c>
       <c r="D330" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="331" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5812,13 +5812,13 @@
         <v>102</v>
       </c>
       <c r="B331" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C331" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D331" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="332" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
@@ -5840,7 +5840,7 @@
         <v>12</v>
       </c>
       <c r="B333" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C333" t="s">
         <v>78</v>
@@ -5854,13 +5854,13 @@
         <v>12</v>
       </c>
       <c r="B334" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C334" t="s">
         <v>78</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="335" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5868,13 +5868,13 @@
         <v>12</v>
       </c>
       <c r="B335" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C335" t="s">
         <v>78</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="336" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5882,13 +5882,13 @@
         <v>12</v>
       </c>
       <c r="B336" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C336" t="s">
         <v>78</v>
       </c>
       <c r="D336" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="337" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5896,13 +5896,13 @@
         <v>12</v>
       </c>
       <c r="B337" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C337" t="s">
         <v>78</v>
       </c>
       <c r="D337" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
@@ -5924,7 +5924,7 @@
         <v>12</v>
       </c>
       <c r="B339" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C339" t="s">
         <v>78</v>
@@ -5938,13 +5938,13 @@
         <v>12</v>
       </c>
       <c r="B340" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C340" t="s">
         <v>78</v>
       </c>
       <c r="D340" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
@@ -5952,13 +5952,13 @@
         <v>12</v>
       </c>
       <c r="B341" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C341" t="s">
         <v>78</v>
       </c>
       <c r="D341" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
@@ -5966,13 +5966,13 @@
         <v>12</v>
       </c>
       <c r="B342" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C342" t="s">
         <v>78</v>
       </c>
       <c r="D342" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
@@ -5980,13 +5980,13 @@
         <v>12</v>
       </c>
       <c r="B343" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C343" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D343" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="344" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
@@ -6008,7 +6008,7 @@
         <v>80</v>
       </c>
       <c r="B345" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C345" t="s">
         <v>78</v>
@@ -6022,13 +6022,13 @@
         <v>80</v>
       </c>
       <c r="B346" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C346" t="s">
         <v>78</v>
       </c>
       <c r="D346" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
@@ -6036,13 +6036,13 @@
         <v>80</v>
       </c>
       <c r="B347" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C347" t="s">
         <v>78</v>
       </c>
       <c r="D347" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
@@ -6050,13 +6050,13 @@
         <v>80</v>
       </c>
       <c r="B348" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C348" t="s">
         <v>78</v>
       </c>
       <c r="D348" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.35">
@@ -6064,13 +6064,13 @@
         <v>80</v>
       </c>
       <c r="B349" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C349" t="s">
         <v>78</v>
       </c>
       <c r="D349" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
@@ -6092,7 +6092,7 @@
         <v>80</v>
       </c>
       <c r="B351" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C351" t="s">
         <v>78</v>
@@ -6106,13 +6106,13 @@
         <v>80</v>
       </c>
       <c r="B352" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C352" t="s">
         <v>78</v>
       </c>
       <c r="D352" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
@@ -6120,13 +6120,13 @@
         <v>80</v>
       </c>
       <c r="B353" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C353" t="s">
         <v>78</v>
       </c>
       <c r="D353" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.35">
@@ -6134,13 +6134,13 @@
         <v>80</v>
       </c>
       <c r="B354" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C354" t="s">
         <v>78</v>
       </c>
       <c r="D354" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
@@ -6148,13 +6148,13 @@
         <v>80</v>
       </c>
       <c r="B355" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C355" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D355" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="356" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
@@ -6176,7 +6176,7 @@
         <v>82</v>
       </c>
       <c r="B357" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C357" t="s">
         <v>78</v>
@@ -6190,13 +6190,13 @@
         <v>82</v>
       </c>
       <c r="B358" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C358" t="s">
         <v>78</v>
       </c>
       <c r="D358" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
@@ -6204,13 +6204,13 @@
         <v>82</v>
       </c>
       <c r="B359" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C359" t="s">
         <v>78</v>
       </c>
       <c r="D359" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.35">
@@ -6218,13 +6218,13 @@
         <v>82</v>
       </c>
       <c r="B360" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C360" t="s">
         <v>78</v>
       </c>
       <c r="D360" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
@@ -6232,13 +6232,13 @@
         <v>82</v>
       </c>
       <c r="B361" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C361" t="s">
         <v>78</v>
       </c>
       <c r="D361" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
@@ -6260,7 +6260,7 @@
         <v>82</v>
       </c>
       <c r="B363" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C363" s="26" t="s">
         <v>78</v>
@@ -6274,13 +6274,13 @@
         <v>82</v>
       </c>
       <c r="B364" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C364" t="s">
         <v>78</v>
       </c>
       <c r="D364" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="365" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -6288,13 +6288,13 @@
         <v>82</v>
       </c>
       <c r="B365" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C365" t="s">
         <v>78</v>
       </c>
       <c r="D365" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="366" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -6302,13 +6302,13 @@
         <v>82</v>
       </c>
       <c r="B366" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C366" t="s">
         <v>78</v>
       </c>
       <c r="D366" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="367" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -6316,13 +6316,13 @@
         <v>82</v>
       </c>
       <c r="B367" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C367" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D367" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="368" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
@@ -6344,7 +6344,7 @@
         <v>84</v>
       </c>
       <c r="B369" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C369" t="s">
         <v>78</v>
@@ -6358,13 +6358,13 @@
         <v>84</v>
       </c>
       <c r="B370" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C370" t="s">
         <v>78</v>
       </c>
       <c r="D370" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
@@ -6372,13 +6372,13 @@
         <v>84</v>
       </c>
       <c r="B371" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C371" t="s">
         <v>78</v>
       </c>
       <c r="D371" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.35">
@@ -6386,13 +6386,13 @@
         <v>84</v>
       </c>
       <c r="B372" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C372" t="s">
         <v>78</v>
       </c>
       <c r="D372" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.35">
@@ -6400,13 +6400,13 @@
         <v>84</v>
       </c>
       <c r="B373" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C373" t="s">
         <v>78</v>
       </c>
       <c r="D373" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
@@ -6428,7 +6428,7 @@
         <v>84</v>
       </c>
       <c r="B375" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C375" s="26" t="s">
         <v>78</v>
@@ -6442,13 +6442,13 @@
         <v>84</v>
       </c>
       <c r="B376" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C376" t="s">
         <v>78</v>
       </c>
       <c r="D376" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="377" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -6456,13 +6456,13 @@
         <v>84</v>
       </c>
       <c r="B377" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C377" t="s">
         <v>78</v>
       </c>
       <c r="D377" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="378" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -6470,13 +6470,13 @@
         <v>84</v>
       </c>
       <c r="B378" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C378" t="s">
         <v>78</v>
       </c>
       <c r="D378" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="379" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -6484,18 +6484,18 @@
         <v>84</v>
       </c>
       <c r="B379" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C379" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D379" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="380" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A380" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B380" s="29" t="s">
         <v>83</v>
@@ -6509,10 +6509,10 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B381" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C381" t="s">
         <v>78</v>
@@ -6523,63 +6523,63 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B382" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C382" t="s">
         <v>78</v>
       </c>
       <c r="D382" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B383" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C383" t="s">
         <v>78</v>
       </c>
       <c r="D383" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B384" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C384" t="s">
         <v>78</v>
       </c>
       <c r="D384" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B385" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C385" t="s">
         <v>78</v>
       </c>
       <c r="D385" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B386" t="s">
         <v>77</v>
@@ -6593,10 +6593,10 @@
     </row>
     <row r="387" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A387" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B387" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C387" s="26" t="s">
         <v>78</v>
@@ -6607,58 +6607,58 @@
     </row>
     <row r="388" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A388" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B388" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C388" t="s">
         <v>78</v>
       </c>
       <c r="D388" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="389" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A389" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B389" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C389" t="s">
         <v>78</v>
       </c>
       <c r="D389" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="390" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A390" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B390" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C390" t="s">
         <v>78</v>
       </c>
       <c r="D390" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="391" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A391" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B391" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C391" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D391" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="392" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
@@ -6680,7 +6680,7 @@
         <v>98</v>
       </c>
       <c r="B393" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C393" t="s">
         <v>78</v>
@@ -6694,13 +6694,13 @@
         <v>98</v>
       </c>
       <c r="B394" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C394" t="s">
         <v>78</v>
       </c>
       <c r="D394" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
@@ -6708,13 +6708,13 @@
         <v>98</v>
       </c>
       <c r="B395" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C395" t="s">
         <v>78</v>
       </c>
       <c r="D395" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.35">
@@ -6722,13 +6722,13 @@
         <v>98</v>
       </c>
       <c r="B396" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C396" t="s">
         <v>78</v>
       </c>
       <c r="D396" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
@@ -6736,13 +6736,13 @@
         <v>98</v>
       </c>
       <c r="B397" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C397" t="s">
         <v>78</v>
       </c>
       <c r="D397" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
@@ -6764,7 +6764,7 @@
         <v>98</v>
       </c>
       <c r="B399" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C399" s="26" t="s">
         <v>78</v>
@@ -6778,13 +6778,13 @@
         <v>98</v>
       </c>
       <c r="B400" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C400" t="s">
         <v>78</v>
       </c>
       <c r="D400" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="401" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -6792,13 +6792,13 @@
         <v>98</v>
       </c>
       <c r="B401" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C401" t="s">
         <v>78</v>
       </c>
       <c r="D401" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="402" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -6806,13 +6806,13 @@
         <v>98</v>
       </c>
       <c r="B402" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C402" t="s">
         <v>78</v>
       </c>
       <c r="D402" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="403" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
@@ -6820,13 +6820,13 @@
         <v>98</v>
       </c>
       <c r="B403" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C403" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D403" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
@@ -6848,7 +6848,7 @@
         <v>99</v>
       </c>
       <c r="B405" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C405" t="s">
         <v>78</v>
@@ -6862,13 +6862,13 @@
         <v>99</v>
       </c>
       <c r="B406" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C406" t="s">
         <v>78</v>
       </c>
       <c r="D406" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
@@ -6876,13 +6876,13 @@
         <v>99</v>
       </c>
       <c r="B407" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C407" t="s">
         <v>78</v>
       </c>
       <c r="D407" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.35">
@@ -6890,13 +6890,13 @@
         <v>99</v>
       </c>
       <c r="B408" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C408" t="s">
         <v>78</v>
       </c>
       <c r="D408" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.35">
@@ -6904,13 +6904,13 @@
         <v>99</v>
       </c>
       <c r="B409" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C409" t="s">
         <v>78</v>
       </c>
       <c r="D409" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
@@ -6924,7 +6924,7 @@
         <v>78</v>
       </c>
       <c r="D410" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.35">
@@ -6932,7 +6932,7 @@
         <v>99</v>
       </c>
       <c r="B411" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C411" t="s">
         <v>78</v>
@@ -6946,13 +6946,13 @@
         <v>99</v>
       </c>
       <c r="B412" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C412" t="s">
         <v>78</v>
       </c>
       <c r="D412" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
@@ -6960,13 +6960,13 @@
         <v>99</v>
       </c>
       <c r="B413" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C413" t="s">
         <v>78</v>
       </c>
       <c r="D413" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.35">
@@ -6974,13 +6974,13 @@
         <v>99</v>
       </c>
       <c r="B414" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C414" t="s">
         <v>78</v>
       </c>
       <c r="D414" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="415" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
@@ -6988,18 +6988,18 @@
         <v>99</v>
       </c>
       <c r="B415" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C415" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D415" s="41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B416" t="s">
         <v>83</v>
@@ -7008,15 +7008,15 @@
         <v>78</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A417" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B417" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C417" t="s">
         <v>78</v>
@@ -7027,63 +7027,63 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A418" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B418" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C418" t="s">
         <v>78</v>
       </c>
       <c r="D418" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B419" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C419" t="s">
         <v>78</v>
       </c>
       <c r="D419" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A420" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B420" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C420" t="s">
         <v>78</v>
       </c>
       <c r="D420" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A421" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B421" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C421" t="s">
         <v>78</v>
       </c>
       <c r="D421" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B422" t="s">
         <v>77</v>
@@ -7092,15 +7092,15 @@
         <v>78</v>
       </c>
       <c r="D422" s="43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A423" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B423" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C423" t="s">
         <v>78</v>
@@ -7111,58 +7111,58 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A424" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B424" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C424" t="s">
         <v>78</v>
       </c>
       <c r="D424" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B425" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C425" t="s">
         <v>78</v>
       </c>
       <c r="D425" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A426" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B426" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C426" t="s">
         <v>78</v>
       </c>
       <c r="D426" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="427" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A427" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B427" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C427" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D427" s="45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/global_attribute_table.xlsx
+++ b/global_attribute_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/cathryn_wynnedwards_utas_edu_au/Documents/Documents/GitHub/saz-data-processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{12F1C9AC-E2A6-4BB2-B17F-7142736324D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBE1B063-DEE3-44FF-BC76-6683B77AB271}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{12F1C9AC-E2A6-4BB2-B17F-7142736324D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC33EC89-22BB-4EFB-BB78-D54900542A31}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AB62E28C-C197-1443-8F5C-081BEC806BA6}"/>
   </bookViews>
@@ -111,12 +111,6 @@
   </si>
   <si>
     <t>SAZ</t>
-  </si>
-  <si>
-    <t>Tom Trull</t>
-  </si>
-  <si>
-    <t>tom.trull@csiro.au</t>
   </si>
   <si>
     <t>Integrated Marine Observing System (IMOS)</t>
@@ -696,6 +690,12 @@
   </si>
   <si>
     <t>Particle flux QC report: http://www.imos.org.au http://dx.doi.org/10.26198/5dfad21358a8d; SOTS annual reports: https://catalogue-imos.aodn.org.au/geonetwork/srv/eng/catalog.search#/metadata/afc166ce-6b34-44d9-b64c-8bb10fd43a07</t>
+  </si>
+  <si>
+    <t>Elizabeth Shadwick</t>
+  </si>
+  <si>
+    <t>Elizabeth.Shadwick@csiro.au</t>
   </si>
 </sst>
 </file>
@@ -824,7 +824,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -903,6 +903,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1222,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53348BFB-8ECF-4745-825D-D0BA3C53E339}">
   <dimension ref="A1:D427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1238,27 +1241,27 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -1266,27 +1269,27 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>2</v>
@@ -1294,13 +1297,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>3</v>
@@ -1308,13 +1311,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>4</v>
@@ -1322,13 +1325,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
@@ -1336,27 +1339,27 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>6</v>
@@ -1364,13 +1367,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>7</v>
@@ -1378,55 +1381,55 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>8</v>
@@ -1434,13 +1437,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>9</v>
@@ -1448,13 +1451,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>10</v>
@@ -1462,13 +1465,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>11</v>
@@ -1476,41 +1479,41 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>13</v>
@@ -1518,13 +1521,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>14</v>
@@ -1532,13 +1535,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>15</v>
@@ -1546,13 +1549,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>16</v>
@@ -1560,13 +1563,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>17</v>
@@ -1574,13 +1577,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>18</v>
@@ -1588,13 +1591,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>19</v>
@@ -1602,13 +1605,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>20</v>
@@ -1616,13 +1619,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>21</v>
@@ -1630,27 +1633,27 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>22</v>
@@ -1658,13 +1661,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>23</v>
@@ -1672,13 +1675,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>24</v>
@@ -1686,13 +1689,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>1</v>
@@ -1700,13 +1703,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>25</v>
@@ -1714,111 +1717,111 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>27</v>
+        <v>76</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>0</v>
@@ -1826,280 +1829,280 @@
     </row>
     <row r="43" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="B45" s="21" t="s">
-        <v>147</v>
-      </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D45" s="22"/>
     </row>
     <row r="46" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D61" s="13"/>
     </row>
     <row r="62" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C63" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D63" s="23">
         <v>36197</v>
@@ -2107,163 +2110,163 @@
     </row>
     <row r="64" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D69" s="22"/>
     </row>
     <row r="70" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D73" s="37"/>
     </row>
     <row r="74" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C75" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D75" s="23">
         <v>36197</v>
@@ -2271,83 +2274,83 @@
     </row>
     <row r="76" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B79" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C79" s="39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="40" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B81" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C81" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D81" s="18">
         <v>36354</v>
@@ -2355,163 +2358,163 @@
     </row>
     <row r="82" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B86" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C86" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D87" s="22"/>
     </row>
     <row r="88" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D89" s="36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D91" s="13"/>
     </row>
     <row r="92" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D92" s="35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B93" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C93" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D93" s="18">
         <v>36354</v>
@@ -2519,243 +2522,243 @@
     </row>
     <row r="94" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B98" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C98" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D99" s="22"/>
     </row>
     <row r="100" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="101" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D101" s="36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D103" s="22"/>
     </row>
     <row r="104" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D104" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C105" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D105" s="22"/>
     </row>
     <row r="106" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D107" s="36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="109" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D109" s="13"/>
     </row>
     <row r="110" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B110" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C110" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B111" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C111" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D111" s="18">
         <v>37193</v>
@@ -2763,163 +2766,163 @@
     </row>
     <row r="112" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="113" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D113" s="36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="115" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B115" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C115" s="39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="116" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="40" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B116" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C116" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D116" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C117" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D117" s="22"/>
     </row>
     <row r="118" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="119" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D119" s="36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="121" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D121" s="22"/>
     </row>
     <row r="122" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C122" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C123" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D123" s="18">
         <v>37193</v>
@@ -2927,83 +2930,83 @@
     </row>
     <row r="124" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D125" s="36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="127" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B127" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C127" s="39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="128" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="40" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C128" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="129" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B129" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C129" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D129" s="18">
         <v>37193</v>
@@ -3011,83 +3014,83 @@
     </row>
     <row r="130" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B130" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C130" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="131" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B131" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C131" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D131" s="36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="132" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C132" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="133" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D133" s="23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="134" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B134" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C134" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C135" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D135" s="18">
         <v>37542</v>
@@ -3095,83 +3098,83 @@
     </row>
     <row r="136" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D136" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="137" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D137" s="36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="138" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="139" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B139" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C139" s="39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D139" s="23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="140" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B140" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C140" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="141" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B141" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C141" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D141" s="18">
         <v>37193</v>
@@ -3179,83 +3182,83 @@
     </row>
     <row r="142" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B142" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C142" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D142" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="143" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B143" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C143" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D143" s="36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="144" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B144" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C144" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D144" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="145" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D145" s="23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="146" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B146" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C146" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="147" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B147" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D147" s="18">
         <v>37542</v>
@@ -3263,83 +3266,83 @@
     </row>
     <row r="148" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D148" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="149" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D149" s="36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D150" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="151" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B151" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C151" s="39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D151" s="23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="152" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B152" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C152" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D152" s="35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="153" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B153" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C153" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D153" s="18">
         <v>37193</v>
@@ -3347,83 +3350,83 @@
     </row>
     <row r="154" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C154" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="155" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B155" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C155" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D155" s="36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="156" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B156" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C156" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D156" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="157" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D157" s="23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="158" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B158" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C158" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D158" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="159" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B159" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C159" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D159" s="18">
         <v>37542</v>
@@ -3431,83 +3434,83 @@
     </row>
     <row r="160" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D160" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="161" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D161" s="36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="162" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D162" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="163" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B163" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C163" s="39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D163" s="23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="164" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B164" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C164" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D164" s="35" t="s">
         <v>121</v>
-      </c>
-      <c r="B164" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C164" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D164" s="35" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="165" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A165" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B165" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C165" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D165" s="18">
         <v>37542</v>
@@ -3515,83 +3518,83 @@
     </row>
     <row r="166" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B166" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C166" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D166" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B167" t="s">
+        <v>153</v>
+      </c>
+      <c r="C167" t="s">
+        <v>76</v>
+      </c>
+      <c r="D167" s="36" t="s">
         <v>121</v>
-      </c>
-      <c r="B167" t="s">
-        <v>155</v>
-      </c>
-      <c r="C167" t="s">
-        <v>78</v>
-      </c>
-      <c r="D167" s="36" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="168" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B168" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C168" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D168" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D169" s="23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="170" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B170" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C170" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D170" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="171" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B171" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C171" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D171" s="23">
         <v>37872</v>
@@ -3599,83 +3602,83 @@
     </row>
     <row r="172" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D172" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="173" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D173" s="36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="174" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A174" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D174" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="175" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B175" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C175" s="39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D175" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B176" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C176" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D176" s="35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="177" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B177" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C177" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D177" s="18">
         <v>37542</v>
@@ -3683,167 +3686,167 @@
     </row>
     <row r="178" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A178" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B178" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C178" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="179" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A179" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B179" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C179" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D179" s="36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="180" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A180" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B180" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C180" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D180" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="181" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D181" s="23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="182" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B182" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C182" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D182" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="183" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A183" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B183" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C183" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D183" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="184" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D184" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="185" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A185" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D185" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="186" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D186" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="187" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B187" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C187" s="39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D187" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="188" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B188" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C188" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D188" s="35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="189" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B189" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C189" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D189" s="23">
         <v>37872</v>
@@ -3851,83 +3854,83 @@
     </row>
     <row r="190" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B190" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C190" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D190" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="191" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B191" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C191" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D191" s="36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="192" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B192" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C192" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D192" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D193" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="194" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B194" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C194" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D194" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="195" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B195" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C195" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D195" s="23">
         <v>38261</v>
@@ -3935,83 +3938,83 @@
     </row>
     <row r="196" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D196" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="197" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D197" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="198" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D198" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="199" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B199" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C199" s="39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D199" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="200" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B200" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C200" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D200" s="35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="201" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B201" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C201" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D201" s="23">
         <v>37872</v>
@@ -4019,83 +4022,83 @@
     </row>
     <row r="202" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B202" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C202" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D202" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="203" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B203" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C203" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D203" s="36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="204" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B204" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C204" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D204" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="205" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D205" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="206" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B206" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C206" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D206" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="207" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B207" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C207" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D207" s="23">
         <v>38261</v>
@@ -4103,83 +4106,83 @@
     </row>
     <row r="208" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D208" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="209" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D209" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="210" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D210" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="211" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B211" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C211" s="39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D211" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="212" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B212" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C212" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D212" s="35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="213" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B213" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C213" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D213" s="23">
         <v>38261</v>
@@ -4187,163 +4190,163 @@
     </row>
     <row r="214" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B214" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C214" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D214" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="215" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B215" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C215" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D215" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="216" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B216" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C216" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D216" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="217" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D217" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="218" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B218" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C218" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D218" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="219" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C219" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D219" s="22"/>
     </row>
     <row r="220" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B220" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C220" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D220" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="221" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B221" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C221" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D221" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="222" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B222" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C222" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D222" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="223" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B223" s="38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C223" s="38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D223" s="13"/>
     </row>
     <row r="224" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A224" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B224" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C224" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D224" s="35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="225" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B225" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C225" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D225" s="23">
         <v>38261</v>
@@ -4351,243 +4354,243 @@
     </row>
     <row r="226" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B226" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C226" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D226" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="227" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B227" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C227" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D227" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="228" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B228" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C228" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D228" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="229" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A229" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B229" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D229" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="230" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B230" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C230" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D230" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="231" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B231" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C231" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D231" s="22"/>
     </row>
     <row r="232" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B232" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C232" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D232" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="233" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B233" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C233" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D233" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="234" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B234" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C234" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D234" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="235" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A235" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B235" s="38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C235" s="38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D235" s="22"/>
     </row>
     <row r="236" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A236" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B236" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C236" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D236" s="35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="237" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A237" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B237" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C237" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D237" s="22"/>
     </row>
     <row r="238" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B238" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C238" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D238" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="239" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B239" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C239" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D239" s="36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="240" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B240" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C240" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D240" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="241" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B241" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C241" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D241" s="22"/>
     </row>
     <row r="242" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B242" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C242" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D242" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="243" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B243" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C243" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D243" s="18">
         <v>38990</v>
@@ -4595,163 +4598,163 @@
     </row>
     <row r="244" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B244" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C244" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D244" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="245" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B245" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C245" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D245" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="246" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B246" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C246" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D246" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="247" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B247" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C247" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D247" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="248" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A248" s="29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B248" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C248" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D248" s="35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="249" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A249" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B249" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C249" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D249" s="22"/>
     </row>
     <row r="250" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B250" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C250" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D250" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="251" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B251" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C251" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D251" s="36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="252" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B252" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C252" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D252" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="253" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A253" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B253" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C253" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D253" s="37"/>
     </row>
     <row r="254" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B254" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C254" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D254" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="255" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B255" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C255" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D255" s="18">
         <v>38990</v>
@@ -4759,83 +4762,83 @@
     </row>
     <row r="256" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B256" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C256" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D256" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="257" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B257" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C257" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D257" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="258" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B258" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C258" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D258" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="259" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B259" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C259" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D259" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="260" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A260" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B260" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C260" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D260" s="35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="261" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B261" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C261" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D261" s="18">
         <v>38990</v>
@@ -4843,167 +4846,167 @@
     </row>
     <row r="262" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B262" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C262" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D262" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="263" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B263" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C263" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D263" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="264" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B264" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C264" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D264" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="265" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B265" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C265" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D265" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="266" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B266" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C266" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D266" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="267" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B267" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C267" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D267" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="268" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B268" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C268" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D268" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="269" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B269" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C269" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D269" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="270" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B270" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C270" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D270" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="271" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B271" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C271" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D271" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="272" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A272" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B272" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C272" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D272" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="273" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B273" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C273" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D273" s="18">
         <v>38990</v>
@@ -5011,83 +5014,83 @@
     </row>
     <row r="274" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B274" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C274" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D274" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="275" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B275" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C275" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D275" s="36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="276" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B276" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C276" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D276" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="277" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B277" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C277" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D277" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="278" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B278" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C278" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D278" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="279" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B279" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C279" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D279" s="18">
         <v>39432</v>
@@ -5095,83 +5098,83 @@
     </row>
     <row r="280" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B280" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C280" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D280" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="281" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B281" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C281" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D281" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="282" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B282" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C282" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D282" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="283" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B283" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C283" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D283" s="23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="284" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A284" s="29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B284" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C284" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D284" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="285" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B285" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C285" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D285" s="23">
         <v>39724</v>
@@ -5179,83 +5182,83 @@
     </row>
     <row r="286" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B286" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C286" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D286" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="287" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B287" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C287" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D287" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="288" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B288" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C288" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D288" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="289" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B289" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C289" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D289" s="23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="290" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B290" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C290" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D290" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="291" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B291" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C291" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D291" s="19">
         <v>40078</v>
@@ -5263,83 +5266,83 @@
     </row>
     <row r="292" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B292" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C292" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D292" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="293" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B293" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C293" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D293" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="294" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B294" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C294" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D294" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="295" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B295" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C295" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D295" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="296" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A296" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B296" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C296" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D296" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="297" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B297" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C297" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D297" s="19">
         <v>40078</v>
@@ -5347,83 +5350,83 @@
     </row>
     <row r="298" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B298" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C298" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D298" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="299" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B299" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C299" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D299" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="300" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B300" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C300" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D300" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="301" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B301" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C301" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D301" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="302" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B302" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C302" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D302" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="303" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B303" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C303" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D303" s="23">
         <v>40428</v>
@@ -5431,83 +5434,83 @@
     </row>
     <row r="304" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B304" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C304" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D304" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="305" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B305" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C305" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D305" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="306" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B306" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C306" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D306" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="307" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B307" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C307" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D307" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="308" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A308" s="29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B308" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C308" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D308" s="34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="309" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B309" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C309" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D309" s="23">
         <v>40428</v>
@@ -5515,83 +5518,83 @@
     </row>
     <row r="310" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B310" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C310" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D310" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="311" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B311" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C311" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D311" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="312" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B312" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C312" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D312" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="313" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B313" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C313" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D313" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="314" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B314" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C314" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D314" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="315" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B315" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C315" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D315" s="23">
         <v>40756</v>
@@ -5599,83 +5602,83 @@
     </row>
     <row r="316" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B316" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C316" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D316" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="317" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B317" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C317" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D317" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="318" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B318" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C318" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D318" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="319" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B319" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C319" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D319" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="320" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A320" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B320" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C320" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D320" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="321" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B321" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C321" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D321" s="23">
         <v>40756</v>
@@ -5683,83 +5686,83 @@
     </row>
     <row r="322" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B322" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C322" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D322" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="323" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B323" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C323" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D323" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="324" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B324" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C324" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D324" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="325" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B325" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C325" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D325" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="326" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B326" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C326" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D326" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="327" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B327" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C327" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D327" s="17">
         <v>41102</v>
@@ -5767,58 +5770,58 @@
     </row>
     <row r="328" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B328" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C328" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D328" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="329" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B329" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C329" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="330" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B330" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C330" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D330" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="331" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B331" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C331" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D331" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="332" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
@@ -5826,13 +5829,13 @@
         <v>12</v>
       </c>
       <c r="B332" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C332" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D332" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="333" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5840,10 +5843,10 @@
         <v>12</v>
       </c>
       <c r="B333" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C333" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D333" s="17">
         <v>41102</v>
@@ -5854,13 +5857,13 @@
         <v>12</v>
       </c>
       <c r="B334" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C334" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="335" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5868,13 +5871,13 @@
         <v>12</v>
       </c>
       <c r="B335" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C335" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="336" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5882,13 +5885,13 @@
         <v>12</v>
       </c>
       <c r="B336" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C336" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D336" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="337" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -5896,13 +5899,13 @@
         <v>12</v>
       </c>
       <c r="B337" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C337" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D337" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
@@ -5910,13 +5913,13 @@
         <v>12</v>
       </c>
       <c r="B338" t="s">
+        <v>75</v>
+      </c>
+      <c r="C338" t="s">
+        <v>76</v>
+      </c>
+      <c r="D338" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="C338" t="s">
-        <v>78</v>
-      </c>
-      <c r="D338" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.35">
@@ -5924,10 +5927,10 @@
         <v>12</v>
       </c>
       <c r="B339" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C339" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D339" s="23">
         <v>41553</v>
@@ -5938,13 +5941,13 @@
         <v>12</v>
       </c>
       <c r="B340" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C340" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D340" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
@@ -5952,13 +5955,13 @@
         <v>12</v>
       </c>
       <c r="B341" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C341" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D341" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
@@ -5966,13 +5969,13 @@
         <v>12</v>
       </c>
       <c r="B342" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C342" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D342" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
@@ -5980,38 +5983,38 @@
         <v>12</v>
       </c>
       <c r="B343" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C343" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D343" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="344" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A344" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B344" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C344" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D344" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B345" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C345" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D345" s="16">
         <v>41392</v>
@@ -6019,83 +6022,83 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B346" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C346" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D346" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B347" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C347" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D347" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B348" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C348" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D348" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B349" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C349" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D349" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B350" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C350" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B351" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C351" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D351" s="15">
         <v>42084</v>
@@ -6103,83 +6106,83 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B352" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C352" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D352" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B353" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C353" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D353" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B354" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C354" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D354" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B355" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C355" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D355" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="356" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A356" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B356" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C356" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D356" s="30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B357" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C357" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D357" s="15">
         <v>42084</v>
@@ -6187,83 +6190,83 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B358" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C358" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D358" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B359" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C359" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D359" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B360" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C360" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D360" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B361" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C361" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D361" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B362" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C362" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="363" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B363" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C363" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D363" s="27">
         <v>42443</v>
@@ -6271,83 +6274,83 @@
     </row>
     <row r="364" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B364" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C364" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D364" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="365" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B365" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C365" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D365" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="366" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B366" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C366" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D366" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="367" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B367" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C367" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D367" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="368" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A368" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B368" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C368" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D368" s="30" t="s">
         <v>83</v>
-      </c>
-      <c r="C368" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D368" s="30" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B369" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C369" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D369" s="15">
         <v>42443</v>
@@ -6355,83 +6358,83 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B370" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C370" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D370" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B371" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C371" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D371" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B372" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C372" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D372" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B373" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C373" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D373" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
+        <v>82</v>
+      </c>
+      <c r="B374" t="s">
+        <v>75</v>
+      </c>
+      <c r="C374" t="s">
+        <v>76</v>
+      </c>
+      <c r="D374" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B374" t="s">
-        <v>77</v>
-      </c>
-      <c r="C374" t="s">
-        <v>78</v>
-      </c>
-      <c r="D374" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="375" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B375" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C375" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D375" s="27">
         <v>42811</v>
@@ -6439,83 +6442,83 @@
     </row>
     <row r="376" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B376" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C376" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D376" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="377" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B377" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C377" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D377" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="378" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B378" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C378" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D378" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="379" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B379" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C379" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D379" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="380" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A380" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B380" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C380" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D380" s="30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B381" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C381" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D381" s="15">
         <v>42811</v>
@@ -6523,83 +6526,83 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B382" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C382" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D382" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B383" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C383" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D383" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B384" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C384" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D384" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B385" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C385" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D385" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B386" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C386" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D386" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="387" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A387" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B387" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C387" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D387" s="28">
         <v>43162</v>
@@ -6607,83 +6610,83 @@
     </row>
     <row r="388" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A388" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B388" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C388" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D388" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="389" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A389" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B389" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C389" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D389" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="390" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A390" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B390" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C390" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D390" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="391" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A391" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B391" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C391" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D391" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="392" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A392" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B392" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C392" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D392" s="30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B393" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C393" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D393" s="23">
         <v>43162</v>
@@ -6691,83 +6694,83 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B394" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C394" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D394" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B395" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C395" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D395" s="23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B396" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C396" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D396" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B397" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C397" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D397" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B398" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C398" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D398" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="399" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B399" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C399" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D399" s="27">
         <v>43538</v>
@@ -6775,83 +6778,83 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B400" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C400" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D400" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="401" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B401" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C401" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D401" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="402" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B402" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C402" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D402" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="403" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A403" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B403" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C403" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D403" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B404" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C404" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D404" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B405" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C405" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D405" s="15">
         <v>43538</v>
@@ -6859,83 +6862,83 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B406" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C406" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D406" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B407" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C407" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D407" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B408" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C408" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D408" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B409" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C409" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D409" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B410" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C410" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D410" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B411" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C411" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D411" s="15">
         <v>44068</v>
@@ -6943,83 +6946,83 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B412" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C412" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D412" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B413" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C413" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D413" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B414" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C414" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D414" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="415" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A415" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B415" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C415" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D415" s="41" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" s="42" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B416" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C416" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A417" s="42" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B417" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C417" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D417" s="15">
         <v>44068</v>
@@ -7027,83 +7030,83 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A418" s="42" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B418" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C418" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D418" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" s="42" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B419" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C419" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D419" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A420" s="42" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B420" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C420" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D420" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A421" s="42" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B421" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C421" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D421" s="44" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" s="42" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B422" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C422" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D422" s="43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A423" s="42" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B423" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C423" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D423" s="15">
         <v>44300</v>
@@ -7111,58 +7114,58 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A424" s="42" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B424" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C424" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D424" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="B425" t="s">
+        <v>149</v>
+      </c>
+      <c r="C425" t="s">
+        <v>76</v>
+      </c>
+      <c r="D425" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="B425" t="s">
-        <v>151</v>
-      </c>
-      <c r="C425" t="s">
-        <v>78</v>
-      </c>
-      <c r="D425" s="4" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A426" s="42" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B426" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C426" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D426" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="427" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A427" s="39" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B427" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C427" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D427" s="45" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -7170,8 +7173,9 @@
     <hyperlink ref="D404" r:id="rId1" xr:uid="{A219C8BE-C520-41E0-ADE3-8E898CB44D2A}"/>
     <hyperlink ref="D344" r:id="rId2" xr:uid="{1FE2022A-31F1-4A60-AF77-8990993E519E}"/>
     <hyperlink ref="D74" r:id="rId3" xr:uid="{E8B8B051-E37F-43C6-83F5-FC76F1018BC9}"/>
+    <hyperlink ref="D36" r:id="rId4" xr:uid="{5AB949CB-B519-44A2-BD01-13363BBF535B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/global_attribute_table.xlsx
+++ b/global_attribute_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/cathryn_wynnedwards_utas_edu_au/Documents/Documents/GitHub/saz-data-processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{12F1C9AC-E2A6-4BB2-B17F-7142736324D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC33EC89-22BB-4EFB-BB78-D54900542A31}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{12F1C9AC-E2A6-4BB2-B17F-7142736324D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB11A438-314B-48B2-A0BD-C8270E2F8913}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AB62E28C-C197-1443-8F5C-081BEC806BA6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{AB62E28C-C197-1443-8F5C-081BEC806BA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="211">
   <si>
     <t>Oceanographic and meteorological data from the Southern Ocean Time Series observatory in the Southern Ocean southwest of Tasmania.</t>
   </si>
@@ -696,6 +696,18 @@
   </si>
   <si>
     <t>Elizabeth.Shadwick@csiro.au</t>
+  </si>
+  <si>
+    <t>SAZ47-23-2021</t>
+  </si>
+  <si>
+    <t>https://www.cmar.csiro.au/data/trawler/survey_details.cfm?survey=IN2022_V03</t>
+  </si>
+  <si>
+    <t>IN2022_V03</t>
+  </si>
+  <si>
+    <t>096U20220504</t>
   </si>
 </sst>
 </file>
@@ -824,7 +836,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -898,7 +910,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1223,23 +1234,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53348BFB-8ECF-4745-825D-D0BA3C53E339}">
-  <dimension ref="A1:D427"/>
+  <dimension ref="A1:D439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A398" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="D440" sqref="D440"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.58203125" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.625" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
     <col min="4" max="4" width="82" style="4" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="29.58203125" customWidth="1"/>
+    <col min="5" max="5" width="38.625" customWidth="1"/>
+    <col min="6" max="6" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
@@ -1253,7 +1264,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>72</v>
       </c>
@@ -1267,7 +1278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>72</v>
       </c>
@@ -1281,7 +1292,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>72</v>
       </c>
@@ -1295,7 +1306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>72</v>
       </c>
@@ -1309,7 +1320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>72</v>
       </c>
@@ -1323,7 +1334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>72</v>
       </c>
@@ -1337,7 +1348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>72</v>
       </c>
@@ -1351,7 +1362,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>72</v>
       </c>
@@ -1365,7 +1376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>72</v>
       </c>
@@ -1379,7 +1390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>72</v>
       </c>
@@ -1393,7 +1404,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>72</v>
       </c>
@@ -1407,7 +1418,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>72</v>
       </c>
@@ -1421,7 +1432,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>72</v>
       </c>
@@ -1435,7 +1446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>72</v>
       </c>
@@ -1449,7 +1460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>72</v>
       </c>
@@ -1463,7 +1474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>72</v>
       </c>
@@ -1477,7 +1488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>72</v>
       </c>
@@ -1491,7 +1502,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>72</v>
       </c>
@@ -1505,7 +1516,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>72</v>
       </c>
@@ -1519,7 +1530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>72</v>
       </c>
@@ -1533,7 +1544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>72</v>
       </c>
@@ -1547,7 +1558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>72</v>
       </c>
@@ -1561,7 +1572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -1575,7 +1586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>72</v>
       </c>
@@ -1589,7 +1600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
@@ -1603,7 +1614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>72</v>
       </c>
@@ -1617,7 +1628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>72</v>
       </c>
@@ -1631,7 +1642,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>72</v>
       </c>
@@ -1645,7 +1656,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
@@ -1659,7 +1670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>72</v>
       </c>
@@ -1673,7 +1684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>72</v>
       </c>
@@ -1687,7 +1698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>72</v>
       </c>
@@ -1701,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -1715,7 +1726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>72</v>
       </c>
@@ -1729,7 +1740,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -1739,11 +1750,11 @@
       <c r="C36" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="45" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
@@ -1757,7 +1768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>72</v>
       </c>
@@ -1771,7 +1782,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>72</v>
       </c>
@@ -1785,7 +1796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>72</v>
       </c>
@@ -1799,7 +1810,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>72</v>
       </c>
@@ -1813,7 +1824,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>72</v>
       </c>
@@ -1827,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>72</v>
       </c>
@@ -1841,7 +1852,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>143</v>
       </c>
@@ -1855,7 +1866,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>143</v>
       </c>
@@ -1867,7 +1878,7 @@
       </c>
       <c r="D45" s="22"/>
     </row>
-    <row r="46" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>143</v>
       </c>
@@ -1881,7 +1892,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>143</v>
       </c>
@@ -1895,7 +1906,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>143</v>
       </c>
@@ -1909,7 +1920,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>143</v>
       </c>
@@ -1921,7 +1932,7 @@
       </c>
       <c r="D49" s="13"/>
     </row>
-    <row r="50" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>143</v>
       </c>
@@ -1935,7 +1946,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>143</v>
       </c>
@@ -1946,7 +1957,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>143</v>
       </c>
@@ -1960,7 +1971,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>143</v>
       </c>
@@ -1974,7 +1985,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>143</v>
       </c>
@@ -1988,7 +1999,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>143</v>
       </c>
@@ -2000,7 +2011,7 @@
       </c>
       <c r="D55" s="22"/>
     </row>
-    <row r="56" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="40" t="s">
         <v>141</v>
       </c>
@@ -2014,7 +2025,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>141</v>
       </c>
@@ -2026,7 +2037,7 @@
       </c>
       <c r="D57" s="22"/>
     </row>
-    <row r="58" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>141</v>
       </c>
@@ -2040,7 +2051,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>141</v>
       </c>
@@ -2054,7 +2065,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>141</v>
       </c>
@@ -2068,7 +2079,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>141</v>
       </c>
@@ -2080,7 +2091,7 @@
       </c>
       <c r="D61" s="13"/>
     </row>
-    <row r="62" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>141</v>
       </c>
@@ -2094,7 +2105,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>141</v>
       </c>
@@ -2108,7 +2119,7 @@
         <v>36197</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>141</v>
       </c>
@@ -2122,7 +2133,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>141</v>
       </c>
@@ -2136,7 +2147,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>141</v>
       </c>
@@ -2150,7 +2161,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>141</v>
       </c>
@@ -2164,7 +2175,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="40" t="s">
         <v>130</v>
       </c>
@@ -2178,7 +2189,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
         <v>130</v>
       </c>
@@ -2190,7 +2201,7 @@
       </c>
       <c r="D69" s="22"/>
     </row>
-    <row r="70" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>130</v>
       </c>
@@ -2204,7 +2215,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>130</v>
       </c>
@@ -2218,7 +2229,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>130</v>
       </c>
@@ -2232,7 +2243,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
         <v>130</v>
       </c>
@@ -2244,7 +2255,7 @@
       </c>
       <c r="D73" s="37"/>
     </row>
-    <row r="74" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>130</v>
       </c>
@@ -2258,7 +2269,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>130</v>
       </c>
@@ -2272,7 +2283,7 @@
         <v>36197</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>130</v>
       </c>
@@ -2286,7 +2297,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>130</v>
       </c>
@@ -2300,7 +2311,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>130</v>
       </c>
@@ -2314,7 +2325,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>130</v>
       </c>
@@ -2328,7 +2339,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="40" t="s">
         <v>140</v>
       </c>
@@ -2342,7 +2353,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>140</v>
       </c>
@@ -2356,7 +2367,7 @@
         <v>36354</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>140</v>
       </c>
@@ -2370,7 +2381,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>140</v>
       </c>
@@ -2384,7 +2395,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>140</v>
       </c>
@@ -2398,7 +2409,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>140</v>
       </c>
@@ -2412,7 +2423,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>140</v>
       </c>
@@ -2426,7 +2437,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>140</v>
       </c>
@@ -2438,7 +2449,7 @@
       </c>
       <c r="D87" s="22"/>
     </row>
-    <row r="88" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>140</v>
       </c>
@@ -2452,7 +2463,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>140</v>
       </c>
@@ -2466,7 +2477,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>140</v>
       </c>
@@ -2480,7 +2491,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>140</v>
       </c>
@@ -2492,7 +2503,7 @@
       </c>
       <c r="D91" s="13"/>
     </row>
-    <row r="92" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="40" t="s">
         <v>128</v>
       </c>
@@ -2506,7 +2517,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>128</v>
       </c>
@@ -2520,7 +2531,7 @@
         <v>36354</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>128</v>
       </c>
@@ -2534,7 +2545,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>128</v>
       </c>
@@ -2548,7 +2559,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>128</v>
       </c>
@@ -2562,7 +2573,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>128</v>
       </c>
@@ -2576,7 +2587,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>128</v>
       </c>
@@ -2590,7 +2601,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>128</v>
       </c>
@@ -2602,7 +2613,7 @@
       </c>
       <c r="D99" s="22"/>
     </row>
-    <row r="100" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>128</v>
       </c>
@@ -2616,7 +2627,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>128</v>
       </c>
@@ -2630,7 +2641,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>128</v>
       </c>
@@ -2644,7 +2655,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>128</v>
       </c>
@@ -2656,7 +2667,7 @@
       </c>
       <c r="D103" s="22"/>
     </row>
-    <row r="104" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="40" t="s">
         <v>139</v>
       </c>
@@ -2670,7 +2681,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="20" t="s">
         <v>139</v>
       </c>
@@ -2682,7 +2693,7 @@
       </c>
       <c r="D105" s="22"/>
     </row>
-    <row r="106" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>139</v>
       </c>
@@ -2696,7 +2707,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>139</v>
       </c>
@@ -2710,7 +2721,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>139</v>
       </c>
@@ -2724,7 +2735,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>139</v>
       </c>
@@ -2736,7 +2747,7 @@
       </c>
       <c r="D109" s="13"/>
     </row>
-    <row r="110" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>139</v>
       </c>
@@ -2750,7 +2761,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>139</v>
       </c>
@@ -2764,7 +2775,7 @@
         <v>37193</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>139</v>
       </c>
@@ -2778,7 +2789,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="113" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>139</v>
       </c>
@@ -2792,7 +2803,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="114" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>139</v>
       </c>
@@ -2806,7 +2817,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>139</v>
       </c>
@@ -2820,7 +2831,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="40" t="s">
         <v>125</v>
       </c>
@@ -2834,7 +2845,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="20" t="s">
         <v>125</v>
       </c>
@@ -2846,7 +2857,7 @@
       </c>
       <c r="D117" s="22"/>
     </row>
-    <row r="118" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>125</v>
       </c>
@@ -2860,7 +2871,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="119" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>125</v>
       </c>
@@ -2874,7 +2885,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="120" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>125</v>
       </c>
@@ -2888,7 +2899,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="121" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="20" t="s">
         <v>125</v>
       </c>
@@ -2900,7 +2911,7 @@
       </c>
       <c r="D121" s="22"/>
     </row>
-    <row r="122" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>125</v>
       </c>
@@ -2914,7 +2925,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>125</v>
       </c>
@@ -2928,7 +2939,7 @@
         <v>37193</v>
       </c>
     </row>
-    <row r="124" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
         <v>125</v>
       </c>
@@ -2942,7 +2953,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="125" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
         <v>125</v>
       </c>
@@ -2956,7 +2967,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>125</v>
       </c>
@@ -2970,7 +2981,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="127" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>125</v>
       </c>
@@ -2984,7 +2995,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="40" t="s">
         <v>138</v>
       </c>
@@ -2998,7 +3009,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="129" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
         <v>138</v>
       </c>
@@ -3012,7 +3023,7 @@
         <v>37193</v>
       </c>
     </row>
-    <row r="130" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
         <v>138</v>
       </c>
@@ -3026,7 +3037,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="131" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
         <v>138</v>
       </c>
@@ -3040,7 +3051,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="132" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
         <v>138</v>
       </c>
@@ -3054,7 +3065,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="133" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
         <v>138</v>
       </c>
@@ -3068,7 +3079,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="134" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
         <v>138</v>
       </c>
@@ -3082,7 +3093,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="135" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
         <v>138</v>
       </c>
@@ -3096,7 +3107,7 @@
         <v>37542</v>
       </c>
     </row>
-    <row r="136" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
         <v>138</v>
       </c>
@@ -3110,7 +3121,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="137" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
         <v>138</v>
       </c>
@@ -3124,7 +3135,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="138" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
         <v>138</v>
       </c>
@@ -3138,7 +3149,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="139" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
         <v>138</v>
       </c>
@@ -3152,7 +3163,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="140" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="40" t="s">
         <v>124</v>
       </c>
@@ -3166,7 +3177,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="141" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
         <v>124</v>
       </c>
@@ -3180,7 +3191,7 @@
         <v>37193</v>
       </c>
     </row>
-    <row r="142" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
         <v>124</v>
       </c>
@@ -3194,7 +3205,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="143" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
         <v>124</v>
       </c>
@@ -3208,7 +3219,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="144" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
         <v>124</v>
       </c>
@@ -3222,7 +3233,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="145" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
         <v>124</v>
       </c>
@@ -3236,7 +3247,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="146" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
         <v>124</v>
       </c>
@@ -3250,7 +3261,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="147" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
         <v>124</v>
       </c>
@@ -3264,7 +3275,7 @@
         <v>37542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
         <v>124</v>
       </c>
@@ -3278,7 +3289,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="149" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
         <v>124</v>
       </c>
@@ -3292,7 +3303,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="150" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
         <v>124</v>
       </c>
@@ -3306,7 +3317,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="151" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
         <v>124</v>
       </c>
@@ -3320,7 +3331,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="152" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="40" t="s">
         <v>122</v>
       </c>
@@ -3334,7 +3345,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="153" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
         <v>122</v>
       </c>
@@ -3348,7 +3359,7 @@
         <v>37193</v>
       </c>
     </row>
-    <row r="154" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
         <v>122</v>
       </c>
@@ -3362,7 +3373,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="155" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
         <v>122</v>
       </c>
@@ -3376,7 +3387,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="156" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
         <v>122</v>
       </c>
@@ -3390,7 +3401,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="157" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
         <v>122</v>
       </c>
@@ -3404,7 +3415,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="158" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
         <v>122</v>
       </c>
@@ -3418,7 +3429,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="159" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
         <v>122</v>
       </c>
@@ -3432,7 +3443,7 @@
         <v>37542</v>
       </c>
     </row>
-    <row r="160" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
         <v>122</v>
       </c>
@@ -3446,7 +3457,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="161" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
         <v>122</v>
       </c>
@@ -3460,7 +3471,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="162" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
         <v>122</v>
       </c>
@@ -3474,7 +3485,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="163" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
         <v>122</v>
       </c>
@@ -3488,7 +3499,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="164" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="40" t="s">
         <v>119</v>
       </c>
@@ -3502,7 +3513,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="165" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
         <v>119</v>
       </c>
@@ -3516,7 +3527,7 @@
         <v>37542</v>
       </c>
     </row>
-    <row r="166" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
         <v>119</v>
       </c>
@@ -3530,7 +3541,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="167" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
         <v>119</v>
       </c>
@@ -3544,7 +3555,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="168" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
         <v>119</v>
       </c>
@@ -3558,7 +3569,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="169" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
         <v>119</v>
       </c>
@@ -3572,7 +3583,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="170" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
         <v>119</v>
       </c>
@@ -3586,7 +3597,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="171" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
         <v>119</v>
       </c>
@@ -3600,7 +3611,7 @@
         <v>37872</v>
       </c>
     </row>
-    <row r="172" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
         <v>119</v>
       </c>
@@ -3614,7 +3625,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="173" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
         <v>119</v>
       </c>
@@ -3628,7 +3639,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="174" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
         <v>119</v>
       </c>
@@ -3642,7 +3653,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="175" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
         <v>119</v>
       </c>
@@ -3656,7 +3667,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="176" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="40" t="s">
         <v>120</v>
       </c>
@@ -3670,7 +3681,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="177" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
         <v>120</v>
       </c>
@@ -3684,7 +3695,7 @@
         <v>37542</v>
       </c>
     </row>
-    <row r="178" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
         <v>120</v>
       </c>
@@ -3698,7 +3709,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="179" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
         <v>120</v>
       </c>
@@ -3712,7 +3723,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="180" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
         <v>120</v>
       </c>
@@ -3726,7 +3737,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="181" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
         <v>120</v>
       </c>
@@ -3740,7 +3751,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="182" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
         <v>120</v>
       </c>
@@ -3754,7 +3765,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="183" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
         <v>120</v>
       </c>
@@ -3768,7 +3779,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="184" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
         <v>120</v>
       </c>
@@ -3782,7 +3793,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="185" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
         <v>120</v>
       </c>
@@ -3796,7 +3807,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="186" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
         <v>120</v>
       </c>
@@ -3810,7 +3821,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="187" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="11" t="s">
         <v>120</v>
       </c>
@@ -3824,7 +3835,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="188" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="29" t="s">
         <v>137</v>
       </c>
@@ -3838,7 +3849,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="189" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>137</v>
       </c>
@@ -3852,7 +3863,7 @@
         <v>37872</v>
       </c>
     </row>
-    <row r="190" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>137</v>
       </c>
@@ -3866,7 +3877,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="191" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>137</v>
       </c>
@@ -3880,7 +3891,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="192" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>137</v>
       </c>
@@ -3894,7 +3905,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="193" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>137</v>
       </c>
@@ -3908,7 +3919,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="194" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>137</v>
       </c>
@@ -3922,7 +3933,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="195" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>137</v>
       </c>
@@ -3936,7 +3947,7 @@
         <v>38261</v>
       </c>
     </row>
-    <row r="196" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>137</v>
       </c>
@@ -3950,7 +3961,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="197" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>137</v>
       </c>
@@ -3964,7 +3975,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="198" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>137</v>
       </c>
@@ -3978,7 +3989,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="199" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>137</v>
       </c>
@@ -3992,7 +4003,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="200" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="29" t="s">
         <v>117</v>
       </c>
@@ -4006,7 +4017,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="201" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>117</v>
       </c>
@@ -4020,7 +4031,7 @@
         <v>37872</v>
       </c>
     </row>
-    <row r="202" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>117</v>
       </c>
@@ -4034,7 +4045,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="203" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>117</v>
       </c>
@@ -4048,7 +4059,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="204" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>117</v>
       </c>
@@ -4062,7 +4073,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="205" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>117</v>
       </c>
@@ -4076,7 +4087,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="206" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>117</v>
       </c>
@@ -4090,7 +4101,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="207" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>117</v>
       </c>
@@ -4104,7 +4115,7 @@
         <v>38261</v>
       </c>
     </row>
-    <row r="208" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>117</v>
       </c>
@@ -4118,7 +4129,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="209" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>117</v>
       </c>
@@ -4132,7 +4143,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="210" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>117</v>
       </c>
@@ -4146,7 +4157,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="211" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>117</v>
       </c>
@@ -4160,7 +4171,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="212" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="29" t="s">
         <v>135</v>
       </c>
@@ -4174,7 +4185,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="213" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>135</v>
       </c>
@@ -4188,7 +4199,7 @@
         <v>38261</v>
       </c>
     </row>
-    <row r="214" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>135</v>
       </c>
@@ -4202,7 +4213,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="215" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>135</v>
       </c>
@@ -4216,7 +4227,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="216" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>135</v>
       </c>
@@ -4230,7 +4241,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="217" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>135</v>
       </c>
@@ -4244,7 +4255,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="218" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>135</v>
       </c>
@@ -4258,7 +4269,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="219" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>135</v>
       </c>
@@ -4270,7 +4281,7 @@
       </c>
       <c r="D219" s="22"/>
     </row>
-    <row r="220" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>135</v>
       </c>
@@ -4284,7 +4295,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="221" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>135</v>
       </c>
@@ -4298,7 +4309,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="222" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>135</v>
       </c>
@@ -4312,7 +4323,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="223" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>135</v>
       </c>
@@ -4324,7 +4335,7 @@
       </c>
       <c r="D223" s="13"/>
     </row>
-    <row r="224" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="29" t="s">
         <v>115</v>
       </c>
@@ -4338,7 +4349,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="225" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>115</v>
       </c>
@@ -4352,7 +4363,7 @@
         <v>38261</v>
       </c>
     </row>
-    <row r="226" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>115</v>
       </c>
@@ -4366,7 +4377,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="227" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>115</v>
       </c>
@@ -4380,7 +4391,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="228" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>115</v>
       </c>
@@ -4394,7 +4405,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="229" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="12" t="s">
         <v>115</v>
       </c>
@@ -4408,7 +4419,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="230" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>115</v>
       </c>
@@ -4422,7 +4433,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="231" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>115</v>
       </c>
@@ -4434,7 +4445,7 @@
       </c>
       <c r="D231" s="22"/>
     </row>
-    <row r="232" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>115</v>
       </c>
@@ -4448,7 +4459,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="233" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>115</v>
       </c>
@@ -4462,7 +4473,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="234" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>115</v>
       </c>
@@ -4476,7 +4487,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="235" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="21" t="s">
         <v>115</v>
       </c>
@@ -4488,7 +4499,7 @@
       </c>
       <c r="D235" s="22"/>
     </row>
-    <row r="236" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="29" t="s">
         <v>136</v>
       </c>
@@ -4502,7 +4513,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="237" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="21" t="s">
         <v>136</v>
       </c>
@@ -4514,7 +4525,7 @@
       </c>
       <c r="D237" s="22"/>
     </row>
-    <row r="238" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>136</v>
       </c>
@@ -4528,7 +4539,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="239" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>136</v>
       </c>
@@ -4542,7 +4553,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="240" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>136</v>
       </c>
@@ -4556,7 +4567,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="241" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>136</v>
       </c>
@@ -4568,7 +4579,7 @@
       </c>
       <c r="D241" s="22"/>
     </row>
-    <row r="242" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>136</v>
       </c>
@@ -4582,7 +4593,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="243" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>136</v>
       </c>
@@ -4596,7 +4607,7 @@
         <v>38990</v>
       </c>
     </row>
-    <row r="244" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>136</v>
       </c>
@@ -4610,7 +4621,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="245" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>136</v>
       </c>
@@ -4624,7 +4635,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="246" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>136</v>
       </c>
@@ -4638,7 +4649,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="247" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>136</v>
       </c>
@@ -4652,7 +4663,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="248" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="29" t="s">
         <v>114</v>
       </c>
@@ -4666,7 +4677,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="249" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="21" t="s">
         <v>114</v>
       </c>
@@ -4678,7 +4689,7 @@
       </c>
       <c r="D249" s="22"/>
     </row>
-    <row r="250" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>114</v>
       </c>
@@ -4692,7 +4703,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="251" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>114</v>
       </c>
@@ -4706,7 +4717,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="252" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>114</v>
       </c>
@@ -4720,7 +4731,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="253" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="21" t="s">
         <v>114</v>
       </c>
@@ -4732,7 +4743,7 @@
       </c>
       <c r="D253" s="37"/>
     </row>
-    <row r="254" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>114</v>
       </c>
@@ -4746,7 +4757,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="255" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>114</v>
       </c>
@@ -4760,7 +4771,7 @@
         <v>38990</v>
       </c>
     </row>
-    <row r="256" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>114</v>
       </c>
@@ -4774,7 +4785,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="257" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>114</v>
       </c>
@@ -4788,7 +4799,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="258" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>114</v>
       </c>
@@ -4802,7 +4813,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="259" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>114</v>
       </c>
@@ -4816,7 +4827,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="260" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="29" t="s">
         <v>108</v>
       </c>
@@ -4830,7 +4841,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="261" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>108</v>
       </c>
@@ -4844,7 +4855,7 @@
         <v>38990</v>
       </c>
     </row>
-    <row r="262" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>108</v>
       </c>
@@ -4858,7 +4869,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="263" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>108</v>
       </c>
@@ -4872,7 +4883,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="264" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>108</v>
       </c>
@@ -4886,7 +4897,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="265" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>108</v>
       </c>
@@ -4900,7 +4911,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="266" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>108</v>
       </c>
@@ -4914,7 +4925,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="267" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>108</v>
       </c>
@@ -4928,7 +4939,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="268" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>108</v>
       </c>
@@ -4942,7 +4953,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="269" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>108</v>
       </c>
@@ -4956,7 +4967,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="270" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>108</v>
       </c>
@@ -4970,7 +4981,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="271" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>108</v>
       </c>
@@ -4984,7 +4995,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="272" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="29" t="s">
         <v>107</v>
       </c>
@@ -4998,7 +5009,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="273" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>107</v>
       </c>
@@ -5012,7 +5023,7 @@
         <v>38990</v>
       </c>
     </row>
-    <row r="274" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>107</v>
       </c>
@@ -5026,7 +5037,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="275" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>107</v>
       </c>
@@ -5040,7 +5051,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="276" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>107</v>
       </c>
@@ -5054,7 +5065,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="277" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>107</v>
       </c>
@@ -5068,7 +5079,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="278" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>107</v>
       </c>
@@ -5082,7 +5093,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="279" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>107</v>
       </c>
@@ -5096,7 +5107,7 @@
         <v>39432</v>
       </c>
     </row>
-    <row r="280" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>107</v>
       </c>
@@ -5110,7 +5121,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="281" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>107</v>
       </c>
@@ -5124,7 +5135,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="282" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>107</v>
       </c>
@@ -5138,7 +5149,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="283" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>107</v>
       </c>
@@ -5152,7 +5163,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="284" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="29" t="s">
         <v>142</v>
       </c>
@@ -5166,7 +5177,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="285" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>142</v>
       </c>
@@ -5180,7 +5191,7 @@
         <v>39724</v>
       </c>
     </row>
-    <row r="286" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>142</v>
       </c>
@@ -5194,7 +5205,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="287" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>142</v>
       </c>
@@ -5208,7 +5219,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="288" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>142</v>
       </c>
@@ -5222,7 +5233,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="289" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>142</v>
       </c>
@@ -5236,7 +5247,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="290" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>142</v>
       </c>
@@ -5250,7 +5261,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="291" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>142</v>
       </c>
@@ -5264,7 +5275,7 @@
         <v>40078</v>
       </c>
     </row>
-    <row r="292" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>142</v>
       </c>
@@ -5278,7 +5289,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="293" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>142</v>
       </c>
@@ -5292,7 +5303,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="294" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>142</v>
       </c>
@@ -5306,7 +5317,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="295" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>142</v>
       </c>
@@ -5320,7 +5331,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="296" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="29" t="s">
         <v>104</v>
       </c>
@@ -5334,7 +5345,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="297" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>104</v>
       </c>
@@ -5348,7 +5359,7 @@
         <v>40078</v>
       </c>
     </row>
-    <row r="298" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>104</v>
       </c>
@@ -5362,7 +5373,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="299" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>104</v>
       </c>
@@ -5376,7 +5387,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="300" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>104</v>
       </c>
@@ -5390,7 +5401,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="301" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>104</v>
       </c>
@@ -5404,7 +5415,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="302" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>104</v>
       </c>
@@ -5418,7 +5429,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="303" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>104</v>
       </c>
@@ -5432,7 +5443,7 @@
         <v>40428</v>
       </c>
     </row>
-    <row r="304" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>104</v>
       </c>
@@ -5446,7 +5457,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="305" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>104</v>
       </c>
@@ -5460,7 +5471,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="306" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>104</v>
       </c>
@@ -5474,7 +5485,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="307" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>104</v>
       </c>
@@ -5488,7 +5499,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="308" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="29" t="s">
         <v>102</v>
       </c>
@@ -5502,7 +5513,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="309" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>102</v>
       </c>
@@ -5516,7 +5527,7 @@
         <v>40428</v>
       </c>
     </row>
-    <row r="310" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>102</v>
       </c>
@@ -5530,7 +5541,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="311" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>102</v>
       </c>
@@ -5544,7 +5555,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="312" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>102</v>
       </c>
@@ -5558,7 +5569,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="313" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>102</v>
       </c>
@@ -5572,7 +5583,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="314" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>102</v>
       </c>
@@ -5586,7 +5597,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="315" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>102</v>
       </c>
@@ -5600,7 +5611,7 @@
         <v>40756</v>
       </c>
     </row>
-    <row r="316" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>102</v>
       </c>
@@ -5614,7 +5625,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="317" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>102</v>
       </c>
@@ -5628,7 +5639,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="318" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>102</v>
       </c>
@@ -5642,7 +5653,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="319" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>102</v>
       </c>
@@ -5656,7 +5667,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="320" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="29" t="s">
         <v>100</v>
       </c>
@@ -5670,7 +5681,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="321" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>100</v>
       </c>
@@ -5684,7 +5695,7 @@
         <v>40756</v>
       </c>
     </row>
-    <row r="322" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>100</v>
       </c>
@@ -5698,7 +5709,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="323" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>100</v>
       </c>
@@ -5712,7 +5723,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="324" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>100</v>
       </c>
@@ -5726,7 +5737,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="325" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>100</v>
       </c>
@@ -5740,7 +5751,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="326" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>100</v>
       </c>
@@ -5754,7 +5765,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="327" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>100</v>
       </c>
@@ -5768,7 +5779,7 @@
         <v>41102</v>
       </c>
     </row>
-    <row r="328" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>100</v>
       </c>
@@ -5782,7 +5793,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="329" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>100</v>
       </c>
@@ -5796,7 +5807,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="330" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>100</v>
       </c>
@@ -5810,7 +5821,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="331" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>100</v>
       </c>
@@ -5824,7 +5835,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="332" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="29" t="s">
         <v>12</v>
       </c>
@@ -5838,7 +5849,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="333" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>12</v>
       </c>
@@ -5852,7 +5863,7 @@
         <v>41102</v>
       </c>
     </row>
-    <row r="334" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>12</v>
       </c>
@@ -5866,7 +5877,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="335" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>12</v>
       </c>
@@ -5880,7 +5891,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="336" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>12</v>
       </c>
@@ -5894,7 +5905,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="337" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>12</v>
       </c>
@@ -5908,7 +5919,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>12</v>
       </c>
@@ -5922,7 +5933,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>12</v>
       </c>
@@ -5936,7 +5947,7 @@
         <v>41553</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>12</v>
       </c>
@@ -5950,7 +5961,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>12</v>
       </c>
@@ -5964,7 +5975,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>12</v>
       </c>
@@ -5978,7 +5989,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>12</v>
       </c>
@@ -5992,7 +6003,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="344" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="29" t="s">
         <v>78</v>
       </c>
@@ -6006,7 +6017,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>78</v>
       </c>
@@ -6020,7 +6031,7 @@
         <v>41392</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>78</v>
       </c>
@@ -6034,7 +6045,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>78</v>
       </c>
@@ -6048,7 +6059,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>78</v>
       </c>
@@ -6062,7 +6073,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>78</v>
       </c>
@@ -6076,7 +6087,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>78</v>
       </c>
@@ -6090,7 +6101,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>78</v>
       </c>
@@ -6104,7 +6115,7 @@
         <v>42084</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>78</v>
       </c>
@@ -6118,7 +6129,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>78</v>
       </c>
@@ -6132,7 +6143,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>78</v>
       </c>
@@ -6146,7 +6157,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>78</v>
       </c>
@@ -6160,7 +6171,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="356" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="29" t="s">
         <v>80</v>
       </c>
@@ -6174,7 +6185,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>80</v>
       </c>
@@ -6188,7 +6199,7 @@
         <v>42084</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>80</v>
       </c>
@@ -6202,7 +6213,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>80</v>
       </c>
@@ -6216,7 +6227,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>80</v>
       </c>
@@ -6230,7 +6241,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>80</v>
       </c>
@@ -6244,7 +6255,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>80</v>
       </c>
@@ -6258,7 +6269,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="363" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>80</v>
       </c>
@@ -6272,7 +6283,7 @@
         <v>42443</v>
       </c>
     </row>
-    <row r="364" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>80</v>
       </c>
@@ -6286,7 +6297,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="365" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>80</v>
       </c>
@@ -6300,7 +6311,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="366" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>80</v>
       </c>
@@ -6314,7 +6325,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="367" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>80</v>
       </c>
@@ -6328,7 +6339,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="368" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="29" t="s">
         <v>82</v>
       </c>
@@ -6342,7 +6353,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>82</v>
       </c>
@@ -6356,7 +6367,7 @@
         <v>42443</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>82</v>
       </c>
@@ -6370,7 +6381,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>82</v>
       </c>
@@ -6384,7 +6395,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>82</v>
       </c>
@@ -6398,7 +6409,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>82</v>
       </c>
@@ -6412,7 +6423,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>82</v>
       </c>
@@ -6426,7 +6437,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="375" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>82</v>
       </c>
@@ -6440,7 +6451,7 @@
         <v>42811</v>
       </c>
     </row>
-    <row r="376" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>82</v>
       </c>
@@ -6454,7 +6465,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="377" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>82</v>
       </c>
@@ -6468,7 +6479,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="378" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>82</v>
       </c>
@@ -6482,7 +6493,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="379" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>82</v>
       </c>
@@ -6496,7 +6507,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="380" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="31" t="s">
         <v>134</v>
       </c>
@@ -6510,7 +6521,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="10" t="s">
         <v>134</v>
       </c>
@@ -6524,7 +6535,7 @@
         <v>42811</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="10" t="s">
         <v>134</v>
       </c>
@@ -6538,7 +6549,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="10" t="s">
         <v>134</v>
       </c>
@@ -6552,7 +6563,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="10" t="s">
         <v>134</v>
       </c>
@@ -6566,7 +6577,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="10" t="s">
         <v>134</v>
       </c>
@@ -6580,7 +6591,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="10" t="s">
         <v>134</v>
       </c>
@@ -6594,7 +6605,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="387" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="10" t="s">
         <v>134</v>
       </c>
@@ -6608,7 +6619,7 @@
         <v>43162</v>
       </c>
     </row>
-    <row r="388" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="10" t="s">
         <v>134</v>
       </c>
@@ -6622,7 +6633,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="389" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="10" t="s">
         <v>134</v>
       </c>
@@ -6636,7 +6647,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="390" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="10" t="s">
         <v>134</v>
       </c>
@@ -6650,7 +6661,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="391" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="10" t="s">
         <v>134</v>
       </c>
@@ -6664,7 +6675,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="392" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="29" t="s">
         <v>96</v>
       </c>
@@ -6678,7 +6689,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>96</v>
       </c>
@@ -6692,7 +6703,7 @@
         <v>43162</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>96</v>
       </c>
@@ -6706,7 +6717,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>96</v>
       </c>
@@ -6720,7 +6731,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>96</v>
       </c>
@@ -6734,7 +6745,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>96</v>
       </c>
@@ -6748,7 +6759,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>96</v>
       </c>
@@ -6762,7 +6773,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="399" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>96</v>
       </c>
@@ -6776,7 +6787,7 @@
         <v>43538</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>96</v>
       </c>
@@ -6790,7 +6801,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="401" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>96</v>
       </c>
@@ -6804,7 +6815,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="402" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>96</v>
       </c>
@@ -6818,7 +6829,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="403" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="25" t="s">
         <v>96</v>
       </c>
@@ -6832,7 +6843,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>97</v>
       </c>
@@ -6846,7 +6857,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>97</v>
       </c>
@@ -6860,7 +6871,7 @@
         <v>43538</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>97</v>
       </c>
@@ -6874,7 +6885,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>97</v>
       </c>
@@ -6888,7 +6899,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>97</v>
       </c>
@@ -6902,7 +6913,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>97</v>
       </c>
@@ -6916,7 +6927,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>97</v>
       </c>
@@ -6930,7 +6941,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>97</v>
       </c>
@@ -6944,7 +6955,7 @@
         <v>44068</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>97</v>
       </c>
@@ -6958,7 +6969,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>97</v>
       </c>
@@ -6972,7 +6983,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>97</v>
       </c>
@@ -6986,7 +6997,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="415" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="25" t="s">
         <v>97</v>
       </c>
@@ -7000,7 +7011,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="42" t="s">
         <v>200</v>
       </c>
@@ -7014,7 +7025,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="42" t="s">
         <v>200</v>
       </c>
@@ -7028,7 +7039,7 @@
         <v>44068</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="42" t="s">
         <v>200</v>
       </c>
@@ -7042,7 +7053,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="42" t="s">
         <v>200</v>
       </c>
@@ -7056,7 +7067,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="42" t="s">
         <v>200</v>
       </c>
@@ -7070,7 +7081,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="42" t="s">
         <v>200</v>
       </c>
@@ -7080,11 +7091,11 @@
       <c r="C421" t="s">
         <v>76</v>
       </c>
-      <c r="D421" s="44" t="s">
+      <c r="D421" s="43" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="42" t="s">
         <v>200</v>
       </c>
@@ -7094,11 +7105,11 @@
       <c r="C422" t="s">
         <v>76</v>
       </c>
-      <c r="D422" s="43" t="s">
+      <c r="D422" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="42" t="s">
         <v>200</v>
       </c>
@@ -7112,7 +7123,7 @@
         <v>44300</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="42" t="s">
         <v>200</v>
       </c>
@@ -7126,7 +7137,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="42" t="s">
         <v>200</v>
       </c>
@@ -7140,7 +7151,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="42" t="s">
         <v>200</v>
       </c>
@@ -7154,7 +7165,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="427" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A427" s="39" t="s">
         <v>200</v>
       </c>
@@ -7164,8 +7175,176 @@
       <c r="C427" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D427" s="45" t="s">
+      <c r="D427" s="44" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="B428" t="s">
+        <v>81</v>
+      </c>
+      <c r="C428" t="s">
+        <v>76</v>
+      </c>
+      <c r="D428" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="B429" t="s">
+        <v>145</v>
+      </c>
+      <c r="C429" t="s">
+        <v>76</v>
+      </c>
+      <c r="D429" s="15">
+        <v>44300</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="B430" t="s">
+        <v>152</v>
+      </c>
+      <c r="C430" t="s">
+        <v>76</v>
+      </c>
+      <c r="D430" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="B431" t="s">
+        <v>153</v>
+      </c>
+      <c r="C431" t="s">
+        <v>76</v>
+      </c>
+      <c r="D431" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="B432" t="s">
+        <v>154</v>
+      </c>
+      <c r="C432" t="s">
+        <v>76</v>
+      </c>
+      <c r="D432" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="B433" t="s">
+        <v>155</v>
+      </c>
+      <c r="C433" t="s">
+        <v>76</v>
+      </c>
+      <c r="D433" s="44" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="B434" t="s">
+        <v>75</v>
+      </c>
+      <c r="C434" t="s">
+        <v>76</v>
+      </c>
+      <c r="D434" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="B435" t="s">
+        <v>146</v>
+      </c>
+      <c r="C435" t="s">
+        <v>76</v>
+      </c>
+      <c r="D435" s="15">
+        <v>44685</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="B436" t="s">
+        <v>148</v>
+      </c>
+      <c r="C436" t="s">
+        <v>76</v>
+      </c>
+      <c r="D436" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="B437" t="s">
+        <v>149</v>
+      </c>
+      <c r="C437" t="s">
+        <v>76</v>
+      </c>
+      <c r="D437" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="B438" t="s">
+        <v>150</v>
+      </c>
+      <c r="C438" t="s">
+        <v>76</v>
+      </c>
+      <c r="D438" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A439" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="B439" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C439" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D439" s="44" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -7174,8 +7353,11 @@
     <hyperlink ref="D344" r:id="rId2" xr:uid="{1FE2022A-31F1-4A60-AF77-8990993E519E}"/>
     <hyperlink ref="D74" r:id="rId3" xr:uid="{E8B8B051-E37F-43C6-83F5-FC76F1018BC9}"/>
     <hyperlink ref="D36" r:id="rId4" xr:uid="{5AB949CB-B519-44A2-BD01-13363BBF535B}"/>
+    <hyperlink ref="D422" r:id="rId5" xr:uid="{399046D0-A776-417A-B1E8-1AAD0E36BB26}"/>
+    <hyperlink ref="D434" r:id="rId6" xr:uid="{EF8CFF56-5FDC-4EAF-93AB-3DEAE8FCD2B6}"/>
+    <hyperlink ref="D428" r:id="rId7" xr:uid="{05E1088F-8CB5-47E5-ADB3-6496111263A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/global_attribute_table.xlsx
+++ b/global_attribute_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/cathryn_wynnedwards_utas_edu_au/Documents/Documents/GitHub/saz-data-processing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/wyn028_csiro_au/Documents/Documents/GitHub/saz-data-processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{12F1C9AC-E2A6-4BB2-B17F-7142736324D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB11A438-314B-48B2-A0BD-C8270E2F8913}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{12F1C9AC-E2A6-4BB2-B17F-7142736324D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70366FC0-3A7B-4BE8-A884-ED393C8C8C11}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{AB62E28C-C197-1443-8F5C-081BEC806BA6}"/>
+    <workbookView xWindow="-8990" yWindow="-21710" windowWidth="38620" windowHeight="21220" xr2:uid="{AB62E28C-C197-1443-8F5C-081BEC806BA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="214">
   <si>
     <t>Oceanographic and meteorological data from the Southern Ocean Time Series observatory in the Southern Ocean southwest of Tasmania.</t>
   </si>
@@ -708,6 +708,15 @@
   </si>
   <si>
     <t>096U20220504</t>
+  </si>
+  <si>
+    <t>SAZ47-24-2022</t>
+  </si>
+  <si>
+    <t>https://www.cmar.csiro.au/data/trawler/survey_details.cfm?survey=IN2023_V03</t>
+  </si>
+  <si>
+    <t>096U20230510</t>
   </si>
 </sst>
 </file>
@@ -836,27 +845,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -867,27 +872,16 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -897,20 +891,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -918,6 +907,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1234,23 +1226,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53348BFB-8ECF-4745-825D-D0BA3C53E339}">
-  <dimension ref="A1:D439"/>
+  <dimension ref="A1:D451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="D440" sqref="D440"/>
+    <sheetView tabSelected="1" topLeftCell="A404" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="D452" sqref="D452"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.625" customWidth="1"/>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
-    <col min="4" max="4" width="82" style="4" customWidth="1"/>
-    <col min="5" max="5" width="38.625" customWidth="1"/>
-    <col min="6" max="6" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.58203125" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="82" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="29.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
@@ -1260,12 +1252,12 @@
       <c r="C1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>72</v>
       </c>
       <c r="B2" t="s">
@@ -1274,12 +1266,12 @@
       <c r="C2" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>72</v>
       </c>
       <c r="B3" t="s">
@@ -1288,12 +1280,12 @@
       <c r="C3" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>72</v>
       </c>
       <c r="B4" t="s">
@@ -1302,12 +1294,12 @@
       <c r="C4" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>72</v>
       </c>
       <c r="B5" t="s">
@@ -1316,12 +1308,12 @@
       <c r="C5" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>72</v>
       </c>
       <c r="B6" t="s">
@@ -1330,12 +1322,12 @@
       <c r="C6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>72</v>
       </c>
       <c r="B7" t="s">
@@ -1344,12 +1336,12 @@
       <c r="C7" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>72</v>
       </c>
       <c r="B8" t="s">
@@ -1358,12 +1350,12 @@
       <c r="C8" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>72</v>
       </c>
       <c r="B9" t="s">
@@ -1372,12 +1364,12 @@
       <c r="C9" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>72</v>
       </c>
       <c r="B10" t="s">
@@ -1386,12 +1378,12 @@
       <c r="C10" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>72</v>
       </c>
       <c r="B11" t="s">
@@ -1400,12 +1392,12 @@
       <c r="C11" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>72</v>
       </c>
       <c r="B12" t="s">
@@ -1414,12 +1406,12 @@
       <c r="C12" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>72</v>
       </c>
       <c r="B13" t="s">
@@ -1428,12 +1420,12 @@
       <c r="C13" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>72</v>
       </c>
       <c r="B14" t="s">
@@ -1442,12 +1434,12 @@
       <c r="C14" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>72</v>
       </c>
       <c r="B15" t="s">
@@ -1456,12 +1448,12 @@
       <c r="C15" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>72</v>
       </c>
       <c r="B16" t="s">
@@ -1470,12 +1462,12 @@
       <c r="C16" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>72</v>
       </c>
       <c r="B17" t="s">
@@ -1484,12 +1476,12 @@
       <c r="C17" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>72</v>
       </c>
       <c r="B18" t="s">
@@ -1498,12 +1490,12 @@
       <c r="C18" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>72</v>
       </c>
       <c r="B19" t="s">
@@ -1512,12 +1504,12 @@
       <c r="C19" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>72</v>
       </c>
       <c r="B20" t="s">
@@ -1526,12 +1518,12 @@
       <c r="C20" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>72</v>
       </c>
       <c r="B21" t="s">
@@ -1540,12 +1532,12 @@
       <c r="C21" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>72</v>
       </c>
       <c r="B22" t="s">
@@ -1554,12 +1546,12 @@
       <c r="C22" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>72</v>
       </c>
       <c r="B23" t="s">
@@ -1568,12 +1560,12 @@
       <c r="C23" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>72</v>
       </c>
       <c r="B24" t="s">
@@ -1582,12 +1574,12 @@
       <c r="C24" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>72</v>
       </c>
       <c r="B25" t="s">
@@ -1596,12 +1588,12 @@
       <c r="C25" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>72</v>
       </c>
       <c r="B26" t="s">
@@ -1610,12 +1602,12 @@
       <c r="C26" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>72</v>
       </c>
       <c r="B27" t="s">
@@ -1624,12 +1616,12 @@
       <c r="C27" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>72</v>
       </c>
       <c r="B28" t="s">
@@ -1638,12 +1630,12 @@
       <c r="C28" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>72</v>
       </c>
       <c r="B29" t="s">
@@ -1652,12 +1644,12 @@
       <c r="C29" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>72</v>
       </c>
       <c r="B30" t="s">
@@ -1666,12 +1658,12 @@
       <c r="C30" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>72</v>
       </c>
       <c r="B31" t="s">
@@ -1680,12 +1672,12 @@
       <c r="C31" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>72</v>
       </c>
       <c r="B32" t="s">
@@ -1694,12 +1686,12 @@
       <c r="C32" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>72</v>
       </c>
       <c r="B33" t="s">
@@ -1708,12 +1700,12 @@
       <c r="C33" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>72</v>
       </c>
       <c r="B34" t="s">
@@ -1722,12 +1714,12 @@
       <c r="C34" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>72</v>
       </c>
       <c r="B35" t="s">
@@ -1736,12 +1728,12 @@
       <c r="C35" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>72</v>
       </c>
       <c r="B36" t="s">
@@ -1750,12 +1742,12 @@
       <c r="C36" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="31" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>72</v>
       </c>
       <c r="B37" t="s">
@@ -1764,12 +1756,12 @@
       <c r="C37" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>72</v>
       </c>
       <c r="B38" t="s">
@@ -1778,12 +1770,12 @@
       <c r="C38" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>72</v>
       </c>
       <c r="B39" t="s">
@@ -1792,12 +1784,12 @@
       <c r="C39" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>72</v>
       </c>
       <c r="B40" t="s">
@@ -1806,12 +1798,12 @@
       <c r="C40" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>72</v>
       </c>
       <c r="B41" t="s">
@@ -1820,12 +1812,12 @@
       <c r="C41" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>72</v>
       </c>
       <c r="B42" t="s">
@@ -1834,26 +1826,26 @@
       <c r="C42" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="8" t="s">
+      <c r="C43" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>143</v>
       </c>
       <c r="B44" t="s">
@@ -1862,78 +1854,78 @@
       <c r="C44" t="s">
         <v>76</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+    <row r="45" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="15" t="s">
         <v>145</v>
       </c>
       <c r="C45" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="22"/>
-    </row>
-    <row r="46" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="D45" s="16"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>143</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" t="s">
         <v>152</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" s="28" t="s">
+      <c r="C46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>143</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" t="s">
         <v>153</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D47" s="13" t="s">
+      <c r="C47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>143</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="23" t="s">
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>143</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C49" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="13"/>
-    </row>
-    <row r="50" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="C49" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>143</v>
       </c>
       <c r="B50" t="s">
@@ -1942,157 +1934,157 @@
       <c r="C50" t="s">
         <v>76</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+    <row r="51" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C51" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+      <c r="C51" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>143</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" t="s">
         <v>148</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" s="28" t="s">
+      <c r="C52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>143</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" t="s">
         <v>149</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="13" t="s">
+      <c r="C53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>143</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" t="s">
         <v>150</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54" s="23" t="s">
+      <c r="C54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
+    <row r="55" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C55" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="40" t="s">
+      <c r="C55" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="16"/>
+    </row>
+    <row r="56" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D56" s="35" t="s">
+      <c r="C56" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="25" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+    <row r="57" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="15" t="s">
         <v>145</v>
       </c>
       <c r="C57" t="s">
         <v>76</v>
       </c>
-      <c r="D57" s="22"/>
-    </row>
-    <row r="58" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+      <c r="D57" s="16"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>141</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" t="s">
         <v>152</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" s="28" t="s">
+      <c r="C58" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>141</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D59" s="13" t="s">
+      <c r="C59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>141</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" t="s">
         <v>154</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D60" s="23" t="s">
+      <c r="C60" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>141</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C61" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D61" s="13"/>
-    </row>
-    <row r="62" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+      <c r="C61" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>141</v>
       </c>
       <c r="B62" t="s">
@@ -2101,12 +2093,12 @@
       <c r="C62" t="s">
         <v>76</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>141</v>
       </c>
       <c r="B63" t="s">
@@ -2115,148 +2107,148 @@
       <c r="C63" t="s">
         <v>76</v>
       </c>
-      <c r="D63" s="23">
+      <c r="D63" s="17">
         <v>36197</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>141</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" t="s">
         <v>148</v>
       </c>
-      <c r="C64" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64" s="16" t="s">
+      <c r="C64" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>141</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" t="s">
         <v>149</v>
       </c>
-      <c r="C65" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D65" s="23" t="s">
+      <c r="C65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" s="17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>141</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" t="s">
         <v>150</v>
       </c>
-      <c r="C66" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D66" s="23" t="s">
+      <c r="C66" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" s="17" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>141</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C67" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D67" s="23" t="s">
+      <c r="C67" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="40" t="s">
+    <row r="68" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C68" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D68" s="35" t="s">
+      <c r="C68" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" s="25" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
+    <row r="69" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="15" t="s">
         <v>145</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
       </c>
-      <c r="D69" s="22"/>
-    </row>
-    <row r="70" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
+      <c r="D69" s="16"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>130</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" t="s">
         <v>152</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D70" s="28" t="s">
+      <c r="C70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>130</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" t="s">
         <v>153</v>
       </c>
-      <c r="C71" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D71" s="13" t="s">
+      <c r="C71" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>130</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" t="s">
         <v>154</v>
       </c>
-      <c r="C72" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D72" s="23" t="s">
+      <c r="C72" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
+    <row r="73" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C73" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D73" s="37"/>
-    </row>
-    <row r="74" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
+      <c r="C73" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" s="26"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>130</v>
       </c>
       <c r="B74" t="s">
@@ -2265,12 +2257,12 @@
       <c r="C74" t="s">
         <v>76</v>
       </c>
-      <c r="D74" s="24" t="s">
+      <c r="D74" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>130</v>
       </c>
       <c r="B75" t="s">
@@ -2279,82 +2271,82 @@
       <c r="C75" t="s">
         <v>76</v>
       </c>
-      <c r="D75" s="23">
+      <c r="D75" s="17">
         <v>36197</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>130</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D76" s="16" t="s">
+      <c r="C76" t="s">
+        <v>76</v>
+      </c>
+      <c r="D76" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>130</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" t="s">
         <v>149</v>
       </c>
-      <c r="C77" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D77" s="23" t="s">
+      <c r="C77" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77" s="17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>130</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" t="s">
         <v>150</v>
       </c>
-      <c r="C78" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D78" s="23" t="s">
+      <c r="C78" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" s="17" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>130</v>
       </c>
-      <c r="B79" s="39" t="s">
+      <c r="B79" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C79" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D79" s="23" t="s">
+      <c r="C79" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D79" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="40" t="s">
+    <row r="80" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B80" s="29" t="s">
+      <c r="B80" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C80" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D80" s="35" t="s">
+      <c r="C80" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D80" s="25" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>140</v>
       </c>
       <c r="B81" t="s">
@@ -2363,68 +2355,68 @@
       <c r="C81" t="s">
         <v>76</v>
       </c>
-      <c r="D81" s="18">
+      <c r="D81" s="14">
         <v>36354</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>140</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B82" t="s">
         <v>152</v>
       </c>
-      <c r="C82" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D82" s="28" t="s">
+      <c r="C82" t="s">
+        <v>76</v>
+      </c>
+      <c r="D82" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>140</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" t="s">
         <v>153</v>
       </c>
-      <c r="C83" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D83" s="13" t="s">
+      <c r="C83" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>140</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" t="s">
         <v>154</v>
       </c>
-      <c r="C84" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D84" s="23" t="s">
+      <c r="C84" t="s">
+        <v>76</v>
+      </c>
+      <c r="D84" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>140</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" t="s">
         <v>155</v>
       </c>
-      <c r="C85" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D85" s="23" t="s">
+      <c r="C85" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" s="17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>140</v>
       </c>
       <c r="B86" t="s">
@@ -2433,92 +2425,92 @@
       <c r="C86" t="s">
         <v>76</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
+    <row r="87" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>140</v>
       </c>
-      <c r="B87" s="21" t="s">
+      <c r="B87" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C87" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D87" s="22"/>
-    </row>
-    <row r="88" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
+      <c r="C87" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D87" s="16"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>140</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" t="s">
         <v>148</v>
       </c>
-      <c r="C88" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D88" s="28" t="s">
+      <c r="C88" t="s">
+        <v>76</v>
+      </c>
+      <c r="D88" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>140</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" t="s">
         <v>149</v>
       </c>
-      <c r="C89" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D89" s="36" t="s">
+      <c r="C89" t="s">
+        <v>76</v>
+      </c>
+      <c r="D89" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>140</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" t="s">
         <v>150</v>
       </c>
-      <c r="C90" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D90" s="23" t="s">
+      <c r="C90" t="s">
+        <v>76</v>
+      </c>
+      <c r="D90" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>140</v>
       </c>
-      <c r="B91" s="38" t="s">
+      <c r="B91" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C91" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D91" s="13"/>
-    </row>
-    <row r="92" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="40" t="s">
+      <c r="C91" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" s="9"/>
+    </row>
+    <row r="92" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B92" s="29" t="s">
+      <c r="B92" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D92" s="35" t="s">
+      <c r="C92" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D92" s="25" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>128</v>
       </c>
       <c r="B93" t="s">
@@ -2527,68 +2519,68 @@
       <c r="C93" t="s">
         <v>76</v>
       </c>
-      <c r="D93" s="18">
+      <c r="D93" s="14">
         <v>36354</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>128</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" t="s">
         <v>152</v>
       </c>
-      <c r="C94" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D94" s="28" t="s">
+      <c r="C94" t="s">
+        <v>76</v>
+      </c>
+      <c r="D94" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>128</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" t="s">
         <v>153</v>
       </c>
-      <c r="C95" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D95" s="13" t="s">
+      <c r="C95" t="s">
+        <v>76</v>
+      </c>
+      <c r="D95" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>128</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" t="s">
         <v>154</v>
       </c>
-      <c r="C96" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D96" s="23" t="s">
+      <c r="C96" t="s">
+        <v>76</v>
+      </c>
+      <c r="D96" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>128</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B97" t="s">
         <v>155</v>
       </c>
-      <c r="C97" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D97" s="23" t="s">
+      <c r="C97" t="s">
+        <v>76</v>
+      </c>
+      <c r="D97" s="17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>128</v>
       </c>
       <c r="B98" t="s">
@@ -2597,158 +2589,158 @@
       <c r="C98" t="s">
         <v>76</v>
       </c>
-      <c r="D98" s="13" t="s">
+      <c r="D98" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
+    <row r="99" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>128</v>
       </c>
-      <c r="B99" s="21" t="s">
+      <c r="B99" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C99" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D99" s="22"/>
-    </row>
-    <row r="100" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="11" t="s">
+      <c r="C99" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D99" s="16"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>128</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" t="s">
         <v>148</v>
       </c>
-      <c r="C100" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D100" s="28" t="s">
+      <c r="C100" t="s">
+        <v>76</v>
+      </c>
+      <c r="D100" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>128</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" t="s">
         <v>149</v>
       </c>
-      <c r="C101" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D101" s="36" t="s">
+      <c r="C101" t="s">
+        <v>76</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>128</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B102" t="s">
         <v>150</v>
       </c>
-      <c r="C102" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D102" s="23" t="s">
+      <c r="C102" t="s">
+        <v>76</v>
+      </c>
+      <c r="D102" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
+    <row r="103" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>128</v>
       </c>
-      <c r="B103" s="38" t="s">
+      <c r="B103" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C103" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D103" s="22"/>
-    </row>
-    <row r="104" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="40" t="s">
+      <c r="C103" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D103" s="16"/>
+    </row>
+    <row r="104" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B104" s="29" t="s">
+      <c r="B104" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C104" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D104" s="35" t="s">
+      <c r="C104" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D104" s="25" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="20" t="s">
+    <row r="105" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B105" s="21" t="s">
+      <c r="B105" s="15" t="s">
         <v>145</v>
       </c>
       <c r="C105" t="s">
         <v>76</v>
       </c>
-      <c r="D105" s="22"/>
-    </row>
-    <row r="106" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
+      <c r="D105" s="16"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>139</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B106" t="s">
         <v>152</v>
       </c>
-      <c r="C106" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D106" s="28" t="s">
+      <c r="C106" t="s">
+        <v>76</v>
+      </c>
+      <c r="D106" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>139</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B107" t="s">
         <v>153</v>
       </c>
-      <c r="C107" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D107" s="36" t="s">
+      <c r="C107" t="s">
+        <v>76</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>139</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B108" t="s">
         <v>154</v>
       </c>
-      <c r="C108" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D108" s="23" t="s">
+      <c r="C108" t="s">
+        <v>76</v>
+      </c>
+      <c r="D108" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>139</v>
       </c>
-      <c r="B109" s="21" t="s">
+      <c r="B109" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C109" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D109" s="13"/>
-    </row>
-    <row r="110" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
+      <c r="C109" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D109" s="9"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>139</v>
       </c>
       <c r="B110" t="s">
@@ -2757,12 +2749,12 @@
       <c r="C110" t="s">
         <v>76</v>
       </c>
-      <c r="D110" s="13" t="s">
+      <c r="D110" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>139</v>
       </c>
       <c r="B111" t="s">
@@ -2771,148 +2763,148 @@
       <c r="C111" t="s">
         <v>76</v>
       </c>
-      <c r="D111" s="18">
+      <c r="D111" s="14">
         <v>37193</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>139</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B112" t="s">
         <v>148</v>
       </c>
-      <c r="C112" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D112" s="28" t="s">
+      <c r="C112" t="s">
+        <v>76</v>
+      </c>
+      <c r="D112" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="113" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>139</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" t="s">
         <v>149</v>
       </c>
-      <c r="C113" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D113" s="36" t="s">
+      <c r="C113" t="s">
+        <v>76</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="114" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="11" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>139</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" t="s">
         <v>150</v>
       </c>
-      <c r="C114" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D114" s="23" t="s">
+      <c r="C114" t="s">
+        <v>76</v>
+      </c>
+      <c r="D114" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="11" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>139</v>
       </c>
-      <c r="B115" s="39" t="s">
+      <c r="B115" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C115" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D115" s="23" t="s">
+      <c r="C115" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D115" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="40" t="s">
+    <row r="116" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B116" s="29" t="s">
+      <c r="B116" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C116" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D116" s="35" t="s">
+      <c r="C116" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D116" s="25" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="20" t="s">
+    <row r="117" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B117" s="21" t="s">
+      <c r="B117" s="15" t="s">
         <v>145</v>
       </c>
       <c r="C117" t="s">
         <v>76</v>
       </c>
-      <c r="D117" s="22"/>
-    </row>
-    <row r="118" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="11" t="s">
+      <c r="D117" s="16"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>125</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" t="s">
         <v>152</v>
       </c>
-      <c r="C118" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D118" s="28" t="s">
+      <c r="C118" t="s">
+        <v>76</v>
+      </c>
+      <c r="D118" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="119" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>125</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" t="s">
         <v>153</v>
       </c>
-      <c r="C119" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D119" s="36" t="s">
+      <c r="C119" t="s">
+        <v>76</v>
+      </c>
+      <c r="D119" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="120" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>125</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B120" t="s">
         <v>154</v>
       </c>
-      <c r="C120" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D120" s="23" t="s">
+      <c r="C120" t="s">
+        <v>76</v>
+      </c>
+      <c r="D120" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="121" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="20" t="s">
+    <row r="121" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B121" s="21" t="s">
+      <c r="B121" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C121" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D121" s="22"/>
-    </row>
-    <row r="122" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="11" t="s">
+      <c r="C121" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D121" s="16"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>125</v>
       </c>
       <c r="B122" t="s">
@@ -2921,12 +2913,12 @@
       <c r="C122" t="s">
         <v>76</v>
       </c>
-      <c r="D122" s="13" t="s">
+      <c r="D122" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="11" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
         <v>125</v>
       </c>
       <c r="B123" t="s">
@@ -2935,82 +2927,82 @@
       <c r="C123" t="s">
         <v>76</v>
       </c>
-      <c r="D123" s="18">
+      <c r="D123" s="14">
         <v>37193</v>
       </c>
     </row>
-    <row r="124" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="11" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
         <v>125</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="B124" t="s">
         <v>148</v>
       </c>
-      <c r="C124" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D124" s="28" t="s">
+      <c r="C124" t="s">
+        <v>76</v>
+      </c>
+      <c r="D124" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="125" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="11" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>125</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="B125" t="s">
         <v>149</v>
       </c>
-      <c r="C125" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D125" s="36" t="s">
+      <c r="C125" t="s">
+        <v>76</v>
+      </c>
+      <c r="D125" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="11" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
         <v>125</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B126" t="s">
         <v>150</v>
       </c>
-      <c r="C126" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D126" s="23" t="s">
+      <c r="C126" t="s">
+        <v>76</v>
+      </c>
+      <c r="D126" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="127" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="11" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>125</v>
       </c>
-      <c r="B127" s="39" t="s">
+      <c r="B127" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C127" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D127" s="23" t="s">
+      <c r="C127" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D127" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="40" t="s">
+    <row r="128" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B128" s="29" t="s">
+      <c r="B128" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C128" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D128" s="35" t="s">
+      <c r="C128" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D128" s="25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="129" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="11" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>138</v>
       </c>
       <c r="B129" t="s">
@@ -3019,12 +3011,12 @@
       <c r="C129" t="s">
         <v>76</v>
       </c>
-      <c r="D129" s="18">
+      <c r="D129" s="14">
         <v>37193</v>
       </c>
     </row>
-    <row r="130" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="11" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>138</v>
       </c>
       <c r="B130" t="s">
@@ -3033,12 +3025,12 @@
       <c r="C130" t="s">
         <v>76</v>
       </c>
-      <c r="D130" s="28" t="s">
+      <c r="D130" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="131" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="11" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
         <v>138</v>
       </c>
       <c r="B131" t="s">
@@ -3047,12 +3039,12 @@
       <c r="C131" t="s">
         <v>76</v>
       </c>
-      <c r="D131" s="36" t="s">
+      <c r="D131" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="132" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="11" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
         <v>138</v>
       </c>
       <c r="B132" t="s">
@@ -3061,26 +3053,26 @@
       <c r="C132" t="s">
         <v>76</v>
       </c>
-      <c r="D132" s="23" t="s">
+      <c r="D132" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="133" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="11" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
         <v>138</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B133" t="s">
         <v>155</v>
       </c>
-      <c r="C133" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D133" s="23" t="s">
+      <c r="C133" t="s">
+        <v>76</v>
+      </c>
+      <c r="D133" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="134" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="11" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>138</v>
       </c>
       <c r="B134" t="s">
@@ -3089,12 +3081,12 @@
       <c r="C134" t="s">
         <v>76</v>
       </c>
-      <c r="D134" s="13" t="s">
+      <c r="D134" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="135" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="11" t="s">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
         <v>138</v>
       </c>
       <c r="B135" t="s">
@@ -3103,82 +3095,82 @@
       <c r="C135" t="s">
         <v>76</v>
       </c>
-      <c r="D135" s="18">
+      <c r="D135" s="14">
         <v>37542</v>
       </c>
     </row>
-    <row r="136" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="11" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
         <v>138</v>
       </c>
-      <c r="B136" s="12" t="s">
+      <c r="B136" t="s">
         <v>148</v>
       </c>
-      <c r="C136" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D136" s="28" t="s">
+      <c r="C136" t="s">
+        <v>76</v>
+      </c>
+      <c r="D136" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="137" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="11" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
         <v>138</v>
       </c>
-      <c r="B137" s="12" t="s">
+      <c r="B137" t="s">
         <v>149</v>
       </c>
-      <c r="C137" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D137" s="36" t="s">
+      <c r="C137" t="s">
+        <v>76</v>
+      </c>
+      <c r="D137" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="138" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="11" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
         <v>138</v>
       </c>
-      <c r="B138" s="12" t="s">
+      <c r="B138" t="s">
         <v>150</v>
       </c>
-      <c r="C138" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D138" s="23" t="s">
+      <c r="C138" t="s">
+        <v>76</v>
+      </c>
+      <c r="D138" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="139" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
         <v>138</v>
       </c>
-      <c r="B139" s="39" t="s">
+      <c r="B139" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C139" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D139" s="23" t="s">
+      <c r="C139" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D139" s="17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="140" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="40" t="s">
+    <row r="140" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B140" s="29" t="s">
+      <c r="B140" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C140" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D140" s="35" t="s">
+      <c r="C140" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D140" s="25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="141" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="11" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>124</v>
       </c>
       <c r="B141" t="s">
@@ -3187,12 +3179,12 @@
       <c r="C141" t="s">
         <v>76</v>
       </c>
-      <c r="D141" s="18">
+      <c r="D141" s="14">
         <v>37193</v>
       </c>
     </row>
-    <row r="142" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="11" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>124</v>
       </c>
       <c r="B142" t="s">
@@ -3201,12 +3193,12 @@
       <c r="C142" t="s">
         <v>76</v>
       </c>
-      <c r="D142" s="28" t="s">
+      <c r="D142" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="143" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="11" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>124</v>
       </c>
       <c r="B143" t="s">
@@ -3215,12 +3207,12 @@
       <c r="C143" t="s">
         <v>76</v>
       </c>
-      <c r="D143" s="36" t="s">
+      <c r="D143" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="144" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="11" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
         <v>124</v>
       </c>
       <c r="B144" t="s">
@@ -3229,26 +3221,26 @@
       <c r="C144" t="s">
         <v>76</v>
       </c>
-      <c r="D144" s="23" t="s">
+      <c r="D144" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="145" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="11" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
         <v>124</v>
       </c>
-      <c r="B145" s="12" t="s">
+      <c r="B145" t="s">
         <v>155</v>
       </c>
-      <c r="C145" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D145" s="23" t="s">
+      <c r="C145" t="s">
+        <v>76</v>
+      </c>
+      <c r="D145" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="146" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="11" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
         <v>124</v>
       </c>
       <c r="B146" t="s">
@@ -3257,12 +3249,12 @@
       <c r="C146" t="s">
         <v>76</v>
       </c>
-      <c r="D146" s="13" t="s">
+      <c r="D146" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="147" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="11" t="s">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
         <v>124</v>
       </c>
       <c r="B147" t="s">
@@ -3271,82 +3263,82 @@
       <c r="C147" t="s">
         <v>76</v>
       </c>
-      <c r="D147" s="18">
+      <c r="D147" s="14">
         <v>37542</v>
       </c>
     </row>
-    <row r="148" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="11" t="s">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
         <v>124</v>
       </c>
-      <c r="B148" s="12" t="s">
+      <c r="B148" t="s">
         <v>148</v>
       </c>
-      <c r="C148" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D148" s="28" t="s">
+      <c r="C148" t="s">
+        <v>76</v>
+      </c>
+      <c r="D148" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="149" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="11" t="s">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
         <v>124</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="B149" t="s">
         <v>149</v>
       </c>
-      <c r="C149" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D149" s="36" t="s">
+      <c r="C149" t="s">
+        <v>76</v>
+      </c>
+      <c r="D149" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="150" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="11" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
         <v>124</v>
       </c>
-      <c r="B150" s="12" t="s">
+      <c r="B150" t="s">
         <v>150</v>
       </c>
-      <c r="C150" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D150" s="23" t="s">
+      <c r="C150" t="s">
+        <v>76</v>
+      </c>
+      <c r="D150" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="151" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="11" t="s">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
         <v>124</v>
       </c>
-      <c r="B151" s="39" t="s">
+      <c r="B151" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C151" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D151" s="23" t="s">
+      <c r="C151" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D151" s="17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="152" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="40" t="s">
+    <row r="152" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B152" s="29" t="s">
+      <c r="B152" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C152" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D152" s="35" t="s">
+      <c r="C152" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D152" s="25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="153" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="11" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
         <v>122</v>
       </c>
       <c r="B153" t="s">
@@ -3355,12 +3347,12 @@
       <c r="C153" t="s">
         <v>76</v>
       </c>
-      <c r="D153" s="18">
+      <c r="D153" s="14">
         <v>37193</v>
       </c>
     </row>
-    <row r="154" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="11" t="s">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
         <v>122</v>
       </c>
       <c r="B154" t="s">
@@ -3369,12 +3361,12 @@
       <c r="C154" t="s">
         <v>76</v>
       </c>
-      <c r="D154" s="28" t="s">
+      <c r="D154" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="155" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="11" t="s">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
         <v>122</v>
       </c>
       <c r="B155" t="s">
@@ -3383,12 +3375,12 @@
       <c r="C155" t="s">
         <v>76</v>
       </c>
-      <c r="D155" s="36" t="s">
+      <c r="D155" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="156" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="11" t="s">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
         <v>122</v>
       </c>
       <c r="B156" t="s">
@@ -3397,26 +3389,26 @@
       <c r="C156" t="s">
         <v>76</v>
       </c>
-      <c r="D156" s="23" t="s">
+      <c r="D156" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="157" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="11" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
         <v>122</v>
       </c>
-      <c r="B157" s="12" t="s">
+      <c r="B157" t="s">
         <v>155</v>
       </c>
-      <c r="C157" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D157" s="23" t="s">
+      <c r="C157" t="s">
+        <v>76</v>
+      </c>
+      <c r="D157" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="158" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="11" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
         <v>122</v>
       </c>
       <c r="B158" t="s">
@@ -3425,12 +3417,12 @@
       <c r="C158" t="s">
         <v>76</v>
       </c>
-      <c r="D158" s="13" t="s">
+      <c r="D158" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="159" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="11" t="s">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
         <v>122</v>
       </c>
       <c r="B159" t="s">
@@ -3439,82 +3431,82 @@
       <c r="C159" t="s">
         <v>76</v>
       </c>
-      <c r="D159" s="18">
+      <c r="D159" s="14">
         <v>37542</v>
       </c>
     </row>
-    <row r="160" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="11" t="s">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
         <v>122</v>
       </c>
-      <c r="B160" s="12" t="s">
+      <c r="B160" t="s">
         <v>148</v>
       </c>
-      <c r="C160" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D160" s="28" t="s">
+      <c r="C160" t="s">
+        <v>76</v>
+      </c>
+      <c r="D160" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="161" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="11" t="s">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
         <v>122</v>
       </c>
-      <c r="B161" s="12" t="s">
+      <c r="B161" t="s">
         <v>149</v>
       </c>
-      <c r="C161" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D161" s="36" t="s">
+      <c r="C161" t="s">
+        <v>76</v>
+      </c>
+      <c r="D161" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="162" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="11" t="s">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
         <v>122</v>
       </c>
-      <c r="B162" s="12" t="s">
+      <c r="B162" t="s">
         <v>150</v>
       </c>
-      <c r="C162" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D162" s="23" t="s">
+      <c r="C162" t="s">
+        <v>76</v>
+      </c>
+      <c r="D162" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="163" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="11" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
         <v>122</v>
       </c>
-      <c r="B163" s="39" t="s">
+      <c r="B163" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C163" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D163" s="23" t="s">
+      <c r="C163" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D163" s="17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="164" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="40" t="s">
+    <row r="164" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B164" s="29" t="s">
+      <c r="B164" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C164" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D164" s="35" t="s">
+      <c r="C164" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D164" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="165" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="11" t="s">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
         <v>119</v>
       </c>
       <c r="B165" t="s">
@@ -3523,12 +3515,12 @@
       <c r="C165" t="s">
         <v>76</v>
       </c>
-      <c r="D165" s="18">
+      <c r="D165" s="14">
         <v>37542</v>
       </c>
     </row>
-    <row r="166" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="11" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
         <v>119</v>
       </c>
       <c r="B166" t="s">
@@ -3537,12 +3529,12 @@
       <c r="C166" t="s">
         <v>76</v>
       </c>
-      <c r="D166" s="28" t="s">
+      <c r="D166" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="167" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="11" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
         <v>119</v>
       </c>
       <c r="B167" t="s">
@@ -3551,12 +3543,12 @@
       <c r="C167" t="s">
         <v>76</v>
       </c>
-      <c r="D167" s="36" t="s">
+      <c r="D167" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="168" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="11" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
         <v>119</v>
       </c>
       <c r="B168" t="s">
@@ -3565,26 +3557,26 @@
       <c r="C168" t="s">
         <v>76</v>
       </c>
-      <c r="D168" s="23" t="s">
+      <c r="D168" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="169" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="11" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
         <v>119</v>
       </c>
-      <c r="B169" s="12" t="s">
+      <c r="B169" t="s">
         <v>155</v>
       </c>
-      <c r="C169" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D169" s="23" t="s">
+      <c r="C169" t="s">
+        <v>76</v>
+      </c>
+      <c r="D169" s="17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="170" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="11" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
         <v>119</v>
       </c>
       <c r="B170" t="s">
@@ -3593,12 +3585,12 @@
       <c r="C170" t="s">
         <v>76</v>
       </c>
-      <c r="D170" s="13" t="s">
+      <c r="D170" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="171" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="11" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
         <v>119</v>
       </c>
       <c r="B171" t="s">
@@ -3607,82 +3599,82 @@
       <c r="C171" t="s">
         <v>76</v>
       </c>
-      <c r="D171" s="23">
+      <c r="D171" s="17">
         <v>37872</v>
       </c>
     </row>
-    <row r="172" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="11" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
         <v>119</v>
       </c>
-      <c r="B172" s="12" t="s">
+      <c r="B172" t="s">
         <v>148</v>
       </c>
-      <c r="C172" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D172" s="28" t="s">
+      <c r="C172" t="s">
+        <v>76</v>
+      </c>
+      <c r="D172" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="173" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="11" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
         <v>119</v>
       </c>
-      <c r="B173" s="12" t="s">
+      <c r="B173" t="s">
         <v>149</v>
       </c>
-      <c r="C173" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D173" s="36" t="s">
+      <c r="C173" t="s">
+        <v>76</v>
+      </c>
+      <c r="D173" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="174" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="11" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
         <v>119</v>
       </c>
-      <c r="B174" s="12" t="s">
+      <c r="B174" t="s">
         <v>150</v>
       </c>
-      <c r="C174" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D174" s="23" t="s">
+      <c r="C174" t="s">
+        <v>76</v>
+      </c>
+      <c r="D174" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="175" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="11" t="s">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
         <v>119</v>
       </c>
-      <c r="B175" s="39" t="s">
+      <c r="B175" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C175" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D175" s="23" t="s">
+      <c r="C175" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D175" s="17" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="176" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="40" t="s">
+    <row r="176" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B176" s="29" t="s">
+      <c r="B176" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C176" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D176" s="35" t="s">
+      <c r="C176" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D176" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="177" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="11" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
         <v>120</v>
       </c>
       <c r="B177" t="s">
@@ -3691,12 +3683,12 @@
       <c r="C177" t="s">
         <v>76</v>
       </c>
-      <c r="D177" s="18">
+      <c r="D177" s="14">
         <v>37542</v>
       </c>
     </row>
-    <row r="178" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="11" t="s">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
         <v>120</v>
       </c>
       <c r="B178" t="s">
@@ -3705,12 +3697,12 @@
       <c r="C178" t="s">
         <v>76</v>
       </c>
-      <c r="D178" s="28" t="s">
+      <c r="D178" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="179" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="11" t="s">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
         <v>120</v>
       </c>
       <c r="B179" t="s">
@@ -3719,12 +3711,12 @@
       <c r="C179" t="s">
         <v>76</v>
       </c>
-      <c r="D179" s="36" t="s">
+      <c r="D179" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="180" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="11" t="s">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
         <v>120</v>
       </c>
       <c r="B180" t="s">
@@ -3733,26 +3725,26 @@
       <c r="C180" t="s">
         <v>76</v>
       </c>
-      <c r="D180" s="23" t="s">
+      <c r="D180" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="181" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="11" t="s">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
         <v>120</v>
       </c>
-      <c r="B181" s="12" t="s">
+      <c r="B181" t="s">
         <v>155</v>
       </c>
-      <c r="C181" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D181" s="23" t="s">
+      <c r="C181" t="s">
+        <v>76</v>
+      </c>
+      <c r="D181" s="17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="182" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="11" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
         <v>120</v>
       </c>
       <c r="B182" t="s">
@@ -3761,12 +3753,12 @@
       <c r="C182" t="s">
         <v>76</v>
       </c>
-      <c r="D182" s="13" t="s">
+      <c r="D182" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="183" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="11" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
         <v>120</v>
       </c>
       <c r="B183" t="s">
@@ -3775,81 +3767,81 @@
       <c r="C183" t="s">
         <v>76</v>
       </c>
-      <c r="D183" s="13" t="s">
+      <c r="D183" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="184" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="11" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
         <v>120</v>
       </c>
-      <c r="B184" s="12" t="s">
+      <c r="B184" t="s">
         <v>148</v>
       </c>
-      <c r="C184" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D184" s="13" t="s">
+      <c r="C184" t="s">
+        <v>76</v>
+      </c>
+      <c r="D184" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="185" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="11" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
         <v>120</v>
       </c>
-      <c r="B185" s="12" t="s">
+      <c r="B185" t="s">
         <v>149</v>
       </c>
-      <c r="C185" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D185" s="13" t="s">
+      <c r="C185" t="s">
+        <v>76</v>
+      </c>
+      <c r="D185" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="186" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="11" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
         <v>120</v>
       </c>
-      <c r="B186" s="12" t="s">
+      <c r="B186" t="s">
         <v>150</v>
       </c>
-      <c r="C186" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D186" s="13" t="s">
+      <c r="C186" t="s">
+        <v>76</v>
+      </c>
+      <c r="D186" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="187" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="11" t="s">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
         <v>120</v>
       </c>
-      <c r="B187" s="39" t="s">
+      <c r="B187" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C187" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D187" s="13" t="s">
+      <c r="C187" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D187" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="188" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="29" t="s">
+    <row r="188" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B188" s="29" t="s">
+      <c r="B188" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C188" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D188" s="35" t="s">
+      <c r="C188" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D188" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="189" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>137</v>
       </c>
@@ -3859,11 +3851,11 @@
       <c r="C189" t="s">
         <v>76</v>
       </c>
-      <c r="D189" s="23">
+      <c r="D189" s="17">
         <v>37872</v>
       </c>
     </row>
-    <row r="190" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>137</v>
       </c>
@@ -3873,11 +3865,11 @@
       <c r="C190" t="s">
         <v>76</v>
       </c>
-      <c r="D190" s="28" t="s">
+      <c r="D190" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="191" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>137</v>
       </c>
@@ -3887,11 +3879,11 @@
       <c r="C191" t="s">
         <v>76</v>
       </c>
-      <c r="D191" s="36" t="s">
+      <c r="D191" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="192" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>137</v>
       </c>
@@ -3901,25 +3893,25 @@
       <c r="C192" t="s">
         <v>76</v>
       </c>
-      <c r="D192" s="23" t="s">
+      <c r="D192" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="193" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>137</v>
       </c>
-      <c r="B193" s="12" t="s">
+      <c r="B193" t="s">
         <v>155</v>
       </c>
-      <c r="C193" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D193" s="23" t="s">
+      <c r="C193" t="s">
+        <v>76</v>
+      </c>
+      <c r="D193" s="17" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="194" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>137</v>
       </c>
@@ -3929,11 +3921,11 @@
       <c r="C194" t="s">
         <v>76</v>
       </c>
-      <c r="D194" s="13" t="s">
+      <c r="D194" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="195" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>137</v>
       </c>
@@ -3943,81 +3935,81 @@
       <c r="C195" t="s">
         <v>76</v>
       </c>
-      <c r="D195" s="23">
+      <c r="D195" s="17">
         <v>38261</v>
       </c>
     </row>
-    <row r="196" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>137</v>
       </c>
-      <c r="B196" s="12" t="s">
+      <c r="B196" t="s">
         <v>148</v>
       </c>
-      <c r="C196" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D196" s="28" t="s">
+      <c r="C196" t="s">
+        <v>76</v>
+      </c>
+      <c r="D196" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="197" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>137</v>
       </c>
-      <c r="B197" s="12" t="s">
+      <c r="B197" t="s">
         <v>149</v>
       </c>
-      <c r="C197" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D197" s="13" t="s">
+      <c r="C197" t="s">
+        <v>76</v>
+      </c>
+      <c r="D197" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="198" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>137</v>
       </c>
-      <c r="B198" s="12" t="s">
+      <c r="B198" t="s">
         <v>150</v>
       </c>
-      <c r="C198" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D198" s="23" t="s">
+      <c r="C198" t="s">
+        <v>76</v>
+      </c>
+      <c r="D198" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="199" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>137</v>
       </c>
-      <c r="B199" s="39" t="s">
+      <c r="B199" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C199" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D199" s="23" t="s">
+      <c r="C199" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D199" s="17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="200" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="29" t="s">
+    <row r="200" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B200" s="29" t="s">
+      <c r="B200" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C200" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D200" s="35" t="s">
+      <c r="C200" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D200" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="201" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>117</v>
       </c>
@@ -4027,11 +4019,11 @@
       <c r="C201" t="s">
         <v>76</v>
       </c>
-      <c r="D201" s="23">
+      <c r="D201" s="17">
         <v>37872</v>
       </c>
     </row>
-    <row r="202" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>117</v>
       </c>
@@ -4041,11 +4033,11 @@
       <c r="C202" t="s">
         <v>76</v>
       </c>
-      <c r="D202" s="28" t="s">
+      <c r="D202" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="203" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>117</v>
       </c>
@@ -4055,11 +4047,11 @@
       <c r="C203" t="s">
         <v>76</v>
       </c>
-      <c r="D203" s="36" t="s">
+      <c r="D203" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="204" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>117</v>
       </c>
@@ -4069,25 +4061,25 @@
       <c r="C204" t="s">
         <v>76</v>
       </c>
-      <c r="D204" s="23" t="s">
+      <c r="D204" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="205" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>117</v>
       </c>
-      <c r="B205" s="12" t="s">
+      <c r="B205" t="s">
         <v>155</v>
       </c>
-      <c r="C205" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D205" s="23" t="s">
+      <c r="C205" t="s">
+        <v>76</v>
+      </c>
+      <c r="D205" s="17" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="206" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>117</v>
       </c>
@@ -4097,11 +4089,11 @@
       <c r="C206" t="s">
         <v>76</v>
       </c>
-      <c r="D206" s="13" t="s">
+      <c r="D206" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="207" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>117</v>
       </c>
@@ -4111,81 +4103,81 @@
       <c r="C207" t="s">
         <v>76</v>
       </c>
-      <c r="D207" s="23">
+      <c r="D207" s="17">
         <v>38261</v>
       </c>
     </row>
-    <row r="208" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>117</v>
       </c>
-      <c r="B208" s="12" t="s">
+      <c r="B208" t="s">
         <v>148</v>
       </c>
-      <c r="C208" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D208" s="28" t="s">
+      <c r="C208" t="s">
+        <v>76</v>
+      </c>
+      <c r="D208" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="209" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>117</v>
       </c>
-      <c r="B209" s="12" t="s">
+      <c r="B209" t="s">
         <v>149</v>
       </c>
-      <c r="C209" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D209" s="13" t="s">
+      <c r="C209" t="s">
+        <v>76</v>
+      </c>
+      <c r="D209" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="210" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>117</v>
       </c>
-      <c r="B210" s="12" t="s">
+      <c r="B210" t="s">
         <v>150</v>
       </c>
-      <c r="C210" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D210" s="23" t="s">
+      <c r="C210" t="s">
+        <v>76</v>
+      </c>
+      <c r="D210" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="211" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>117</v>
       </c>
-      <c r="B211" s="39" t="s">
+      <c r="B211" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C211" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D211" s="23" t="s">
+      <c r="C211" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D211" s="17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="212" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="29" t="s">
+    <row r="212" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B212" s="29" t="s">
+      <c r="B212" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C212" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D212" s="35" t="s">
+      <c r="C212" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D212" s="25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="213" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>135</v>
       </c>
@@ -4195,11 +4187,11 @@
       <c r="C213" t="s">
         <v>76</v>
       </c>
-      <c r="D213" s="23">
+      <c r="D213" s="17">
         <v>38261</v>
       </c>
     </row>
-    <row r="214" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>135</v>
       </c>
@@ -4209,11 +4201,11 @@
       <c r="C214" t="s">
         <v>76</v>
       </c>
-      <c r="D214" s="28" t="s">
+      <c r="D214" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="215" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>135</v>
       </c>
@@ -4223,11 +4215,11 @@
       <c r="C215" t="s">
         <v>76</v>
       </c>
-      <c r="D215" s="13" t="s">
+      <c r="D215" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="216" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>135</v>
       </c>
@@ -4237,25 +4229,25 @@
       <c r="C216" t="s">
         <v>76</v>
       </c>
-      <c r="D216" s="23" t="s">
+      <c r="D216" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="217" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>135</v>
       </c>
-      <c r="B217" s="12" t="s">
+      <c r="B217" t="s">
         <v>155</v>
       </c>
-      <c r="C217" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D217" s="23" t="s">
+      <c r="C217" t="s">
+        <v>76</v>
+      </c>
+      <c r="D217" s="17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="218" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>135</v>
       </c>
@@ -4265,23 +4257,23 @@
       <c r="C218" t="s">
         <v>76</v>
       </c>
-      <c r="D218" s="13" t="s">
+      <c r="D218" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="219" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>135</v>
       </c>
-      <c r="B219" s="21" t="s">
+      <c r="B219" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C219" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D219" s="22"/>
-    </row>
-    <row r="220" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C219" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D219" s="16"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>135</v>
       </c>
@@ -4291,11 +4283,11 @@
       <c r="C220" t="s">
         <v>76</v>
       </c>
-      <c r="D220" s="28" t="s">
+      <c r="D220" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="221" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>135</v>
       </c>
@@ -4305,11 +4297,11 @@
       <c r="C221" t="s">
         <v>76</v>
       </c>
-      <c r="D221" s="13" t="s">
+      <c r="D221" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="222" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>135</v>
       </c>
@@ -4319,37 +4311,37 @@
       <c r="C222" t="s">
         <v>76</v>
       </c>
-      <c r="D222" s="23" t="s">
+      <c r="D222" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="223" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>135</v>
       </c>
-      <c r="B223" s="38" t="s">
+      <c r="B223" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C223" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D223" s="13"/>
-    </row>
-    <row r="224" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="29" t="s">
+      <c r="C223" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D223" s="9"/>
+    </row>
+    <row r="224" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B224" s="29" t="s">
+      <c r="B224" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C224" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D224" s="35" t="s">
+      <c r="C224" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D224" s="25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="225" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>115</v>
       </c>
@@ -4359,11 +4351,11 @@
       <c r="C225" t="s">
         <v>76</v>
       </c>
-      <c r="D225" s="23">
+      <c r="D225" s="17">
         <v>38261</v>
       </c>
     </row>
-    <row r="226" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>115</v>
       </c>
@@ -4373,11 +4365,11 @@
       <c r="C226" t="s">
         <v>76</v>
       </c>
-      <c r="D226" s="28" t="s">
+      <c r="D226" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="227" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>115</v>
       </c>
@@ -4387,11 +4379,11 @@
       <c r="C227" t="s">
         <v>76</v>
       </c>
-      <c r="D227" s="13" t="s">
+      <c r="D227" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="228" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>115</v>
       </c>
@@ -4401,25 +4393,25 @@
       <c r="C228" t="s">
         <v>76</v>
       </c>
-      <c r="D228" s="23" t="s">
+      <c r="D228" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="229" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="12" t="s">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
         <v>115</v>
       </c>
-      <c r="B229" s="12" t="s">
+      <c r="B229" t="s">
         <v>155</v>
       </c>
-      <c r="C229" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D229" s="23" t="s">
+      <c r="C229" t="s">
+        <v>76</v>
+      </c>
+      <c r="D229" s="17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="230" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>115</v>
       </c>
@@ -4429,23 +4421,23 @@
       <c r="C230" t="s">
         <v>76</v>
       </c>
-      <c r="D230" s="13" t="s">
+      <c r="D230" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="231" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>115</v>
       </c>
-      <c r="B231" s="21" t="s">
+      <c r="B231" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C231" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D231" s="22"/>
-    </row>
-    <row r="232" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C231" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D231" s="16"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>115</v>
       </c>
@@ -4455,11 +4447,11 @@
       <c r="C232" t="s">
         <v>76</v>
       </c>
-      <c r="D232" s="28" t="s">
+      <c r="D232" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="233" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>115</v>
       </c>
@@ -4469,11 +4461,11 @@
       <c r="C233" t="s">
         <v>76</v>
       </c>
-      <c r="D233" s="13" t="s">
+      <c r="D233" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="234" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>115</v>
       </c>
@@ -4483,49 +4475,49 @@
       <c r="C234" t="s">
         <v>76</v>
       </c>
-      <c r="D234" s="23" t="s">
+      <c r="D234" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="235" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="21" t="s">
+    <row r="235" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B235" s="38" t="s">
+      <c r="B235" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C235" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D235" s="22"/>
-    </row>
-    <row r="236" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="29" t="s">
+      <c r="C235" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D235" s="16"/>
+    </row>
+    <row r="236" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B236" s="29" t="s">
+      <c r="B236" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C236" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D236" s="35" t="s">
+      <c r="C236" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D236" s="25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="237" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="21" t="s">
+    <row r="237" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B237" s="21" t="s">
+      <c r="B237" s="15" t="s">
         <v>145</v>
       </c>
       <c r="C237" t="s">
         <v>76</v>
       </c>
-      <c r="D237" s="22"/>
-    </row>
-    <row r="238" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D237" s="16"/>
+    </row>
+    <row r="238" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>136</v>
       </c>
@@ -4535,11 +4527,11 @@
       <c r="C238" t="s">
         <v>76</v>
       </c>
-      <c r="D238" s="28" t="s">
+      <c r="D238" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="239" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>136</v>
       </c>
@@ -4549,11 +4541,11 @@
       <c r="C239" t="s">
         <v>76</v>
       </c>
-      <c r="D239" s="36" t="s">
+      <c r="D239" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="240" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>136</v>
       </c>
@@ -4563,23 +4555,23 @@
       <c r="C240" t="s">
         <v>76</v>
       </c>
-      <c r="D240" s="23" t="s">
+      <c r="D240" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="241" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>136</v>
       </c>
-      <c r="B241" s="21" t="s">
+      <c r="B241" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C241" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D241" s="22"/>
-    </row>
-    <row r="242" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C241" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D241" s="16"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>136</v>
       </c>
@@ -4589,11 +4581,11 @@
       <c r="C242" t="s">
         <v>76</v>
       </c>
-      <c r="D242" s="13" t="s">
+      <c r="D242" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="243" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>136</v>
       </c>
@@ -4603,11 +4595,11 @@
       <c r="C243" t="s">
         <v>76</v>
       </c>
-      <c r="D243" s="18">
+      <c r="D243" s="14">
         <v>38990</v>
       </c>
     </row>
-    <row r="244" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>136</v>
       </c>
@@ -4617,11 +4609,11 @@
       <c r="C244" t="s">
         <v>76</v>
       </c>
-      <c r="D244" s="16" t="s">
+      <c r="D244" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="245" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>136</v>
       </c>
@@ -4631,11 +4623,11 @@
       <c r="C245" t="s">
         <v>76</v>
       </c>
-      <c r="D245" s="18" t="s">
+      <c r="D245" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="246" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>136</v>
       </c>
@@ -4645,51 +4637,51 @@
       <c r="C246" t="s">
         <v>76</v>
       </c>
-      <c r="D246" s="16" t="s">
+      <c r="D246" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="247" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>136</v>
       </c>
-      <c r="B247" s="25" t="s">
+      <c r="B247" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C247" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D247" s="16" t="s">
+      <c r="C247" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D247" s="12" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="248" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="29" t="s">
+    <row r="248" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B248" s="29" t="s">
+      <c r="B248" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C248" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D248" s="35" t="s">
+      <c r="C248" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D248" s="25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="249" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="21" t="s">
+    <row r="249" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B249" s="21" t="s">
+      <c r="B249" s="15" t="s">
         <v>145</v>
       </c>
       <c r="C249" t="s">
         <v>76</v>
       </c>
-      <c r="D249" s="22"/>
-    </row>
-    <row r="250" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D249" s="16"/>
+    </row>
+    <row r="250" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>114</v>
       </c>
@@ -4699,11 +4691,11 @@
       <c r="C250" t="s">
         <v>76</v>
       </c>
-      <c r="D250" s="28" t="s">
+      <c r="D250" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="251" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>114</v>
       </c>
@@ -4713,11 +4705,11 @@
       <c r="C251" t="s">
         <v>76</v>
       </c>
-      <c r="D251" s="36" t="s">
+      <c r="D251" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="252" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>114</v>
       </c>
@@ -4727,23 +4719,23 @@
       <c r="C252" t="s">
         <v>76</v>
       </c>
-      <c r="D252" s="23" t="s">
+      <c r="D252" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="253" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="21" t="s">
+    <row r="253" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B253" s="21" t="s">
+      <c r="B253" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C253" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D253" s="37"/>
-    </row>
-    <row r="254" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C253" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D253" s="26"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>114</v>
       </c>
@@ -4753,11 +4745,11 @@
       <c r="C254" t="s">
         <v>76</v>
       </c>
-      <c r="D254" s="13" t="s">
+      <c r="D254" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="255" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>114</v>
       </c>
@@ -4767,11 +4759,11 @@
       <c r="C255" t="s">
         <v>76</v>
       </c>
-      <c r="D255" s="18">
+      <c r="D255" s="14">
         <v>38990</v>
       </c>
     </row>
-    <row r="256" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>114</v>
       </c>
@@ -4781,11 +4773,11 @@
       <c r="C256" t="s">
         <v>76</v>
       </c>
-      <c r="D256" s="28" t="s">
+      <c r="D256" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="257" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>114</v>
       </c>
@@ -4795,11 +4787,11 @@
       <c r="C257" t="s">
         <v>76</v>
       </c>
-      <c r="D257" s="13" t="s">
+      <c r="D257" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="258" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>114</v>
       </c>
@@ -4809,39 +4801,39 @@
       <c r="C258" t="s">
         <v>76</v>
       </c>
-      <c r="D258" s="23" t="s">
+      <c r="D258" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="259" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>114</v>
       </c>
-      <c r="B259" s="25" t="s">
+      <c r="B259" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C259" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D259" s="23" t="s">
+      <c r="C259" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D259" s="17" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="260" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="29" t="s">
+    <row r="260" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B260" s="29" t="s">
+      <c r="B260" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C260" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D260" s="35" t="s">
+      <c r="C260" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D260" s="25" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="261" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>108</v>
       </c>
@@ -4851,11 +4843,11 @@
       <c r="C261" t="s">
         <v>76</v>
       </c>
-      <c r="D261" s="18">
+      <c r="D261" s="14">
         <v>38990</v>
       </c>
     </row>
-    <row r="262" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>108</v>
       </c>
@@ -4865,11 +4857,11 @@
       <c r="C262" t="s">
         <v>76</v>
       </c>
-      <c r="D262" s="16" t="s">
+      <c r="D262" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="263" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>108</v>
       </c>
@@ -4879,11 +4871,11 @@
       <c r="C263" t="s">
         <v>76</v>
       </c>
-      <c r="D263" s="18" t="s">
+      <c r="D263" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="264" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>108</v>
       </c>
@@ -4893,11 +4885,11 @@
       <c r="C264" t="s">
         <v>76</v>
       </c>
-      <c r="D264" s="16" t="s">
+      <c r="D264" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="265" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>108</v>
       </c>
@@ -4907,11 +4899,11 @@
       <c r="C265" t="s">
         <v>76</v>
       </c>
-      <c r="D265" s="16" t="s">
+      <c r="D265" s="12" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="266" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>108</v>
       </c>
@@ -4921,11 +4913,11 @@
       <c r="C266" t="s">
         <v>76</v>
       </c>
-      <c r="D266" s="13" t="s">
+      <c r="D266" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="267" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>108</v>
       </c>
@@ -4935,11 +4927,11 @@
       <c r="C267" t="s">
         <v>76</v>
       </c>
-      <c r="D267" s="13" t="s">
+      <c r="D267" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="268" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>108</v>
       </c>
@@ -4949,11 +4941,11 @@
       <c r="C268" t="s">
         <v>76</v>
       </c>
-      <c r="D268" s="13" t="s">
+      <c r="D268" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="269" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>108</v>
       </c>
@@ -4963,11 +4955,11 @@
       <c r="C269" t="s">
         <v>76</v>
       </c>
-      <c r="D269" s="13" t="s">
+      <c r="D269" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="270" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>108</v>
       </c>
@@ -4977,39 +4969,39 @@
       <c r="C270" t="s">
         <v>76</v>
       </c>
-      <c r="D270" s="13" t="s">
+      <c r="D270" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="271" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>108</v>
       </c>
-      <c r="B271" s="25" t="s">
+      <c r="B271" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C271" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D271" s="13" t="s">
+      <c r="C271" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D271" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="272" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="29" t="s">
+    <row r="272" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B272" s="29" t="s">
+      <c r="B272" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C272" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D272" s="35" t="s">
+      <c r="C272" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D272" s="25" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="273" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>107</v>
       </c>
@@ -5019,11 +5011,11 @@
       <c r="C273" t="s">
         <v>76</v>
       </c>
-      <c r="D273" s="18">
+      <c r="D273" s="14">
         <v>38990</v>
       </c>
     </row>
-    <row r="274" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>107</v>
       </c>
@@ -5033,11 +5025,11 @@
       <c r="C274" t="s">
         <v>76</v>
       </c>
-      <c r="D274" s="28" t="s">
+      <c r="D274" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="275" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>107</v>
       </c>
@@ -5047,11 +5039,11 @@
       <c r="C275" t="s">
         <v>76</v>
       </c>
-      <c r="D275" s="36" t="s">
+      <c r="D275" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="276" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>107</v>
       </c>
@@ -5061,11 +5053,11 @@
       <c r="C276" t="s">
         <v>76</v>
       </c>
-      <c r="D276" s="23" t="s">
+      <c r="D276" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="277" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>107</v>
       </c>
@@ -5075,11 +5067,11 @@
       <c r="C277" t="s">
         <v>76</v>
       </c>
-      <c r="D277" s="23" t="s">
+      <c r="D277" s="17" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="278" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>107</v>
       </c>
@@ -5089,11 +5081,11 @@
       <c r="C278" t="s">
         <v>76</v>
       </c>
-      <c r="D278" s="13" t="s">
+      <c r="D278" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="279" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>107</v>
       </c>
@@ -5103,11 +5095,11 @@
       <c r="C279" t="s">
         <v>76</v>
       </c>
-      <c r="D279" s="18">
+      <c r="D279" s="14">
         <v>39432</v>
       </c>
     </row>
-    <row r="280" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>107</v>
       </c>
@@ -5117,11 +5109,11 @@
       <c r="C280" t="s">
         <v>76</v>
       </c>
-      <c r="D280" s="23" t="s">
+      <c r="D280" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="281" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>107</v>
       </c>
@@ -5131,11 +5123,11 @@
       <c r="C281" t="s">
         <v>76</v>
       </c>
-      <c r="D281" s="13" t="s">
+      <c r="D281" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="282" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>107</v>
       </c>
@@ -5145,39 +5137,39 @@
       <c r="C282" t="s">
         <v>76</v>
       </c>
-      <c r="D282" s="23" t="s">
+      <c r="D282" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="283" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>107</v>
       </c>
-      <c r="B283" s="25" t="s">
+      <c r="B283" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C283" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D283" s="23" t="s">
+      <c r="C283" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D283" s="17" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="284" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="29" t="s">
+    <row r="284" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="B284" s="29" t="s">
+      <c r="B284" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C284" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D284" s="29" t="s">
+      <c r="C284" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D284" s="20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="285" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>142</v>
       </c>
@@ -5187,11 +5179,11 @@
       <c r="C285" t="s">
         <v>76</v>
       </c>
-      <c r="D285" s="23">
+      <c r="D285" s="17">
         <v>39724</v>
       </c>
     </row>
-    <row r="286" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>142</v>
       </c>
@@ -5201,11 +5193,11 @@
       <c r="C286" t="s">
         <v>76</v>
       </c>
-      <c r="D286" s="23" t="s">
+      <c r="D286" s="17" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="287" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>142</v>
       </c>
@@ -5215,11 +5207,11 @@
       <c r="C287" t="s">
         <v>76</v>
       </c>
-      <c r="D287" s="26" t="s">
+      <c r="D287" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="288" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>142</v>
       </c>
@@ -5229,11 +5221,11 @@
       <c r="C288" t="s">
         <v>76</v>
       </c>
-      <c r="D288" s="23" t="s">
+      <c r="D288" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="289" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>142</v>
       </c>
@@ -5243,11 +5235,11 @@
       <c r="C289" t="s">
         <v>76</v>
       </c>
-      <c r="D289" s="23" t="s">
+      <c r="D289" s="17" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="290" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>142</v>
       </c>
@@ -5257,11 +5249,11 @@
       <c r="C290" t="s">
         <v>76</v>
       </c>
-      <c r="D290" s="12" t="s">
+      <c r="D290" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="291" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>142</v>
       </c>
@@ -5271,11 +5263,11 @@
       <c r="C291" t="s">
         <v>76</v>
       </c>
-      <c r="D291" s="19">
+      <c r="D291" s="11">
         <v>40078</v>
       </c>
     </row>
-    <row r="292" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>142</v>
       </c>
@@ -5285,11 +5277,11 @@
       <c r="C292" t="s">
         <v>76</v>
       </c>
-      <c r="D292" s="16" t="s">
+      <c r="D292" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="293" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>142</v>
       </c>
@@ -5299,11 +5291,11 @@
       <c r="C293" t="s">
         <v>76</v>
       </c>
-      <c r="D293" s="19" t="s">
+      <c r="D293" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="294" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>142</v>
       </c>
@@ -5313,39 +5305,39 @@
       <c r="C294" t="s">
         <v>76</v>
       </c>
-      <c r="D294" s="16" t="s">
+      <c r="D294" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="295" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>142</v>
       </c>
-      <c r="B295" s="25" t="s">
+      <c r="B295" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C295" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D295" s="16" t="s">
+      <c r="C295" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D295" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="296" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="29" t="s">
+    <row r="296" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B296" s="29" t="s">
+      <c r="B296" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C296" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D296" s="34" t="s">
+      <c r="C296" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D296" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="297" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>104</v>
       </c>
@@ -5355,11 +5347,11 @@
       <c r="C297" t="s">
         <v>76</v>
       </c>
-      <c r="D297" s="19">
+      <c r="D297" s="11">
         <v>40078</v>
       </c>
     </row>
-    <row r="298" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>104</v>
       </c>
@@ -5369,11 +5361,11 @@
       <c r="C298" t="s">
         <v>76</v>
       </c>
-      <c r="D298" s="16" t="s">
+      <c r="D298" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="299" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>104</v>
       </c>
@@ -5383,11 +5375,11 @@
       <c r="C299" t="s">
         <v>76</v>
       </c>
-      <c r="D299" s="19" t="s">
+      <c r="D299" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="300" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>104</v>
       </c>
@@ -5397,11 +5389,11 @@
       <c r="C300" t="s">
         <v>76</v>
       </c>
-      <c r="D300" s="16" t="s">
+      <c r="D300" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="301" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>104</v>
       </c>
@@ -5411,11 +5403,11 @@
       <c r="C301" t="s">
         <v>76</v>
       </c>
-      <c r="D301" s="16" t="s">
+      <c r="D301" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="302" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>104</v>
       </c>
@@ -5425,11 +5417,11 @@
       <c r="C302" t="s">
         <v>76</v>
       </c>
-      <c r="D302" s="12" t="s">
+      <c r="D302" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="303" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>104</v>
       </c>
@@ -5439,11 +5431,11 @@
       <c r="C303" t="s">
         <v>76</v>
       </c>
-      <c r="D303" s="23">
+      <c r="D303" s="17">
         <v>40428</v>
       </c>
     </row>
-    <row r="304" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>104</v>
       </c>
@@ -5453,11 +5445,11 @@
       <c r="C304" t="s">
         <v>76</v>
       </c>
-      <c r="D304" s="16" t="s">
+      <c r="D304" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="305" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>104</v>
       </c>
@@ -5467,11 +5459,11 @@
       <c r="C305" t="s">
         <v>76</v>
       </c>
-      <c r="D305" s="23" t="s">
+      <c r="D305" s="17" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="306" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>104</v>
       </c>
@@ -5481,39 +5473,39 @@
       <c r="C306" t="s">
         <v>76</v>
       </c>
-      <c r="D306" s="16" t="s">
+      <c r="D306" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="307" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>104</v>
       </c>
-      <c r="B307" s="25" t="s">
+      <c r="B307" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C307" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D307" s="16" t="s">
+      <c r="C307" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D307" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="308" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="29" t="s">
+    <row r="308" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B308" s="29" t="s">
+      <c r="B308" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C308" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D308" s="34" t="s">
+      <c r="C308" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D308" s="20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="309" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>102</v>
       </c>
@@ -5523,11 +5515,11 @@
       <c r="C309" t="s">
         <v>76</v>
       </c>
-      <c r="D309" s="23">
+      <c r="D309" s="17">
         <v>40428</v>
       </c>
     </row>
-    <row r="310" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>102</v>
       </c>
@@ -5537,11 +5529,11 @@
       <c r="C310" t="s">
         <v>76</v>
       </c>
-      <c r="D310" s="16" t="s">
+      <c r="D310" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="311" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>102</v>
       </c>
@@ -5551,11 +5543,11 @@
       <c r="C311" t="s">
         <v>76</v>
       </c>
-      <c r="D311" s="23" t="s">
+      <c r="D311" s="17" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="312" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>102</v>
       </c>
@@ -5565,11 +5557,11 @@
       <c r="C312" t="s">
         <v>76</v>
       </c>
-      <c r="D312" s="16" t="s">
+      <c r="D312" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="313" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>102</v>
       </c>
@@ -5579,11 +5571,11 @@
       <c r="C313" t="s">
         <v>76</v>
       </c>
-      <c r="D313" s="16" t="s">
+      <c r="D313" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="314" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>102</v>
       </c>
@@ -5593,11 +5585,11 @@
       <c r="C314" t="s">
         <v>76</v>
       </c>
-      <c r="D314" s="13" t="s">
+      <c r="D314" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="315" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>102</v>
       </c>
@@ -5607,11 +5599,11 @@
       <c r="C315" t="s">
         <v>76</v>
       </c>
-      <c r="D315" s="23">
+      <c r="D315" s="17">
         <v>40756</v>
       </c>
     </row>
-    <row r="316" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>102</v>
       </c>
@@ -5621,11 +5613,11 @@
       <c r="C316" t="s">
         <v>76</v>
       </c>
-      <c r="D316" s="16" t="s">
+      <c r="D316" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="317" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>102</v>
       </c>
@@ -5635,11 +5627,11 @@
       <c r="C317" t="s">
         <v>76</v>
       </c>
-      <c r="D317" s="23" t="s">
+      <c r="D317" s="17" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="318" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>102</v>
       </c>
@@ -5649,39 +5641,39 @@
       <c r="C318" t="s">
         <v>76</v>
       </c>
-      <c r="D318" s="16" t="s">
+      <c r="D318" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="319" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>102</v>
       </c>
-      <c r="B319" s="25" t="s">
+      <c r="B319" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C319" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D319" s="16" t="s">
+      <c r="C319" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D319" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="320" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="29" t="s">
+    <row r="320" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B320" s="29" t="s">
+      <c r="B320" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C320" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D320" s="35" t="s">
+      <c r="C320" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D320" s="25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="321" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>100</v>
       </c>
@@ -5691,11 +5683,11 @@
       <c r="C321" t="s">
         <v>76</v>
       </c>
-      <c r="D321" s="23">
+      <c r="D321" s="17">
         <v>40756</v>
       </c>
     </row>
-    <row r="322" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>100</v>
       </c>
@@ -5705,11 +5697,11 @@
       <c r="C322" t="s">
         <v>76</v>
       </c>
-      <c r="D322" s="16" t="s">
+      <c r="D322" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="323" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>100</v>
       </c>
@@ -5719,11 +5711,11 @@
       <c r="C323" t="s">
         <v>76</v>
       </c>
-      <c r="D323" s="23" t="s">
+      <c r="D323" s="17" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="324" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>100</v>
       </c>
@@ -5733,11 +5725,11 @@
       <c r="C324" t="s">
         <v>76</v>
       </c>
-      <c r="D324" s="16" t="s">
+      <c r="D324" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="325" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>100</v>
       </c>
@@ -5747,11 +5739,11 @@
       <c r="C325" t="s">
         <v>76</v>
       </c>
-      <c r="D325" s="16" t="s">
+      <c r="D325" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="326" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>100</v>
       </c>
@@ -5761,11 +5753,11 @@
       <c r="C326" t="s">
         <v>76</v>
       </c>
-      <c r="D326" s="13" t="s">
+      <c r="D326" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="327" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>100</v>
       </c>
@@ -5775,11 +5767,11 @@
       <c r="C327" t="s">
         <v>76</v>
       </c>
-      <c r="D327" s="17">
+      <c r="D327" s="13">
         <v>41102</v>
       </c>
     </row>
-    <row r="328" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>100</v>
       </c>
@@ -5789,11 +5781,11 @@
       <c r="C328" t="s">
         <v>76</v>
       </c>
-      <c r="D328" s="16" t="s">
+      <c r="D328" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="329" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>100</v>
       </c>
@@ -5803,11 +5795,11 @@
       <c r="C329" t="s">
         <v>76</v>
       </c>
-      <c r="D329" s="17" t="s">
+      <c r="D329" s="13" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="330" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>100</v>
       </c>
@@ -5817,39 +5809,39 @@
       <c r="C330" t="s">
         <v>76</v>
       </c>
-      <c r="D330" s="16" t="s">
+      <c r="D330" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="331" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>100</v>
       </c>
-      <c r="B331" s="25" t="s">
+      <c r="B331" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C331" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D331" s="16" t="s">
+      <c r="C331" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D331" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="332" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="29" t="s">
+    <row r="332" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B332" s="29" t="s">
+      <c r="B332" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C332" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D332" s="33" t="s">
+      <c r="C332" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D332" s="24" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="333" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>12</v>
       </c>
@@ -5859,11 +5851,11 @@
       <c r="C333" t="s">
         <v>76</v>
       </c>
-      <c r="D333" s="17">
+      <c r="D333" s="13">
         <v>41102</v>
       </c>
     </row>
-    <row r="334" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>12</v>
       </c>
@@ -5873,11 +5865,11 @@
       <c r="C334" t="s">
         <v>76</v>
       </c>
-      <c r="D334" s="16" t="s">
+      <c r="D334" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="335" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>12</v>
       </c>
@@ -5887,11 +5879,11 @@
       <c r="C335" t="s">
         <v>76</v>
       </c>
-      <c r="D335" s="17" t="s">
+      <c r="D335" s="13" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="336" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>12</v>
       </c>
@@ -5901,11 +5893,11 @@
       <c r="C336" t="s">
         <v>76</v>
       </c>
-      <c r="D336" s="16" t="s">
+      <c r="D336" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="337" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>12</v>
       </c>
@@ -5915,11 +5907,11 @@
       <c r="C337" t="s">
         <v>76</v>
       </c>
-      <c r="D337" s="16" t="s">
+      <c r="D337" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>12</v>
       </c>
@@ -5929,11 +5921,11 @@
       <c r="C338" t="s">
         <v>76</v>
       </c>
-      <c r="D338" s="4" t="s">
+      <c r="D338" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>12</v>
       </c>
@@ -5943,11 +5935,11 @@
       <c r="C339" t="s">
         <v>76</v>
       </c>
-      <c r="D339" s="23">
+      <c r="D339" s="17">
         <v>41553</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>12</v>
       </c>
@@ -5957,11 +5949,11 @@
       <c r="C340" t="s">
         <v>76</v>
       </c>
-      <c r="D340" s="16" t="s">
+      <c r="D340" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>12</v>
       </c>
@@ -5971,11 +5963,11 @@
       <c r="C341" t="s">
         <v>76</v>
       </c>
-      <c r="D341" s="23" t="s">
+      <c r="D341" s="17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>12</v>
       </c>
@@ -5985,39 +5977,39 @@
       <c r="C342" t="s">
         <v>76</v>
       </c>
-      <c r="D342" s="16" t="s">
+      <c r="D342" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>12</v>
       </c>
-      <c r="B343" s="25" t="s">
+      <c r="B343" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C343" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D343" s="16" t="s">
+      <c r="C343" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D343" s="12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="344" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="29" t="s">
+    <row r="344" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B344" s="29" t="s">
+      <c r="B344" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C344" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D344" s="32" t="s">
+      <c r="C344" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D344" s="23" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>78</v>
       </c>
@@ -6027,11 +6019,11 @@
       <c r="C345" t="s">
         <v>76</v>
       </c>
-      <c r="D345" s="16">
+      <c r="D345" s="12">
         <v>41392</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>78</v>
       </c>
@@ -6041,11 +6033,11 @@
       <c r="C346" t="s">
         <v>76</v>
       </c>
-      <c r="D346" s="16" t="s">
+      <c r="D346" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>78</v>
       </c>
@@ -6055,11 +6047,11 @@
       <c r="C347" t="s">
         <v>76</v>
       </c>
-      <c r="D347" s="16" t="s">
+      <c r="D347" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>78</v>
       </c>
@@ -6069,11 +6061,11 @@
       <c r="C348" t="s">
         <v>76</v>
       </c>
-      <c r="D348" s="16" t="s">
+      <c r="D348" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>78</v>
       </c>
@@ -6083,11 +6075,11 @@
       <c r="C349" t="s">
         <v>76</v>
       </c>
-      <c r="D349" s="16" t="s">
+      <c r="D349" s="12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>78</v>
       </c>
@@ -6097,11 +6089,11 @@
       <c r="C350" t="s">
         <v>76</v>
       </c>
-      <c r="D350" s="4" t="s">
+      <c r="D350" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>78</v>
       </c>
@@ -6111,11 +6103,11 @@
       <c r="C351" t="s">
         <v>76</v>
       </c>
-      <c r="D351" s="15">
+      <c r="D351" s="11">
         <v>42084</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>78</v>
       </c>
@@ -6125,11 +6117,11 @@
       <c r="C352" t="s">
         <v>76</v>
       </c>
-      <c r="D352" s="15" t="s">
+      <c r="D352" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>78</v>
       </c>
@@ -6139,11 +6131,11 @@
       <c r="C353" t="s">
         <v>76</v>
       </c>
-      <c r="D353" s="15" t="s">
+      <c r="D353" s="11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>78</v>
       </c>
@@ -6153,39 +6145,39 @@
       <c r="C354" t="s">
         <v>76</v>
       </c>
-      <c r="D354" s="15" t="s">
+      <c r="D354" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>78</v>
       </c>
-      <c r="B355" s="25" t="s">
+      <c r="B355" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C355" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D355" s="15" t="s">
+      <c r="C355" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D355" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="356" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="29" t="s">
+    <row r="356" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A356" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B356" s="29" t="s">
+      <c r="B356" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C356" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D356" s="30" t="s">
+      <c r="C356" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D356" s="21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>80</v>
       </c>
@@ -6195,11 +6187,11 @@
       <c r="C357" t="s">
         <v>76</v>
       </c>
-      <c r="D357" s="15">
+      <c r="D357" s="11">
         <v>42084</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>80</v>
       </c>
@@ -6209,11 +6201,11 @@
       <c r="C358" t="s">
         <v>76</v>
       </c>
-      <c r="D358" s="15" t="s">
+      <c r="D358" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>80</v>
       </c>
@@ -6223,11 +6215,11 @@
       <c r="C359" t="s">
         <v>76</v>
       </c>
-      <c r="D359" s="15" t="s">
+      <c r="D359" s="11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>80</v>
       </c>
@@ -6237,11 +6229,11 @@
       <c r="C360" t="s">
         <v>76</v>
       </c>
-      <c r="D360" s="15" t="s">
+      <c r="D360" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>80</v>
       </c>
@@ -6251,11 +6243,11 @@
       <c r="C361" t="s">
         <v>76</v>
       </c>
-      <c r="D361" s="15" t="s">
+      <c r="D361" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>80</v>
       </c>
@@ -6265,25 +6257,25 @@
       <c r="C362" t="s">
         <v>76</v>
       </c>
-      <c r="D362" s="4" t="s">
+      <c r="D362" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="363" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>80</v>
       </c>
-      <c r="B363" s="26" t="s">
+      <c r="B363" t="s">
         <v>146</v>
       </c>
-      <c r="C363" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D363" s="27">
+      <c r="C363" t="s">
+        <v>76</v>
+      </c>
+      <c r="D363" s="11">
         <v>42443</v>
       </c>
     </row>
-    <row r="364" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>80</v>
       </c>
@@ -6293,11 +6285,11 @@
       <c r="C364" t="s">
         <v>76</v>
       </c>
-      <c r="D364" s="15" t="s">
+      <c r="D364" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="365" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>80</v>
       </c>
@@ -6307,11 +6299,11 @@
       <c r="C365" t="s">
         <v>76</v>
       </c>
-      <c r="D365" s="15" t="s">
+      <c r="D365" s="11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="366" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>80</v>
       </c>
@@ -6321,39 +6313,39 @@
       <c r="C366" t="s">
         <v>76</v>
       </c>
-      <c r="D366" s="15" t="s">
+      <c r="D366" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="367" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>80</v>
       </c>
-      <c r="B367" s="25" t="s">
+      <c r="B367" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C367" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D367" s="15" t="s">
+      <c r="C367" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D367" s="11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="368" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="29" t="s">
+    <row r="368" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A368" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B368" s="29" t="s">
+      <c r="B368" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C368" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D368" s="30" t="s">
+      <c r="C368" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D368" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>82</v>
       </c>
@@ -6363,11 +6355,11 @@
       <c r="C369" t="s">
         <v>76</v>
       </c>
-      <c r="D369" s="15">
+      <c r="D369" s="11">
         <v>42443</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>82</v>
       </c>
@@ -6377,11 +6369,11 @@
       <c r="C370" t="s">
         <v>76</v>
       </c>
-      <c r="D370" s="15" t="s">
+      <c r="D370" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>82</v>
       </c>
@@ -6391,11 +6383,11 @@
       <c r="C371" t="s">
         <v>76</v>
       </c>
-      <c r="D371" s="15" t="s">
+      <c r="D371" s="11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>82</v>
       </c>
@@ -6405,11 +6397,11 @@
       <c r="C372" t="s">
         <v>76</v>
       </c>
-      <c r="D372" s="15" t="s">
+      <c r="D372" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>82</v>
       </c>
@@ -6419,11 +6411,11 @@
       <c r="C373" t="s">
         <v>76</v>
       </c>
-      <c r="D373" s="15" t="s">
+      <c r="D373" s="11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>82</v>
       </c>
@@ -6433,25 +6425,25 @@
       <c r="C374" t="s">
         <v>76</v>
       </c>
-      <c r="D374" s="4" t="s">
+      <c r="D374" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="375" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>82</v>
       </c>
-      <c r="B375" s="26" t="s">
+      <c r="B375" t="s">
         <v>146</v>
       </c>
-      <c r="C375" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D375" s="27">
+      <c r="C375" t="s">
+        <v>76</v>
+      </c>
+      <c r="D375" s="11">
         <v>42811</v>
       </c>
     </row>
-    <row r="376" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>82</v>
       </c>
@@ -6461,11 +6453,11 @@
       <c r="C376" t="s">
         <v>76</v>
       </c>
-      <c r="D376" s="15" t="s">
+      <c r="D376" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="377" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>82</v>
       </c>
@@ -6475,11 +6467,11 @@
       <c r="C377" t="s">
         <v>76</v>
       </c>
-      <c r="D377" s="15" t="s">
+      <c r="D377" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="378" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>82</v>
       </c>
@@ -6489,40 +6481,40 @@
       <c r="C378" t="s">
         <v>76</v>
       </c>
-      <c r="D378" s="15" t="s">
+      <c r="D378" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="379" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>82</v>
       </c>
-      <c r="B379" s="25" t="s">
+      <c r="B379" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C379" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D379" s="15" t="s">
+      <c r="C379" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D379" s="11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="380" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="31" t="s">
+    <row r="380" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A380" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B380" s="29" t="s">
+      <c r="B380" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C380" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D380" s="30" t="s">
+      <c r="C380" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D380" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A381" s="10" t="s">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A381" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B381" t="s">
@@ -6531,12 +6523,12 @@
       <c r="C381" t="s">
         <v>76</v>
       </c>
-      <c r="D381" s="15">
+      <c r="D381" s="11">
         <v>42811</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A382" s="10" t="s">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A382" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B382" t="s">
@@ -6545,12 +6537,12 @@
       <c r="C382" t="s">
         <v>76</v>
       </c>
-      <c r="D382" s="15" t="s">
+      <c r="D382" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A383" s="10" t="s">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A383" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B383" t="s">
@@ -6559,12 +6551,12 @@
       <c r="C383" t="s">
         <v>76</v>
       </c>
-      <c r="D383" s="15" t="s">
+      <c r="D383" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A384" s="10" t="s">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A384" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B384" t="s">
@@ -6573,12 +6565,12 @@
       <c r="C384" t="s">
         <v>76</v>
       </c>
-      <c r="D384" s="15" t="s">
+      <c r="D384" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" s="10" t="s">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A385" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B385" t="s">
@@ -6587,12 +6579,12 @@
       <c r="C385" t="s">
         <v>76</v>
       </c>
-      <c r="D385" s="15" t="s">
+      <c r="D385" s="11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" s="10" t="s">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A386" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B386" t="s">
@@ -6601,26 +6593,26 @@
       <c r="C386" t="s">
         <v>76</v>
       </c>
-      <c r="D386" s="4" t="s">
+      <c r="D386" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="387" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="10" t="s">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A387" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B387" s="26" t="s">
+      <c r="B387" t="s">
         <v>146</v>
       </c>
-      <c r="C387" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D387" s="28">
+      <c r="C387" t="s">
+        <v>76</v>
+      </c>
+      <c r="D387" s="17">
         <v>43162</v>
       </c>
     </row>
-    <row r="388" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="10" t="s">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A388" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B388" t="s">
@@ -6629,12 +6621,12 @@
       <c r="C388" t="s">
         <v>76</v>
       </c>
-      <c r="D388" s="15" t="s">
+      <c r="D388" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="389" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="10" t="s">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A389" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B389" t="s">
@@ -6643,12 +6635,12 @@
       <c r="C389" t="s">
         <v>76</v>
       </c>
-      <c r="D389" s="28" t="s">
+      <c r="D389" s="17" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="390" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="10" t="s">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A390" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B390" t="s">
@@ -6657,39 +6649,39 @@
       <c r="C390" t="s">
         <v>76</v>
       </c>
-      <c r="D390" s="15" t="s">
+      <c r="D390" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="391" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="10" t="s">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A391" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B391" s="25" t="s">
+      <c r="B391" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C391" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D391" s="15" t="s">
+      <c r="C391" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D391" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="392" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="29" t="s">
+    <row r="392" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A392" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B392" s="29" t="s">
+      <c r="B392" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C392" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D392" s="30" t="s">
+      <c r="C392" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D392" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>96</v>
       </c>
@@ -6699,11 +6691,11 @@
       <c r="C393" t="s">
         <v>76</v>
       </c>
-      <c r="D393" s="23">
+      <c r="D393" s="17">
         <v>43162</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>96</v>
       </c>
@@ -6713,11 +6705,11 @@
       <c r="C394" t="s">
         <v>76</v>
       </c>
-      <c r="D394" s="15" t="s">
+      <c r="D394" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>96</v>
       </c>
@@ -6727,11 +6719,11 @@
       <c r="C395" t="s">
         <v>76</v>
       </c>
-      <c r="D395" s="23" t="s">
+      <c r="D395" s="17" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>96</v>
       </c>
@@ -6741,11 +6733,11 @@
       <c r="C396" t="s">
         <v>76</v>
       </c>
-      <c r="D396" s="15" t="s">
+      <c r="D396" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>96</v>
       </c>
@@ -6755,11 +6747,11 @@
       <c r="C397" t="s">
         <v>76</v>
       </c>
-      <c r="D397" s="15" t="s">
+      <c r="D397" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>96</v>
       </c>
@@ -6769,25 +6761,25 @@
       <c r="C398" t="s">
         <v>76</v>
       </c>
-      <c r="D398" s="4" t="s">
+      <c r="D398" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="399" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>96</v>
       </c>
-      <c r="B399" s="26" t="s">
+      <c r="B399" t="s">
         <v>146</v>
       </c>
-      <c r="C399" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D399" s="27">
+      <c r="C399" t="s">
+        <v>76</v>
+      </c>
+      <c r="D399" s="11">
         <v>43538</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>96</v>
       </c>
@@ -6797,11 +6789,11 @@
       <c r="C400" t="s">
         <v>76</v>
       </c>
-      <c r="D400" s="15" t="s">
+      <c r="D400" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="401" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>96</v>
       </c>
@@ -6811,11 +6803,11 @@
       <c r="C401" t="s">
         <v>76</v>
       </c>
-      <c r="D401" s="15" t="s">
+      <c r="D401" s="11" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="402" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>96</v>
       </c>
@@ -6825,25 +6817,25 @@
       <c r="C402" t="s">
         <v>76</v>
       </c>
-      <c r="D402" s="15" t="s">
+      <c r="D402" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="403" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="25" t="s">
+    <row r="403" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A403" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B403" s="25" t="s">
+      <c r="B403" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C403" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D403" s="15" t="s">
+      <c r="C403" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D403" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>97</v>
       </c>
@@ -6853,11 +6845,11 @@
       <c r="C404" t="s">
         <v>76</v>
       </c>
-      <c r="D404" s="9" t="s">
+      <c r="D404" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>97</v>
       </c>
@@ -6867,11 +6859,11 @@
       <c r="C405" t="s">
         <v>76</v>
       </c>
-      <c r="D405" s="15">
+      <c r="D405" s="11">
         <v>43538</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>97</v>
       </c>
@@ -6881,11 +6873,11 @@
       <c r="C406" t="s">
         <v>76</v>
       </c>
-      <c r="D406" s="15" t="s">
+      <c r="D406" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>97</v>
       </c>
@@ -6895,11 +6887,11 @@
       <c r="C407" t="s">
         <v>76</v>
       </c>
-      <c r="D407" s="15" t="s">
+      <c r="D407" s="11" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>97</v>
       </c>
@@ -6909,11 +6901,11 @@
       <c r="C408" t="s">
         <v>76</v>
       </c>
-      <c r="D408" s="15" t="s">
+      <c r="D408" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>97</v>
       </c>
@@ -6923,11 +6915,11 @@
       <c r="C409" t="s">
         <v>76</v>
       </c>
-      <c r="D409" s="15" t="s">
+      <c r="D409" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>97</v>
       </c>
@@ -6937,11 +6929,11 @@
       <c r="C410" t="s">
         <v>76</v>
       </c>
-      <c r="D410" s="4" t="s">
+      <c r="D410" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>97</v>
       </c>
@@ -6951,11 +6943,11 @@
       <c r="C411" t="s">
         <v>76</v>
       </c>
-      <c r="D411" s="15">
+      <c r="D411" s="11">
         <v>44068</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>97</v>
       </c>
@@ -6965,11 +6957,11 @@
       <c r="C412" t="s">
         <v>76</v>
       </c>
-      <c r="D412" s="15" t="s">
+      <c r="D412" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>97</v>
       </c>
@@ -6979,11 +6971,11 @@
       <c r="C413" t="s">
         <v>76</v>
       </c>
-      <c r="D413" s="4" t="s">
+      <c r="D413" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>97</v>
       </c>
@@ -6993,26 +6985,26 @@
       <c r="C414" t="s">
         <v>76</v>
       </c>
-      <c r="D414" s="15" t="s">
+      <c r="D414" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="415" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="25" t="s">
+    <row r="415" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A415" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B415" s="25" t="s">
+      <c r="B415" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C415" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D415" s="41" t="s">
+      <c r="C415" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D415" s="28" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A416" s="42" t="s">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A416" t="s">
         <v>200</v>
       </c>
       <c r="B416" t="s">
@@ -7021,12 +7013,12 @@
       <c r="C416" t="s">
         <v>76</v>
       </c>
-      <c r="D416" s="4" t="s">
+      <c r="D416" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A417" s="42" t="s">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A417" t="s">
         <v>200</v>
       </c>
       <c r="B417" t="s">
@@ -7035,12 +7027,12 @@
       <c r="C417" t="s">
         <v>76</v>
       </c>
-      <c r="D417" s="15">
+      <c r="D417" s="11">
         <v>44068</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A418" s="42" t="s">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A418" t="s">
         <v>200</v>
       </c>
       <c r="B418" t="s">
@@ -7049,12 +7041,12 @@
       <c r="C418" t="s">
         <v>76</v>
       </c>
-      <c r="D418" s="15" t="s">
+      <c r="D418" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A419" s="42" t="s">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A419" t="s">
         <v>200</v>
       </c>
       <c r="B419" t="s">
@@ -7063,12 +7055,12 @@
       <c r="C419" t="s">
         <v>76</v>
       </c>
-      <c r="D419" s="4" t="s">
+      <c r="D419" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A420" s="42" t="s">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A420" t="s">
         <v>200</v>
       </c>
       <c r="B420" t="s">
@@ -7077,12 +7069,12 @@
       <c r="C420" t="s">
         <v>76</v>
       </c>
-      <c r="D420" s="15" t="s">
+      <c r="D420" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A421" s="42" t="s">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A421" t="s">
         <v>200</v>
       </c>
       <c r="B421" t="s">
@@ -7091,12 +7083,12 @@
       <c r="C421" t="s">
         <v>76</v>
       </c>
-      <c r="D421" s="43" t="s">
+      <c r="D421" s="29" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A422" s="42" t="s">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A422" t="s">
         <v>200</v>
       </c>
       <c r="B422" t="s">
@@ -7105,12 +7097,12 @@
       <c r="C422" t="s">
         <v>76</v>
       </c>
-      <c r="D422" s="9" t="s">
+      <c r="D422" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A423" s="42" t="s">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A423" t="s">
         <v>200</v>
       </c>
       <c r="B423" t="s">
@@ -7119,12 +7111,12 @@
       <c r="C423" t="s">
         <v>76</v>
       </c>
-      <c r="D423" s="15">
+      <c r="D423" s="11">
         <v>44300</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A424" s="42" t="s">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A424" t="s">
         <v>200</v>
       </c>
       <c r="B424" t="s">
@@ -7133,12 +7125,12 @@
       <c r="C424" t="s">
         <v>76</v>
       </c>
-      <c r="D424" s="15" t="s">
+      <c r="D424" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A425" s="42" t="s">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A425" t="s">
         <v>200</v>
       </c>
       <c r="B425" t="s">
@@ -7147,12 +7139,12 @@
       <c r="C425" t="s">
         <v>76</v>
       </c>
-      <c r="D425" s="4" t="s">
+      <c r="D425" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A426" s="42" t="s">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A426" t="s">
         <v>200</v>
       </c>
       <c r="B426" t="s">
@@ -7161,26 +7153,26 @@
       <c r="C426" t="s">
         <v>76</v>
       </c>
-      <c r="D426" s="15" t="s">
+      <c r="D426" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="427" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="39" t="s">
+    <row r="427" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A427" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="B427" s="25" t="s">
+      <c r="B427" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C427" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D427" s="44" t="s">
+      <c r="C427" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D427" s="30" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A428" s="42" t="s">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A428" t="s">
         <v>207</v>
       </c>
       <c r="B428" t="s">
@@ -7189,12 +7181,12 @@
       <c r="C428" t="s">
         <v>76</v>
       </c>
-      <c r="D428" s="9" t="s">
+      <c r="D428" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A429" s="42" t="s">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A429" t="s">
         <v>207</v>
       </c>
       <c r="B429" t="s">
@@ -7203,12 +7195,12 @@
       <c r="C429" t="s">
         <v>76</v>
       </c>
-      <c r="D429" s="15">
+      <c r="D429" s="11">
         <v>44300</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A430" s="42" t="s">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A430" t="s">
         <v>207</v>
       </c>
       <c r="B430" t="s">
@@ -7217,12 +7209,12 @@
       <c r="C430" t="s">
         <v>76</v>
       </c>
-      <c r="D430" s="15" t="s">
+      <c r="D430" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A431" s="42" t="s">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A431" t="s">
         <v>207</v>
       </c>
       <c r="B431" t="s">
@@ -7231,12 +7223,12 @@
       <c r="C431" t="s">
         <v>76</v>
       </c>
-      <c r="D431" s="4" t="s">
+      <c r="D431" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A432" s="42" t="s">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A432" t="s">
         <v>207</v>
       </c>
       <c r="B432" t="s">
@@ -7245,12 +7237,12 @@
       <c r="C432" t="s">
         <v>76</v>
       </c>
-      <c r="D432" s="15" t="s">
+      <c r="D432" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A433" s="42" t="s">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A433" t="s">
         <v>207</v>
       </c>
       <c r="B433" t="s">
@@ -7259,12 +7251,12 @@
       <c r="C433" t="s">
         <v>76</v>
       </c>
-      <c r="D433" s="44" t="s">
+      <c r="D433" s="30" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A434" s="42" t="s">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A434" t="s">
         <v>207</v>
       </c>
       <c r="B434" t="s">
@@ -7273,12 +7265,12 @@
       <c r="C434" t="s">
         <v>76</v>
       </c>
-      <c r="D434" s="9" t="s">
+      <c r="D434" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A435" s="42" t="s">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A435" t="s">
         <v>207</v>
       </c>
       <c r="B435" t="s">
@@ -7287,12 +7279,12 @@
       <c r="C435" t="s">
         <v>76</v>
       </c>
-      <c r="D435" s="15">
+      <c r="D435" s="11">
         <v>44685</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A436" s="42" t="s">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A436" t="s">
         <v>207</v>
       </c>
       <c r="B436" t="s">
@@ -7301,12 +7293,12 @@
       <c r="C436" t="s">
         <v>76</v>
       </c>
-      <c r="D436" s="15" t="s">
+      <c r="D436" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A437" s="42" t="s">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A437" t="s">
         <v>207</v>
       </c>
       <c r="B437" t="s">
@@ -7315,12 +7307,12 @@
       <c r="C437" t="s">
         <v>76</v>
       </c>
-      <c r="D437" s="4" t="s">
+      <c r="D437" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A438" s="42" t="s">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A438" t="s">
         <v>207</v>
       </c>
       <c r="B438" t="s">
@@ -7329,22 +7321,190 @@
       <c r="C438" t="s">
         <v>76</v>
       </c>
-      <c r="D438" s="15" t="s">
+      <c r="D438" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="439" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="42" t="s">
+    <row r="439" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A439" t="s">
         <v>207</v>
       </c>
-      <c r="B439" s="25" t="s">
+      <c r="B439" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C439" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D439" s="44" t="s">
+      <c r="C439" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D439" s="30" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A440" t="s">
+        <v>211</v>
+      </c>
+      <c r="B440" t="s">
+        <v>81</v>
+      </c>
+      <c r="C440" t="s">
+        <v>76</v>
+      </c>
+      <c r="D440" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A441" t="s">
+        <v>211</v>
+      </c>
+      <c r="B441" t="s">
+        <v>145</v>
+      </c>
+      <c r="C441" t="s">
+        <v>76</v>
+      </c>
+      <c r="D441" s="11">
+        <v>44685</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A442" t="s">
+        <v>211</v>
+      </c>
+      <c r="B442" t="s">
+        <v>152</v>
+      </c>
+      <c r="C442" t="s">
+        <v>76</v>
+      </c>
+      <c r="D442" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A443" t="s">
+        <v>211</v>
+      </c>
+      <c r="B443" t="s">
+        <v>153</v>
+      </c>
+      <c r="C443" t="s">
+        <v>76</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A444" t="s">
+        <v>211</v>
+      </c>
+      <c r="B444" t="s">
+        <v>154</v>
+      </c>
+      <c r="C444" t="s">
+        <v>76</v>
+      </c>
+      <c r="D444" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A445" t="s">
+        <v>211</v>
+      </c>
+      <c r="B445" t="s">
+        <v>155</v>
+      </c>
+      <c r="C445" t="s">
+        <v>76</v>
+      </c>
+      <c r="D445" s="30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A446" t="s">
+        <v>211</v>
+      </c>
+      <c r="B446" t="s">
+        <v>75</v>
+      </c>
+      <c r="C446" t="s">
+        <v>76</v>
+      </c>
+      <c r="D446" s="32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A447" t="s">
+        <v>211</v>
+      </c>
+      <c r="B447" t="s">
+        <v>146</v>
+      </c>
+      <c r="C447" t="s">
+        <v>76</v>
+      </c>
+      <c r="D447" s="11">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A448" t="s">
+        <v>211</v>
+      </c>
+      <c r="B448" t="s">
+        <v>148</v>
+      </c>
+      <c r="C448" t="s">
+        <v>76</v>
+      </c>
+      <c r="D448" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A449" t="s">
+        <v>211</v>
+      </c>
+      <c r="B449" t="s">
+        <v>149</v>
+      </c>
+      <c r="C449" t="s">
+        <v>76</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A450" t="s">
+        <v>211</v>
+      </c>
+      <c r="B450" t="s">
+        <v>150</v>
+      </c>
+      <c r="C450" t="s">
+        <v>76</v>
+      </c>
+      <c r="D450" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A451" t="s">
+        <v>211</v>
+      </c>
+      <c r="B451" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C451" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D451" s="30" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/global_attribute_table.xlsx
+++ b/global_attribute_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/wyn028_csiro_au/Documents/Documents/GitHub/saz-data-processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{12F1C9AC-E2A6-4BB2-B17F-7142736324D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70366FC0-3A7B-4BE8-A884-ED393C8C8C11}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{12F1C9AC-E2A6-4BB2-B17F-7142736324D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20081FBB-1636-47D5-9C10-FFD6ABF8A474}"/>
   <bookViews>
-    <workbookView xWindow="-8990" yWindow="-21710" windowWidth="38620" windowHeight="21220" xr2:uid="{AB62E28C-C197-1443-8F5C-081BEC806BA6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AB62E28C-C197-1443-8F5C-081BEC806BA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="219">
   <si>
     <t>Oceanographic and meteorological data from the Southern Ocean Time Series observatory in the Southern Ocean southwest of Tasmania.</t>
   </si>
@@ -41,12 +41,6 @@
     <t>IMOS</t>
   </si>
   <si>
-    <t>Peter Jansen</t>
-  </si>
-  <si>
-    <t>peter.jansen@csiro.au</t>
-  </si>
-  <si>
     <t>Station</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>metres</t>
   </si>
   <si>
-    <t>CSIRO; Antarctic Climate &amp; Ecosystem Cooperative Research Centre</t>
-  </si>
-  <si>
     <t>CSIRO Marine Laboratories, Castray Esp, Hobart, Tasmania 7001, Australia; 20 Castray Esplanade, Hobart Tasmania 7000, Australia</t>
   </si>
   <si>
@@ -297,9 +288,6 @@
   </si>
   <si>
     <t>Cathryn Wynn-Edwards</t>
-  </si>
-  <si>
-    <t>data analysis</t>
   </si>
   <si>
     <t xml:space="preserve">contributor_name </t>
@@ -717,6 +705,33 @@
   </si>
   <si>
     <t>096U20230510</t>
+  </si>
+  <si>
+    <t>SAZ47-25-2023</t>
+  </si>
+  <si>
+    <t>https://www.cmar.csiro.au/data/trawler/survey_details.cfm?survey=IN2024_V02</t>
+  </si>
+  <si>
+    <t>IN2023_V03</t>
+  </si>
+  <si>
+    <t>IN2024_V02</t>
+  </si>
+  <si>
+    <t>096U20240330</t>
+  </si>
+  <si>
+    <t>cathryn.wynn-edwards@csiro.au</t>
+  </si>
+  <si>
+    <t>Gemma Woodward</t>
+  </si>
+  <si>
+    <t>sample processing</t>
+  </si>
+  <si>
+    <t>CSIRO; Australian Antarctic Program Partnership</t>
   </si>
 </sst>
 </file>
@@ -930,9 +945,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -970,7 +985,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1076,7 +1091,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1218,7 +1233,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1226,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53348BFB-8ECF-4745-825D-D0BA3C53E339}">
-  <dimension ref="A1:D451"/>
+  <dimension ref="A1:D463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="D452" sqref="D452"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1244,27 +1259,27 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -1272,433 +1287,433 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
+        <v>73</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>87</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>88</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>19</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>1</v>
@@ -1706,125 +1721,125 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>0</v>
@@ -1832,280 +1847,280 @@
     </row>
     <row r="43" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D45" s="16"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B46" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B47" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B48" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D49" s="9"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C52" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C53" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C54" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B57" s="15" t="s">
-        <v>145</v>
-      </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D57" s="16"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C58" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D61" s="9"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B63" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D63" s="17">
         <v>36197</v>
@@ -2113,163 +2128,163 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B64" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B65" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C66" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C69" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D69" s="16"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B70" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C70" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B71" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C71" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B72" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C72" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D73" s="26"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C75" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D75" s="17">
         <v>36197</v>
@@ -2277,83 +2292,83 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C76" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B77" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C77" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C78" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B81" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C81" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D81" s="14">
         <v>36354</v>
@@ -2361,163 +2376,163 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B82" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C82" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B83" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C83" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B84" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C84" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B85" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C85" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B86" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C86" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D87" s="16"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C88" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B89" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C89" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B90" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C90" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D91" s="9"/>
     </row>
     <row r="92" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B93" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C93" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D93" s="14">
         <v>36354</v>
@@ -2525,243 +2540,243 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B94" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C94" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B95" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C95" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B96" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C96" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B97" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C97" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B98" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C98" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D99" s="16"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B100" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C100" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B101" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C101" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B102" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C102" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C103" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D103" s="16"/>
     </row>
     <row r="104" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C105" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D105" s="16"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B106" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C106" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B107" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C107" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B108" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C108" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D109" s="9"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B110" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C110" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B111" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C111" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D111" s="14">
         <v>37193</v>
@@ -2769,163 +2784,163 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B112" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C112" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B113" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C113" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B114" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C114" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="116" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C117" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D117" s="16"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C118" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C119" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C120" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="121" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D121" s="16"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C122" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C123" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D123" s="14">
         <v>37193</v>
@@ -2933,83 +2948,83 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C124" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B125" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C125" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B126" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C126" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="128" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B129" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C129" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D129" s="14">
         <v>37193</v>
@@ -3017,83 +3032,83 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B130" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C130" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C131" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C132" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C133" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C134" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C135" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D135" s="14">
         <v>37542</v>
@@ -3101,83 +3116,83 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C136" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C137" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C138" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="140" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B141" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C141" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D141" s="14">
         <v>37193</v>
@@ -3185,83 +3200,83 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B142" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C142" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B143" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C143" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B144" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C144" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B145" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C145" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B146" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C146" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B147" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C147" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D147" s="14">
         <v>37542</v>
@@ -3269,83 +3284,83 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C148" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C149" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C150" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="152" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B153" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C153" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D153" s="14">
         <v>37193</v>
@@ -3353,83 +3368,83 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B154" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C154" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B155" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C155" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B156" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C156" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B157" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C157" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B158" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C158" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B159" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C159" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D159" s="14">
         <v>37542</v>
@@ -3437,83 +3452,83 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B160" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C160" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B161" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C161" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B162" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C162" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="164" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B165" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C165" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D165" s="14">
         <v>37542</v>
@@ -3521,83 +3536,83 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B166" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C166" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B167" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C167" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B168" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C168" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B169" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C169" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B170" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C170" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B171" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C171" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D171" s="17">
         <v>37872</v>
@@ -3605,83 +3620,83 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B172" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C172" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B173" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C173" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B174" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C174" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="176" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B176" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B177" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C177" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D177" s="14">
         <v>37542</v>
@@ -3689,167 +3704,167 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B178" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C178" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B179" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C179" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B180" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C180" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B181" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C181" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B182" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C182" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B183" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C183" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B184" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C184" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B185" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C185" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B186" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C186" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="188" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B188" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B189" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C189" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D189" s="17">
         <v>37872</v>
@@ -3857,83 +3872,83 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B190" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C190" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B191" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C191" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B192" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C192" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B193" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C193" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B194" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C194" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B195" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C195" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D195" s="17">
         <v>38261</v>
@@ -3941,83 +3956,83 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B196" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C196" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B197" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C197" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B198" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C198" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="200" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B200" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B201" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C201" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D201" s="17">
         <v>37872</v>
@@ -4025,83 +4040,83 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B202" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C202" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B203" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C203" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B204" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C204" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B205" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C205" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B206" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C206" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B207" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C207" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D207" s="17">
         <v>38261</v>
@@ -4109,83 +4124,83 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B208" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C208" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B209" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C209" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B210" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C210" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B211" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="212" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B212" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D212" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B213" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C213" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D213" s="17">
         <v>38261</v>
@@ -4193,163 +4208,163 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B214" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C214" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B215" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C215" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B216" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C216" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B217" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C217" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B218" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C218" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="219" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D219" s="16"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B220" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C220" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B221" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C221" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B222" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C222" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B223" s="27" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C223" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D223" s="9"/>
     </row>
     <row r="224" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A224" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B224" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C224" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D224" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B225" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C225" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D225" s="17">
         <v>38261</v>
@@ -4357,243 +4372,243 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B226" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C226" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B227" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C227" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B228" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C228" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B229" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C229" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B230" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C230" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="231" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C231" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D231" s="16"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B232" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C232" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B233" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C233" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B234" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C234" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="235" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A235" s="15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B235" s="27" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C235" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D235" s="16"/>
     </row>
     <row r="236" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A236" s="20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B236" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D236" s="25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="237" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A237" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C237" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D237" s="16"/>
     </row>
     <row r="238" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B238" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C238" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="239" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B239" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C239" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="240" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B240" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C240" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="241" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C241" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D241" s="16"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B242" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C242" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B243" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C243" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D243" s="14">
         <v>38990</v>
@@ -4601,163 +4616,163 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B244" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C244" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B245" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C245" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D245" s="14" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B246" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C246" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B247" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C247" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="248" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A248" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B248" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C248" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D248" s="25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="249" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A249" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C249" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D249" s="16"/>
     </row>
     <row r="250" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B250" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C250" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="251" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B251" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C251" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="252" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B252" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C252" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="253" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A253" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C253" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D253" s="26"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B254" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C254" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B255" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C255" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D255" s="14">
         <v>38990</v>
@@ -4765,83 +4780,83 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B256" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C256" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B257" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C257" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B258" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C258" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B259" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C259" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="260" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A260" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B260" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C260" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D260" s="25" t="s">
         <v>108</v>
-      </c>
-      <c r="B260" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C260" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D260" s="25" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B261" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C261" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D261" s="14">
         <v>38990</v>
@@ -4849,167 +4864,167 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B262" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C262" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B263" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C263" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D263" s="14" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B264" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C264" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B265" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C265" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B266" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C266" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D266" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B267" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C267" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B268" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C268" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B269" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C269" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B270" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C270" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D270" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B271" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C271" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="272" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A272" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B272" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C272" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D272" s="25" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B273" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C273" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D273" s="14">
         <v>38990</v>
@@ -5017,83 +5032,83 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B274" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C274" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B275" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C275" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B276" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C276" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B277" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C277" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
+        <v>103</v>
+      </c>
+      <c r="B278" t="s">
+        <v>72</v>
+      </c>
+      <c r="C278" t="s">
+        <v>73</v>
+      </c>
+      <c r="D278" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="B278" t="s">
-        <v>75</v>
-      </c>
-      <c r="C278" t="s">
-        <v>76</v>
-      </c>
-      <c r="D278" s="9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B279" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C279" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D279" s="14">
         <v>39432</v>
@@ -5101,83 +5116,83 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B280" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C280" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
+        <v>103</v>
+      </c>
+      <c r="B281" t="s">
+        <v>145</v>
+      </c>
+      <c r="C281" t="s">
+        <v>73</v>
+      </c>
+      <c r="D281" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="B281" t="s">
-        <v>149</v>
-      </c>
-      <c r="C281" t="s">
-        <v>76</v>
-      </c>
-      <c r="D281" s="9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B282" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C282" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B283" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C283" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="284" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A284" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B284" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C284" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D284" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B285" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C285" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D285" s="17">
         <v>39724</v>
@@ -5185,83 +5200,83 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B286" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C286" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B287" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C287" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D287" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B288" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C288" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B289" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C289" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B290" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C290" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D290" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
+        <v>138</v>
+      </c>
+      <c r="B291" t="s">
         <v>142</v>
       </c>
-      <c r="B291" t="s">
-        <v>146</v>
-      </c>
       <c r="C291" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D291" s="11">
         <v>40078</v>
@@ -5269,83 +5284,83 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B292" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C292" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D292" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B293" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C293" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D293" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B294" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C294" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D294" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B295" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C295" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D295" s="12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="296" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A296" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B296" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C296" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D296" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B297" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C297" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D297" s="11">
         <v>40078</v>
@@ -5353,83 +5368,83 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B298" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C298" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D298" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B299" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C299" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D299" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B300" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C300" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D300" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B301" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C301" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D301" s="12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B302" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C302" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D302" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B303" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C303" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D303" s="17">
         <v>40428</v>
@@ -5437,83 +5452,83 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B304" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C304" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D304" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B305" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C305" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B306" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C306" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D306" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B307" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C307" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="308" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A308" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B308" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C308" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D308" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B309" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C309" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D309" s="17">
         <v>40428</v>
@@ -5521,83 +5536,83 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B310" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C310" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D310" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B311" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C311" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B312" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C312" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D312" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B313" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C313" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D313" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B314" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C314" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D314" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B315" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C315" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D315" s="17">
         <v>40756</v>
@@ -5605,83 +5620,83 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B316" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C316" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D316" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B317" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C317" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B318" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C318" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D318" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B319" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C319" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D319" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="320" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A320" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B320" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C320" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D320" s="25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B321" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C321" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D321" s="17">
         <v>40756</v>
@@ -5689,83 +5704,83 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B322" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C322" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D322" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B323" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C323" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B324" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C324" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D324" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B325" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C325" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D325" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B326" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C326" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D326" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B327" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C327" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D327" s="13">
         <v>41102</v>
@@ -5773,83 +5788,83 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B328" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C328" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D328" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B329" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C329" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D329" s="13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B330" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C330" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D330" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B331" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C331" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D331" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="332" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A332" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B332" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C332" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D332" s="24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B333" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C333" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D333" s="13">
         <v>41102</v>
@@ -5857,83 +5872,83 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B334" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C334" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D334" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B335" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C335" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D335" s="13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B336" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C336" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D336" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B337" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C337" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D337" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B338" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C338" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B339" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C339" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D339" s="17">
         <v>41553</v>
@@ -5941,83 +5956,83 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B340" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C340" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D340" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B341" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C341" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B342" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C342" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D342" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B343" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C343" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D343" s="12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="344" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A344" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B344" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B344" s="20" t="s">
-        <v>81</v>
-      </c>
       <c r="C344" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D344" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B345" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C345" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D345" s="12">
         <v>41392</v>
@@ -6025,83 +6040,83 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B346" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C346" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D346" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B347" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C347" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D347" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B348" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C348" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D348" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B349" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C349" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D349" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B350" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C350" t="s">
+        <v>73</v>
+      </c>
+      <c r="D350" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D350" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B351" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C351" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D351" s="11">
         <v>42084</v>
@@ -6109,83 +6124,83 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B352" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C352" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D352" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B353" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C353" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D353" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B354" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C354" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D354" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B355" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C355" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D355" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="356" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A356" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B356" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C356" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D356" s="21" t="s">
         <v>76</v>
-      </c>
-      <c r="D356" s="21" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B357" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C357" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D357" s="11">
         <v>42084</v>
@@ -6193,83 +6208,83 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B358" t="s">
+        <v>148</v>
+      </c>
+      <c r="C358" t="s">
+        <v>73</v>
+      </c>
+      <c r="D358" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="C358" t="s">
-        <v>76</v>
-      </c>
-      <c r="D358" s="11" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B359" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C359" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D359" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B360" t="s">
+        <v>150</v>
+      </c>
+      <c r="C360" t="s">
+        <v>73</v>
+      </c>
+      <c r="D360" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="C360" t="s">
-        <v>76</v>
-      </c>
-      <c r="D360" s="11" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B361" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C361" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D361" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
+        <v>77</v>
+      </c>
+      <c r="B362" t="s">
+        <v>72</v>
+      </c>
+      <c r="C362" t="s">
+        <v>73</v>
+      </c>
+      <c r="D362" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B362" t="s">
-        <v>75</v>
-      </c>
-      <c r="C362" t="s">
-        <v>76</v>
-      </c>
-      <c r="D362" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B363" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C363" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D363" s="11">
         <v>42443</v>
@@ -6277,83 +6292,83 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B364" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C364" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D364" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B365" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C365" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D365" s="11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B366" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C366" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D366" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B367" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C367" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D367" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="368" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A368" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B368" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C368" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D368" s="21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B369" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C369" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D369" s="11">
         <v>42443</v>
@@ -6361,83 +6376,83 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B370" t="s">
+        <v>148</v>
+      </c>
+      <c r="C370" t="s">
+        <v>73</v>
+      </c>
+      <c r="D370" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="C370" t="s">
-        <v>76</v>
-      </c>
-      <c r="D370" s="11" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B371" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C371" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D371" s="11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B372" t="s">
+        <v>150</v>
+      </c>
+      <c r="C372" t="s">
+        <v>73</v>
+      </c>
+      <c r="D372" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="C372" t="s">
-        <v>76</v>
-      </c>
-      <c r="D372" s="11" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B373" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C373" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D373" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B374" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C374" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B375" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C375" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D375" s="11">
         <v>42811</v>
@@ -6445,83 +6460,83 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B376" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C376" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D376" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B377" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C377" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D377" s="11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B378" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C378" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D378" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B379" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C379" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D379" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="380" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A380" s="22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B380" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C380" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D380" s="21" t="s">
         <v>81</v>
-      </c>
-      <c r="C380" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D380" s="21" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B381" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C381" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D381" s="11">
         <v>42811</v>
@@ -6529,83 +6544,83 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B382" t="s">
+        <v>148</v>
+      </c>
+      <c r="C382" t="s">
+        <v>73</v>
+      </c>
+      <c r="D382" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="C382" t="s">
-        <v>76</v>
-      </c>
-      <c r="D382" s="11" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B383" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C383" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D383" s="11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B384" t="s">
+        <v>150</v>
+      </c>
+      <c r="C384" t="s">
+        <v>73</v>
+      </c>
+      <c r="D384" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="C384" t="s">
-        <v>76</v>
-      </c>
-      <c r="D384" s="11" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B385" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C385" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D385" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B386" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C386" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A387" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B387" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C387" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D387" s="17">
         <v>43162</v>
@@ -6613,83 +6628,83 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A388" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B388" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C388" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D388" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B389" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C389" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D389" s="17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B390" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C390" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D390" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B391" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C391" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D391" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="392" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A392" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B392" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C392" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D392" s="21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B393" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C393" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D393" s="17">
         <v>43162</v>
@@ -6697,83 +6712,83 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B394" t="s">
+        <v>148</v>
+      </c>
+      <c r="C394" t="s">
+        <v>73</v>
+      </c>
+      <c r="D394" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="C394" t="s">
-        <v>76</v>
-      </c>
-      <c r="D394" s="11" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B395" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C395" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D395" s="17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B396" t="s">
+        <v>150</v>
+      </c>
+      <c r="C396" t="s">
+        <v>73</v>
+      </c>
+      <c r="D396" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="C396" t="s">
-        <v>76</v>
-      </c>
-      <c r="D396" s="11" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B397" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C397" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D397" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B398" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C398" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B399" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C399" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D399" s="11">
         <v>43538</v>
@@ -6781,83 +6796,83 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B400" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C400" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D400" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B401" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C401" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D401" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B402" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C402" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D402" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="403" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A403" s="19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B403" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C403" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D403" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B404" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C404" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D404" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B405" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C405" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D405" s="11">
         <v>43538</v>
@@ -6865,83 +6880,83 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B406" t="s">
+        <v>148</v>
+      </c>
+      <c r="C406" t="s">
+        <v>73</v>
+      </c>
+      <c r="D406" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="C406" t="s">
-        <v>76</v>
-      </c>
-      <c r="D406" s="11" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B407" t="s">
+        <v>149</v>
+      </c>
+      <c r="C407" t="s">
+        <v>73</v>
+      </c>
+      <c r="D407" s="11" t="s">
         <v>153</v>
-      </c>
-      <c r="C407" t="s">
-        <v>76</v>
-      </c>
-      <c r="D407" s="11" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B408" t="s">
+        <v>150</v>
+      </c>
+      <c r="C408" t="s">
+        <v>73</v>
+      </c>
+      <c r="D408" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="C408" t="s">
-        <v>76</v>
-      </c>
-      <c r="D408" s="11" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B409" t="s">
+        <v>151</v>
+      </c>
+      <c r="C409" t="s">
+        <v>73</v>
+      </c>
+      <c r="D409" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="C409" t="s">
-        <v>76</v>
-      </c>
-      <c r="D409" s="11" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B410" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C410" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B411" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C411" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D411" s="11">
         <v>44068</v>
@@ -6949,83 +6964,83 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B412" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C412" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D412" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B413" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C413" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B414" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C414" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D414" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="415" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A415" s="19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B415" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C415" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D415" s="28" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B416" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C416" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B417" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C417" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D417" s="11">
         <v>44068</v>
@@ -7033,83 +7048,83 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B418" t="s">
+        <v>148</v>
+      </c>
+      <c r="C418" t="s">
+        <v>73</v>
+      </c>
+      <c r="D418" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="C418" t="s">
-        <v>76</v>
-      </c>
-      <c r="D418" s="11" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B419" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C419" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B420" t="s">
+        <v>150</v>
+      </c>
+      <c r="C420" t="s">
+        <v>73</v>
+      </c>
+      <c r="D420" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="C420" t="s">
-        <v>76</v>
-      </c>
-      <c r="D420" s="11" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B421" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C421" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D421" s="29" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B422" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C422" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D422" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B423" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C423" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D423" s="11">
         <v>44300</v>
@@ -7117,83 +7132,83 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B424" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C424" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D424" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B425" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C425" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B426" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C426" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D426" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="427" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A427" s="19" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B427" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C427" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D427" s="30" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B428" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C428" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D428" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B429" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C429" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D429" s="11">
         <v>44300</v>
@@ -7201,83 +7216,83 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B430" t="s">
+        <v>148</v>
+      </c>
+      <c r="C430" t="s">
+        <v>73</v>
+      </c>
+      <c r="D430" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="C430" t="s">
-        <v>76</v>
-      </c>
-      <c r="D430" s="11" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B431" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C431" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B432" t="s">
+        <v>150</v>
+      </c>
+      <c r="C432" t="s">
+        <v>73</v>
+      </c>
+      <c r="D432" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="C432" t="s">
-        <v>76</v>
-      </c>
-      <c r="D432" s="11" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B433" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C433" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D433" s="30" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B434" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C434" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D434" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B435" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C435" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D435" s="11">
         <v>44685</v>
@@ -7285,83 +7300,83 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B436" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C436" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D436" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B437" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C437" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B438" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C438" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D438" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="439" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B439" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C439" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D439" s="30" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B440" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C440" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D440" s="32" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B441" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C441" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D441" s="11">
         <v>44685</v>
@@ -7369,83 +7384,83 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B442" t="s">
+        <v>148</v>
+      </c>
+      <c r="C442" t="s">
+        <v>73</v>
+      </c>
+      <c r="D442" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="C442" t="s">
-        <v>76</v>
-      </c>
-      <c r="D442" s="11" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B443" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C443" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B444" t="s">
+        <v>150</v>
+      </c>
+      <c r="C444" t="s">
+        <v>73</v>
+      </c>
+      <c r="D444" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="C444" t="s">
-        <v>76</v>
-      </c>
-      <c r="D444" s="11" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B445" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C445" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D445" s="30" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B446" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C446" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D446" s="32" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B447" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C447" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D447" s="11">
         <v>45056</v>
@@ -7453,58 +7468,226 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B448" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C448" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D448" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B449" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C449" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D449" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B450" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C450" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D450" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
+        <v>207</v>
+      </c>
+      <c r="B451" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C451" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D451" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A452" t="s">
+        <v>210</v>
+      </c>
+      <c r="B452" t="s">
+        <v>78</v>
+      </c>
+      <c r="C452" t="s">
+        <v>73</v>
+      </c>
+      <c r="D452" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A453" t="s">
+        <v>210</v>
+      </c>
+      <c r="B453" t="s">
+        <v>141</v>
+      </c>
+      <c r="C453" t="s">
+        <v>73</v>
+      </c>
+      <c r="D453" s="11">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A454" t="s">
+        <v>210</v>
+      </c>
+      <c r="B454" t="s">
+        <v>148</v>
+      </c>
+      <c r="C454" t="s">
+        <v>73</v>
+      </c>
+      <c r="D454" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A455" t="s">
+        <v>210</v>
+      </c>
+      <c r="B455" t="s">
+        <v>149</v>
+      </c>
+      <c r="C455" t="s">
+        <v>73</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A456" t="s">
+        <v>210</v>
+      </c>
+      <c r="B456" t="s">
+        <v>150</v>
+      </c>
+      <c r="C456" t="s">
+        <v>73</v>
+      </c>
+      <c r="D456" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A457" t="s">
+        <v>210</v>
+      </c>
+      <c r="B457" t="s">
+        <v>151</v>
+      </c>
+      <c r="C457" t="s">
+        <v>73</v>
+      </c>
+      <c r="D457" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A458" t="s">
+        <v>210</v>
+      </c>
+      <c r="B458" t="s">
+        <v>72</v>
+      </c>
+      <c r="C458" t="s">
+        <v>73</v>
+      </c>
+      <c r="D458" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B451" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C451" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D451" s="30" t="s">
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A459" t="s">
+        <v>210</v>
+      </c>
+      <c r="B459" t="s">
+        <v>142</v>
+      </c>
+      <c r="C459" t="s">
+        <v>73</v>
+      </c>
+      <c r="D459" s="11">
+        <v>45381</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A460" t="s">
+        <v>210</v>
+      </c>
+      <c r="B460" t="s">
+        <v>144</v>
+      </c>
+      <c r="C460" t="s">
+        <v>73</v>
+      </c>
+      <c r="D460" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A461" t="s">
+        <v>210</v>
+      </c>
+      <c r="B461" t="s">
+        <v>145</v>
+      </c>
+      <c r="C461" t="s">
+        <v>73</v>
+      </c>
+      <c r="D461" s="3" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A462" t="s">
+        <v>210</v>
+      </c>
+      <c r="B462" t="s">
+        <v>146</v>
+      </c>
+      <c r="C462" t="s">
+        <v>73</v>
+      </c>
+      <c r="D462" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A463" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B463" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C463" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D463" s="28" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -7516,8 +7699,9 @@
     <hyperlink ref="D422" r:id="rId5" xr:uid="{399046D0-A776-417A-B1E8-1AAD0E36BB26}"/>
     <hyperlink ref="D434" r:id="rId6" xr:uid="{EF8CFF56-5FDC-4EAF-93AB-3DEAE8FCD2B6}"/>
     <hyperlink ref="D428" r:id="rId7" xr:uid="{05E1088F-8CB5-47E5-ADB3-6496111263A7}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{79BDFB91-83A7-4714-AA52-F67173EF64B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/global_attribute_table.xlsx
+++ b/global_attribute_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/wyn028_csiro_au/Documents/Documents/GitHub/saz-data-processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{12F1C9AC-E2A6-4BB2-B17F-7142736324D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20081FBB-1636-47D5-9C10-FFD6ABF8A474}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{12F1C9AC-E2A6-4BB2-B17F-7142736324D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{917B9DF2-4B4A-4205-8B3C-B97930D09ADE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AB62E28C-C197-1443-8F5C-081BEC806BA6}"/>
   </bookViews>
@@ -1243,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53348BFB-8ECF-4745-825D-D0BA3C53E339}">
   <dimension ref="A1:D463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A446" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="B450" sqref="B450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7508,8 +7508,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A451" t="s">
+    <row r="451" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A451" s="19" t="s">
         <v>207</v>
       </c>
       <c r="B451" s="19" t="s">
